--- a/sorties/données exportées.xlsx
+++ b/sorties/données exportées.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="36">
   <si>
     <t xml:space="preserve">v max</t>
   </si>
@@ -114,10 +114,31 @@
     <t xml:space="preserve">t</t>
   </si>
   <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">m/s²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m vide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m tot</t>
   </si>
 </sst>
 </file>
@@ -134,7 +155,7 @@
     <numFmt numFmtId="170" formatCode="0.00000"/>
     <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -173,6 +194,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -184,7 +215,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -279,11 +310,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,7 +330,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFE7E6E6"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -312,11 +343,11 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFE7E6E6"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -346,7 +377,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -357,6 +388,839 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stadler FLIRT'!$K$4:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stadler FLIRT'!$P$4:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>103.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.777777777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137.777777777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172.222222222222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120.555555555556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.555555555556</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.2777777777778</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.0555555555555</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43.0555555555555</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34.4444444444445</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.61111111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="17805174"/>
+        <c:axId val="47406007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="17805174"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="fr-FR" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="fr-FR" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Vitesse (km/h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47406007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="47406007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="fr-FR" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="fr-FR" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Traction (kN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17805174"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stadler FLIRT'!$Q$1:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stadler FLIRT'!$K$3:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stadler FLIRT'!$Q$3:$Q$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="1">
+                  <c:v>172.222222222222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>535.802469135802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>841.975308641975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1334.72222222222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1961.41975308642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2152.77777777778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2540.27777777778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2210.18518518518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2066.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2645.52469135802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009.25925925926</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2583.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1334.72222222222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2344.13580246913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1951.85185185185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2104.93827160494</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2258.02469135803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2092.97839506173</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1880.09259259259</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1966.20370370371</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2052.31481481482</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1770.06172839506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1829.86111111111</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1502.16049382716</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>377.932098765432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="17187128"/>
+        <c:axId val="30396800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="17187128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="fr-FR" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="fr-FR" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Vitesse (km/h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30396800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="30396800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="fr-FR" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="fr-FR" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Puissance (kW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17187128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>280440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>332640</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12894480" y="530640"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>327600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>170280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>379800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12941640" y="4025880"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,7 +1236,7 @@
       <selection pane="bottomLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.29"/>
   </cols>
@@ -2748,7 +3612,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3430,7 +4294,7 @@
       <selection pane="bottomLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4657,7 +5521,7 @@
       <selection pane="bottomLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4703,10 +5567,10 @@
       <c r="C3" s="11" t="n">
         <v>89.97448</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="14" t="n">
         <v>482.253086419753</v>
       </c>
-      <c r="E3" s="15" t="n">
+      <c r="E3" s="14" t="n">
         <v>69.4444444444444</v>
       </c>
     </row>
@@ -4720,10 +5584,10 @@
       <c r="C4" s="11" t="n">
         <v>95.10656</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="14" t="n">
         <v>501.736111111111</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="14" t="n">
         <v>70.8333333333333</v>
       </c>
     </row>
@@ -4737,10 +5601,10 @@
       <c r="C5" s="11" t="n">
         <v>98.49486</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="14" t="n">
         <v>521.604938271605</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="14" t="n">
         <v>72.2222222222222</v>
       </c>
     </row>
@@ -4754,10 +5618,10 @@
       <c r="C6" s="11" t="n">
         <v>102.9141</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D6" s="14" t="n">
         <v>541.859567901234</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="14" t="n">
         <v>73.6111111111111</v>
       </c>
     </row>
@@ -4771,10 +5635,10 @@
       <c r="C7" s="11" t="n">
         <v>107.5905</v>
       </c>
-      <c r="D7" s="15" t="n">
+      <c r="D7" s="14" t="n">
         <v>562.5</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="14" t="n">
         <v>75</v>
       </c>
     </row>
@@ -4788,10 +5652,10 @@
       <c r="C8" s="11" t="n">
         <v>112.43868</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D8" s="14" t="n">
         <v>583.526234567901</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="14" t="n">
         <v>76.3888888888889</v>
       </c>
     </row>
@@ -4805,10 +5669,10 @@
       <c r="C9" s="11" t="n">
         <v>116.85136</v>
       </c>
-      <c r="D9" s="15" t="n">
+      <c r="D9" s="14" t="n">
         <v>604.938271604938</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="14" t="n">
         <v>77.7777777777778</v>
       </c>
     </row>
@@ -4822,10 +5686,10 @@
       <c r="C10" s="11" t="n">
         <v>121.99237</v>
       </c>
-      <c r="D10" s="15" t="n">
+      <c r="D10" s="14" t="n">
         <v>626.736111111111</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="14" t="n">
         <v>79.1666666666667</v>
       </c>
     </row>
@@ -4839,10 +5703,10 @@
       <c r="C11" s="11" t="n">
         <v>126.86574</v>
       </c>
-      <c r="D11" s="15" t="n">
+      <c r="D11" s="14" t="n">
         <v>648.91975308642</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="14" t="n">
         <v>80.5555555555555</v>
       </c>
     </row>
@@ -4856,10 +5720,10 @@
       <c r="C12" s="11" t="n">
         <v>131.99621</v>
       </c>
-      <c r="D12" s="15" t="n">
+      <c r="D12" s="14" t="n">
         <v>671.489197530864</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="14" t="n">
         <v>81.9444444444444</v>
       </c>
     </row>
@@ -4873,10 +5737,10 @@
       <c r="C13" s="11" t="n">
         <v>141.08004</v>
       </c>
-      <c r="D13" s="15" t="n">
+      <c r="D13" s="14" t="n">
         <v>694.444444444445</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="14" t="n">
         <v>83.3333333333333</v>
       </c>
     </row>
@@ -4890,10 +5754,10 @@
       <c r="C14" s="11" t="n">
         <v>143.39282</v>
       </c>
-      <c r="D14" s="15" t="n">
+      <c r="D14" s="14" t="n">
         <v>717.78549382716</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E14" s="14" t="n">
         <v>84.7222222222222</v>
       </c>
     </row>
@@ -4907,10 +5771,10 @@
       <c r="C15" s="11" t="n">
         <v>148.58668</v>
       </c>
-      <c r="D15" s="15" t="n">
+      <c r="D15" s="14" t="n">
         <v>741.512345679012</v>
       </c>
-      <c r="E15" s="15" t="n">
+      <c r="E15" s="14" t="n">
         <v>86.1111111111111</v>
       </c>
     </row>
@@ -4924,10 +5788,10 @@
       <c r="C16" s="11" t="n">
         <v>155.14464</v>
       </c>
-      <c r="D16" s="15" t="n">
+      <c r="D16" s="14" t="n">
         <v>765.625</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="14" t="n">
         <v>87.5</v>
       </c>
     </row>
@@ -4941,10 +5805,10 @@
       <c r="C17" s="11" t="n">
         <v>160.68606</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D17" s="14" t="n">
         <v>790.123456790124</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E17" s="14" t="n">
         <v>88.8888888888889</v>
       </c>
     </row>
@@ -4958,10 +5822,10 @@
       <c r="C18" s="11" t="n">
         <v>166.47398</v>
       </c>
-      <c r="D18" s="15" t="n">
+      <c r="D18" s="14" t="n">
         <v>815.007716049382</v>
       </c>
-      <c r="E18" s="15" t="n">
+      <c r="E18" s="14" t="n">
         <v>90.2777777777778</v>
       </c>
     </row>
@@ -4975,10 +5839,10 @@
       <c r="C19" s="11" t="n">
         <v>172.76403</v>
       </c>
-      <c r="D19" s="15" t="n">
+      <c r="D19" s="14" t="n">
         <v>840.277777777778</v>
       </c>
-      <c r="E19" s="15" t="n">
+      <c r="E19" s="14" t="n">
         <v>91.6666666666667</v>
       </c>
     </row>
@@ -4992,10 +5856,10 @@
       <c r="C20" s="11" t="n">
         <v>179.83655</v>
       </c>
-      <c r="D20" s="15" t="n">
+      <c r="D20" s="14" t="n">
         <v>865.933641975309</v>
       </c>
-      <c r="E20" s="15" t="n">
+      <c r="E20" s="14" t="n">
         <v>93.0555555555555</v>
       </c>
     </row>
@@ -5009,10 +5873,10 @@
       <c r="C21" s="11" t="n">
         <v>185.81259</v>
       </c>
-      <c r="D21" s="15" t="n">
+      <c r="D21" s="14" t="n">
         <v>891.975308641975</v>
       </c>
-      <c r="E21" s="15" t="n">
+      <c r="E21" s="14" t="n">
         <v>94.4444444444444</v>
       </c>
     </row>
@@ -5026,10 +5890,10 @@
       <c r="C22" s="11" t="n">
         <v>193.81363</v>
       </c>
-      <c r="D22" s="15" t="n">
+      <c r="D22" s="14" t="n">
         <v>918.402777777778</v>
       </c>
-      <c r="E22" s="15" t="n">
+      <c r="E22" s="14" t="n">
         <v>95.8333333333333</v>
       </c>
     </row>
@@ -5043,10 +5907,10 @@
       <c r="C23" s="11" t="n">
         <v>200.02768</v>
       </c>
-      <c r="D23" s="15" t="n">
+      <c r="D23" s="14" t="n">
         <v>945.216049382716</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E23" s="14" t="n">
         <v>97.2222222222222</v>
       </c>
     </row>
@@ -5060,10 +5924,10 @@
       <c r="C24" s="11" t="n">
         <v>207.20583</v>
       </c>
-      <c r="D24" s="15" t="n">
+      <c r="D24" s="14" t="n">
         <v>972.41512345679</v>
       </c>
-      <c r="E24" s="15" t="n">
+      <c r="E24" s="14" t="n">
         <v>98.6111111111111</v>
       </c>
     </row>
@@ -5077,10 +5941,10 @@
       <c r="C25" s="11" t="n">
         <v>214.06653</v>
       </c>
-      <c r="D25" s="15" t="n">
+      <c r="D25" s="14" t="n">
         <v>1000</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5094,10 +5958,10 @@
       <c r="C26" s="11" t="n">
         <v>221.32776</v>
       </c>
-      <c r="D26" s="15" t="n">
+      <c r="D26" s="14" t="n">
         <v>1027.97067901235</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E26" s="14" t="n">
         <v>101.388888888889</v>
       </c>
     </row>
@@ -5111,10 +5975,10 @@
       <c r="C27" s="11" t="n">
         <v>229.61675</v>
       </c>
-      <c r="D27" s="15" t="n">
+      <c r="D27" s="14" t="n">
         <v>1056.32716049383</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E27" s="14" t="n">
         <v>102.777777777778</v>
       </c>
     </row>
@@ -5128,10 +5992,10 @@
       <c r="C28" s="11" t="n">
         <v>237.2245</v>
       </c>
-      <c r="D28" s="15" t="n">
+      <c r="D28" s="14" t="n">
         <v>1085.06944444444</v>
       </c>
-      <c r="E28" s="15" t="n">
+      <c r="E28" s="14" t="n">
         <v>104.166666666667</v>
       </c>
     </row>
@@ -5145,10 +6009,10 @@
       <c r="C29" s="11" t="n">
         <v>247.69393</v>
       </c>
-      <c r="D29" s="15" t="n">
+      <c r="D29" s="14" t="n">
         <v>1114.1975308642</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E29" s="14" t="n">
         <v>105.555555555556</v>
       </c>
     </row>
@@ -5162,10 +6026,10 @@
       <c r="C30" s="11" t="n">
         <v>252.84367</v>
       </c>
-      <c r="D30" s="15" t="n">
+      <c r="D30" s="14" t="n">
         <v>1143.71141975309</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="14" t="n">
         <v>106.944444444444</v>
       </c>
     </row>
@@ -5179,10 +6043,10 @@
       <c r="C31" s="11" t="n">
         <v>263.74385</v>
       </c>
-      <c r="D31" s="15" t="n">
+      <c r="D31" s="14" t="n">
         <v>1173.61111111111</v>
       </c>
-      <c r="E31" s="15" t="n">
+      <c r="E31" s="14" t="n">
         <v>108.333333333333</v>
       </c>
     </row>
@@ -5196,10 +6060,10 @@
       <c r="C32" s="11" t="n">
         <v>271.80747</v>
       </c>
-      <c r="D32" s="15" t="n">
+      <c r="D32" s="14" t="n">
         <v>1203.89660493827</v>
       </c>
-      <c r="E32" s="15" t="n">
+      <c r="E32" s="14" t="n">
         <v>109.722222222222</v>
       </c>
     </row>
@@ -5213,10 +6077,10 @@
       <c r="C33" s="11" t="n">
         <v>280.0434</v>
       </c>
-      <c r="D33" s="15" t="n">
+      <c r="D33" s="14" t="n">
         <v>1234.56790123457</v>
       </c>
-      <c r="E33" s="15" t="n">
+      <c r="E33" s="14" t="n">
         <v>111.111111111111</v>
       </c>
     </row>
@@ -5481,7 +6345,7 @@
       <selection pane="bottomLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
@@ -9102,12 +9966,10 @@
       <selection pane="bottomLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.86"/>
@@ -14071,7 +14933,7 @@
       <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="11.99"/>
@@ -19028,7 +19890,7 @@
       <selection pane="bottomLeft" activeCell="A120" activeCellId="0" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -23990,12 +24852,12 @@
   <dimension ref="A1:AMJ123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
+      <selection pane="bottomLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.88"/>
@@ -24012,6 +24874,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="6.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="21" style="0" width="6.39"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24046,10 +24909,16 @@
       <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="2" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -24070,16 +24939,22 @@
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -24116,13 +24991,13 @@
       <c r="O3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="U3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="V3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="W3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24162,13 +25037,21 @@
       <c r="O4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="P4" s="14" t="n">
+        <f aca="false">M4*P$34</f>
+        <v>103.333333333333</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">P4*K4/3.6</f>
+        <v>172.222222222222</v>
+      </c>
+      <c r="U4" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="V4" s="1" t="n">
         <v>1.66666666666667</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="W4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -24208,13 +25091,21 @@
       <c r="O5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="P5" s="14" t="n">
+        <f aca="false">M5*P$34</f>
+        <v>137.777777777778</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">P5*K5/3.6</f>
+        <v>535.802469135802</v>
+      </c>
+      <c r="U5" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="R5" s="1" t="n">
+      <c r="V5" s="1" t="n">
         <v>7.22222222222222</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="W5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24254,13 +25145,21 @@
       <c r="O6" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="P6" s="14" t="n">
+        <f aca="false">M6*P$34</f>
+        <v>137.777777777778</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">P6*K6/3.6</f>
+        <v>841.975308641975</v>
+      </c>
+      <c r="U6" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="V6" s="1" t="n">
         <v>17.2222222222222</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="W6" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -24300,13 +25199,21 @@
       <c r="O7" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="P7" s="14" t="n">
+        <f aca="false">M7*P$34</f>
+        <v>155</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">P7*K7/3.6</f>
+        <v>1334.72222222222</v>
+      </c>
+      <c r="U7" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="V7" s="1" t="n">
         <v>31.9444444444444</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="W7" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -24346,13 +25253,21 @@
       <c r="O8" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="P8" s="14" t="n">
+        <f aca="false">M8*P$34</f>
+        <v>172.222222222222</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">P8*K8/3.6</f>
+        <v>1961.41975308642</v>
+      </c>
+      <c r="U8" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="V8" s="1" t="n">
         <v>51.9444444444444</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="W8" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -24392,13 +25307,21 @@
       <c r="O9" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="P9" s="14" t="n">
+        <f aca="false">M9*P$34</f>
+        <v>155</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">P9*K9/3.6</f>
+        <v>2152.77777777778</v>
+      </c>
+      <c r="U9" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="V9" s="1" t="n">
         <v>77.2222222222222</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="W9" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -24438,16 +25361,24 @@
       <c r="O10" s="12" t="n">
         <v>14</v>
       </c>
+      <c r="P10" s="14" t="n">
+        <f aca="false">M10*P$34</f>
+        <v>155</v>
+      </c>
       <c r="Q10" s="0" t="n">
-        <f aca="false">Q9+1</f>
+        <f aca="false">P10*K10/3.6</f>
+        <v>2540.27777777778</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <f aca="false">U9+1</f>
         <v>51</v>
       </c>
-      <c r="R10" s="0" t="n">
-        <f aca="false">R$9+(R$18-R$9)*($Q10-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="V10" s="0" t="n">
+        <f aca="false">V$9+(V$18-V$9)*($U10-$U$9)/($U$18-$U$9)</f>
         <v>80.5864197530864</v>
       </c>
-      <c r="S10" s="0" t="n">
-        <f aca="false">S$9+(S$18-S$9)*($Q10-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="W10" s="0" t="n">
+        <f aca="false">W$9+(W$18-W$9)*($U10-$U$9)/($U$18-$U$9)</f>
         <v>12.2222222222222</v>
       </c>
     </row>
@@ -24487,16 +25418,24 @@
       <c r="O11" s="12" t="n">
         <v>16</v>
       </c>
+      <c r="P11" s="14" t="n">
+        <f aca="false">M11*P$34</f>
+        <v>120.555555555556</v>
+      </c>
       <c r="Q11" s="0" t="n">
-        <f aca="false">Q10+1</f>
+        <f aca="false">P11*K11/3.6</f>
+        <v>2210.18518518518</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">U10+1</f>
         <v>52</v>
       </c>
-      <c r="R11" s="0" t="n">
-        <f aca="false">R$9+(R$18-R$9)*($Q11-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="V11" s="0" t="n">
+        <f aca="false">V$9+(V$18-V$9)*($U11-$U$9)/($U$18-$U$9)</f>
         <v>83.9506172839506</v>
       </c>
-      <c r="S11" s="0" t="n">
-        <f aca="false">S$9+(S$18-S$9)*($Q11-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="W11" s="0" t="n">
+        <f aca="false">W$9+(W$18-W$9)*($U11-$U$9)/($U$18-$U$9)</f>
         <v>12.4444444444444</v>
       </c>
     </row>
@@ -24536,16 +25475,24 @@
       <c r="O12" s="12" t="n">
         <v>18</v>
       </c>
+      <c r="P12" s="14" t="n">
+        <f aca="false">M12*P$34</f>
+        <v>103.333333333333</v>
+      </c>
       <c r="Q12" s="0" t="n">
-        <f aca="false">Q11+1</f>
+        <f aca="false">P12*K12/3.6</f>
+        <v>2066.66666666667</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <f aca="false">U11+1</f>
         <v>53</v>
       </c>
-      <c r="R12" s="0" t="n">
-        <f aca="false">R$9+(R$18-R$9)*($Q12-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="V12" s="0" t="n">
+        <f aca="false">V$9+(V$18-V$9)*($U12-$U$9)/($U$18-$U$9)</f>
         <v>87.3148148148148</v>
       </c>
-      <c r="S12" s="0" t="n">
-        <f aca="false">S$9+(S$18-S$9)*($Q12-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="W12" s="0" t="n">
+        <f aca="false">W$9+(W$18-W$9)*($U12-$U$9)/($U$18-$U$9)</f>
         <v>12.6666666666667</v>
       </c>
     </row>
@@ -24585,16 +25532,24 @@
       <c r="O13" s="12" t="n">
         <v>20</v>
       </c>
+      <c r="P13" s="14" t="n">
+        <f aca="false">M13*P$34</f>
+        <v>120.555555555556</v>
+      </c>
       <c r="Q13" s="0" t="n">
-        <f aca="false">Q12+1</f>
+        <f aca="false">P13*K13/3.6</f>
+        <v>2645.52469135802</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">U12+1</f>
         <v>54</v>
       </c>
-      <c r="R13" s="0" t="n">
-        <f aca="false">R$9+(R$18-R$9)*($Q13-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="V13" s="0" t="n">
+        <f aca="false">V$9+(V$18-V$9)*($U13-$U$9)/($U$18-$U$9)</f>
         <v>90.679012345679</v>
       </c>
-      <c r="S13" s="0" t="n">
-        <f aca="false">S$9+(S$18-S$9)*($Q13-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="W13" s="0" t="n">
+        <f aca="false">W$9+(W$18-W$9)*($U13-$U$9)/($U$18-$U$9)</f>
         <v>12.8888888888889</v>
       </c>
     </row>
@@ -24634,16 +25589,24 @@
       <c r="O14" s="12" t="n">
         <v>22</v>
       </c>
+      <c r="P14" s="14" t="n">
+        <f aca="false">M14*P$34</f>
+        <v>86.1111111111111</v>
+      </c>
       <c r="Q14" s="0" t="n">
-        <f aca="false">Q13+1</f>
+        <f aca="false">P14*K14/3.6</f>
+        <v>2009.25925925926</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <f aca="false">U13+1</f>
         <v>55</v>
       </c>
-      <c r="R14" s="0" t="n">
-        <f aca="false">R$9+(R$18-R$9)*($Q14-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="V14" s="0" t="n">
+        <f aca="false">V$9+(V$18-V$9)*($U14-$U$9)/($U$18-$U$9)</f>
         <v>94.0432098765432</v>
       </c>
-      <c r="S14" s="0" t="n">
-        <f aca="false">S$9+(S$18-S$9)*($Q14-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="W14" s="0" t="n">
+        <f aca="false">W$9+(W$18-W$9)*($U14-$U$9)/($U$18-$U$9)</f>
         <v>13.1111111111111</v>
       </c>
     </row>
@@ -24683,16 +25646,24 @@
       <c r="O15" s="12" t="n">
         <v>24</v>
       </c>
+      <c r="P15" s="14" t="n">
+        <f aca="false">M15*P$34</f>
+        <v>103.333333333333</v>
+      </c>
       <c r="Q15" s="0" t="n">
-        <f aca="false">Q14+1</f>
+        <f aca="false">P15*K15/3.6</f>
+        <v>2583.33333333333</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <f aca="false">U14+1</f>
         <v>56</v>
       </c>
-      <c r="R15" s="0" t="n">
-        <f aca="false">R$9+(R$18-R$9)*($Q15-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="V15" s="0" t="n">
+        <f aca="false">V$9+(V$18-V$9)*($U15-$U$9)/($U$18-$U$9)</f>
         <v>97.4074074074074</v>
       </c>
-      <c r="S15" s="0" t="n">
-        <f aca="false">S$9+(S$18-S$9)*($Q15-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="W15" s="0" t="n">
+        <f aca="false">W$9+(W$18-W$9)*($U15-$U$9)/($U$18-$U$9)</f>
         <v>13.3333333333333</v>
       </c>
     </row>
@@ -24732,16 +25703,24 @@
       <c r="O16" s="12" t="n">
         <v>26</v>
       </c>
+      <c r="P16" s="14" t="n">
+        <f aca="false">M16*P$34</f>
+        <v>51.6666666666667</v>
+      </c>
       <c r="Q16" s="0" t="n">
-        <f aca="false">Q15+1</f>
+        <f aca="false">P16*K16/3.6</f>
+        <v>1334.72222222222</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <f aca="false">U15+1</f>
         <v>57</v>
       </c>
-      <c r="R16" s="0" t="n">
-        <f aca="false">R$9+(R$18-R$9)*($Q16-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="V16" s="0" t="n">
+        <f aca="false">V$9+(V$18-V$9)*($U16-$U$9)/($U$18-$U$9)</f>
         <v>100.771604938272</v>
       </c>
-      <c r="S16" s="0" t="n">
-        <f aca="false">S$9+(S$18-S$9)*($Q16-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="W16" s="0" t="n">
+        <f aca="false">W$9+(W$18-W$9)*($U16-$U$9)/($U$18-$U$9)</f>
         <v>13.5555555555556</v>
       </c>
     </row>
@@ -24781,16 +25760,24 @@
       <c r="O17" s="12" t="n">
         <v>28</v>
       </c>
+      <c r="P17" s="14" t="n">
+        <f aca="false">M17*P$34</f>
+        <v>86.1111111111111</v>
+      </c>
       <c r="Q17" s="0" t="n">
-        <f aca="false">Q16+1</f>
+        <f aca="false">P17*K17/3.6</f>
+        <v>2344.13580246913</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <f aca="false">U16+1</f>
         <v>58</v>
       </c>
-      <c r="R17" s="0" t="n">
-        <f aca="false">R$9+(R$18-R$9)*($Q17-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="V17" s="0" t="n">
+        <f aca="false">V$9+(V$18-V$9)*($U17-$U$9)/($U$18-$U$9)</f>
         <v>104.135802469136</v>
       </c>
-      <c r="S17" s="0" t="n">
-        <f aca="false">S$9+(S$18-S$9)*($Q17-$Q$9)/($Q$18-$Q$9)</f>
+      <c r="W17" s="0" t="n">
+        <f aca="false">W$9+(W$18-W$9)*($U17-$U$9)/($U$18-$U$9)</f>
         <v>13.7777777777778</v>
       </c>
     </row>
@@ -24830,13 +25817,21 @@
       <c r="O18" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="Q18" s="1" t="n">
+      <c r="P18" s="14" t="n">
+        <f aca="false">M18*P$34</f>
+        <v>68.8888888888889</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <f aca="false">P18*K18/3.6</f>
+        <v>1951.85185185185</v>
+      </c>
+      <c r="U18" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="R18" s="1" t="n">
+      <c r="V18" s="1" t="n">
         <v>107.5</v>
       </c>
-      <c r="S18" s="1" t="n">
+      <c r="W18" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -24876,16 +25871,24 @@
       <c r="O19" s="12" t="n">
         <v>34</v>
       </c>
+      <c r="P19" s="14" t="n">
+        <f aca="false">M19*P$34</f>
+        <v>68.8888888888889</v>
+      </c>
       <c r="Q19" s="0" t="n">
-        <f aca="false">Q18+1</f>
+        <f aca="false">P19*K19/3.6</f>
+        <v>2104.93827160494</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <f aca="false">U18+1</f>
         <v>60</v>
       </c>
-      <c r="R19" s="0" t="n">
-        <f aca="false">R$18+(R$25-R$18)*($Q19-$Q$18)/($Q$25-$Q$18)</f>
+      <c r="V19" s="0" t="n">
+        <f aca="false">V$18+(V$25-V$18)*($U19-$U$18)/($U$25-$U$18)</f>
         <v>112.460317460317</v>
       </c>
-      <c r="S19" s="0" t="n">
-        <f aca="false">S$18+(S$25-S$18)*($Q19-$Q$18)/($Q$25-$Q$18)</f>
+      <c r="W19" s="0" t="n">
+        <f aca="false">W$18+(W$25-W$18)*($U19-$U$18)/($U$25-$U$18)</f>
         <v>14.2857142857143</v>
       </c>
     </row>
@@ -24925,16 +25928,24 @@
       <c r="O20" s="12" t="n">
         <v>38</v>
       </c>
+      <c r="P20" s="14" t="n">
+        <f aca="false">M20*P$34</f>
+        <v>68.8888888888889</v>
+      </c>
       <c r="Q20" s="0" t="n">
-        <f aca="false">Q19+1</f>
+        <f aca="false">P20*K20/3.6</f>
+        <v>2258.02469135803</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <f aca="false">U19+1</f>
         <v>61</v>
       </c>
-      <c r="R20" s="0" t="n">
-        <f aca="false">R$18+(R$25-R$18)*($Q20-$Q$18)/($Q$25-$Q$18)</f>
+      <c r="V20" s="0" t="n">
+        <f aca="false">V$18+(V$25-V$18)*($U20-$U$18)/($U$25-$U$18)</f>
         <v>117.420634920635</v>
       </c>
-      <c r="S20" s="0" t="n">
-        <f aca="false">S$18+(S$25-S$18)*($Q20-$Q$18)/($Q$25-$Q$18)</f>
+      <c r="W20" s="0" t="n">
+        <f aca="false">W$18+(W$25-W$18)*($U20-$U$18)/($U$25-$U$18)</f>
         <v>14.5714285714286</v>
       </c>
     </row>
@@ -24974,16 +25985,24 @@
       <c r="O21" s="12" t="n">
         <v>42</v>
       </c>
+      <c r="P21" s="14" t="n">
+        <f aca="false">M21*P$34</f>
+        <v>60.2777777777778</v>
+      </c>
       <c r="Q21" s="0" t="n">
-        <f aca="false">Q20+1</f>
+        <f aca="false">P21*K21/3.6</f>
+        <v>2092.97839506173</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <f aca="false">U20+1</f>
         <v>62</v>
       </c>
-      <c r="R21" s="0" t="n">
-        <f aca="false">R$18+(R$25-R$18)*($Q21-$Q$18)/($Q$25-$Q$18)</f>
+      <c r="V21" s="0" t="n">
+        <f aca="false">V$18+(V$25-V$18)*($U21-$U$18)/($U$25-$U$18)</f>
         <v>122.380952380952</v>
       </c>
-      <c r="S21" s="0" t="n">
-        <f aca="false">S$18+(S$25-S$18)*($Q21-$Q$18)/($Q$25-$Q$18)</f>
+      <c r="W21" s="0" t="n">
+        <f aca="false">W$18+(W$25-W$18)*($U21-$U$18)/($U$25-$U$18)</f>
         <v>14.8571428571429</v>
       </c>
     </row>
@@ -25023,16 +26042,24 @@
       <c r="O22" s="12" t="n">
         <v>46</v>
       </c>
+      <c r="P22" s="14" t="n">
+        <f aca="false">M22*P$34</f>
+        <v>51.6666666666667</v>
+      </c>
       <c r="Q22" s="0" t="n">
-        <f aca="false">Q21+1</f>
+        <f aca="false">P22*K22/3.6</f>
+        <v>1880.09259259259</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <f aca="false">U21+1</f>
         <v>63</v>
       </c>
-      <c r="R22" s="0" t="n">
-        <f aca="false">R$18+(R$25-R$18)*($Q22-$Q$18)/($Q$25-$Q$18)</f>
+      <c r="V22" s="0" t="n">
+        <f aca="false">V$18+(V$25-V$18)*($U22-$U$18)/($U$25-$U$18)</f>
         <v>127.34126984127</v>
       </c>
-      <c r="S22" s="0" t="n">
-        <f aca="false">S$18+(S$25-S$18)*($Q22-$Q$18)/($Q$25-$Q$18)</f>
+      <c r="W22" s="0" t="n">
+        <f aca="false">W$18+(W$25-W$18)*($U22-$U$18)/($U$25-$U$18)</f>
         <v>15.1428571428571</v>
       </c>
     </row>
@@ -25072,16 +26099,24 @@
       <c r="O23" s="12" t="n">
         <v>50</v>
       </c>
+      <c r="P23" s="14" t="n">
+        <f aca="false">M23*P$34</f>
+        <v>51.6666666666667</v>
+      </c>
       <c r="Q23" s="0" t="n">
-        <f aca="false">Q22+1</f>
+        <f aca="false">P23*K23/3.6</f>
+        <v>1966.20370370371</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <f aca="false">U22+1</f>
         <v>64</v>
       </c>
-      <c r="R23" s="0" t="n">
-        <f aca="false">R$18+(R$25-R$18)*($Q23-$Q$18)/($Q$25-$Q$18)</f>
+      <c r="V23" s="0" t="n">
+        <f aca="false">V$18+(V$25-V$18)*($U23-$U$18)/($U$25-$U$18)</f>
         <v>132.301587301587</v>
       </c>
-      <c r="S23" s="0" t="n">
-        <f aca="false">S$18+(S$25-S$18)*($Q23-$Q$18)/($Q$25-$Q$18)</f>
+      <c r="W23" s="0" t="n">
+        <f aca="false">W$18+(W$25-W$18)*($U23-$U$18)/($U$25-$U$18)</f>
         <v>15.4285714285714</v>
       </c>
     </row>
@@ -25121,16 +26156,24 @@
       <c r="O24" s="12" t="n">
         <v>54</v>
       </c>
+      <c r="P24" s="14" t="n">
+        <f aca="false">M24*P$34</f>
+        <v>51.6666666666667</v>
+      </c>
       <c r="Q24" s="0" t="n">
-        <f aca="false">Q23+1</f>
+        <f aca="false">P24*K24/3.6</f>
+        <v>2052.31481481482</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <f aca="false">U23+1</f>
         <v>65</v>
       </c>
-      <c r="R24" s="0" t="n">
-        <f aca="false">R$18+(R$25-R$18)*($Q24-$Q$18)/($Q$25-$Q$18)</f>
+      <c r="V24" s="0" t="n">
+        <f aca="false">V$18+(V$25-V$18)*($U24-$U$18)/($U$25-$U$18)</f>
         <v>137.261904761905</v>
       </c>
-      <c r="S24" s="0" t="n">
-        <f aca="false">S$18+(S$25-S$18)*($Q24-$Q$18)/($Q$25-$Q$18)</f>
+      <c r="W24" s="0" t="n">
+        <f aca="false">W$18+(W$25-W$18)*($U24-$U$18)/($U$25-$U$18)</f>
         <v>15.7142857142857</v>
       </c>
     </row>
@@ -25170,13 +26213,21 @@
       <c r="O25" s="12" t="n">
         <v>58</v>
       </c>
-      <c r="Q25" s="1" t="n">
+      <c r="P25" s="14" t="n">
+        <f aca="false">M25*P$34</f>
+        <v>43.0555555555555</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">P25*K25/3.6</f>
+        <v>1770.06172839506</v>
+      </c>
+      <c r="U25" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="R25" s="1" t="n">
+      <c r="V25" s="1" t="n">
         <v>142.222222222222</v>
       </c>
-      <c r="S25" s="1" t="n">
+      <c r="W25" s="1" t="n">
         <v>16</v>
       </c>
     </row>
@@ -25216,16 +26267,24 @@
       <c r="O26" s="12" t="n">
         <v>62</v>
       </c>
+      <c r="P26" s="14" t="n">
+        <f aca="false">M26*P$34</f>
+        <v>43.0555555555555</v>
+      </c>
       <c r="Q26" s="0" t="n">
-        <f aca="false">Q25+1</f>
+        <f aca="false">P26*K26/3.6</f>
+        <v>1829.86111111111</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <f aca="false">U25+1</f>
         <v>67</v>
       </c>
-      <c r="R26" s="0" t="n">
-        <f aca="false">R$25+(R$31-R$25)*($Q26-$Q$25)/($Q$31-$Q$25)</f>
+      <c r="V26" s="0" t="n">
+        <f aca="false">V$25+(V$31-V$25)*($U26-$U$25)/($U$31-$U$25)</f>
         <v>148.611111111111</v>
       </c>
-      <c r="S26" s="0" t="n">
-        <f aca="false">S$25+(S$31-S$25)*($Q26-$Q$25)/($Q$31-$Q$25)</f>
+      <c r="W26" s="0" t="n">
+        <f aca="false">W$25+(W$31-W$25)*($U26-$U$25)/($U$31-$U$25)</f>
         <v>16.3333333333333</v>
       </c>
     </row>
@@ -25265,16 +26324,24 @@
       <c r="O27" s="12" t="n">
         <v>66</v>
       </c>
+      <c r="P27" s="14" t="n">
+        <f aca="false">M27*P$34</f>
+        <v>34.4444444444445</v>
+      </c>
       <c r="Q27" s="0" t="n">
-        <f aca="false">Q26+1</f>
+        <f aca="false">P27*K27/3.6</f>
+        <v>1502.16049382716</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <f aca="false">U26+1</f>
         <v>68</v>
       </c>
-      <c r="R27" s="0" t="n">
-        <f aca="false">R$25+(R$31-R$25)*($Q27-$Q$25)/($Q$31-$Q$25)</f>
+      <c r="V27" s="0" t="n">
+        <f aca="false">V$25+(V$31-V$25)*($U27-$U$25)/($U$31-$U$25)</f>
         <v>155</v>
       </c>
-      <c r="S27" s="0" t="n">
-        <f aca="false">S$25+(S$31-S$25)*($Q27-$Q$25)/($Q$31-$Q$25)</f>
+      <c r="W27" s="0" t="n">
+        <f aca="false">W$25+(W$31-W$25)*($U27-$U$25)/($U$31-$U$25)</f>
         <v>16.6666666666667</v>
       </c>
     </row>
@@ -25314,16 +26381,24 @@
       <c r="O28" s="12" t="n">
         <v>70</v>
       </c>
+      <c r="P28" s="14" t="n">
+        <f aca="false">M28*P$34</f>
+        <v>8.61111111111111</v>
+      </c>
       <c r="Q28" s="0" t="n">
-        <f aca="false">Q27+1</f>
+        <f aca="false">P28*K28/3.6</f>
+        <v>377.932098765432</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <f aca="false">U27+1</f>
         <v>69</v>
       </c>
-      <c r="R28" s="0" t="n">
-        <f aca="false">R$25+(R$31-R$25)*($Q28-$Q$25)/($Q$31-$Q$25)</f>
+      <c r="V28" s="0" t="n">
+        <f aca="false">V$25+(V$31-V$25)*($U28-$U$25)/($U$31-$U$25)</f>
         <v>161.388888888889</v>
       </c>
-      <c r="S28" s="0" t="n">
-        <f aca="false">S$25+(S$31-S$25)*($Q28-$Q$25)/($Q$31-$Q$25)</f>
+      <c r="W28" s="0" t="n">
+        <f aca="false">W$25+(W$31-W$25)*($U28-$U$25)/($U$31-$U$25)</f>
         <v>17</v>
       </c>
     </row>
@@ -25347,16 +26422,16 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="J29" s="12"/>
-      <c r="Q29" s="0" t="n">
-        <f aca="false">Q28+1</f>
+      <c r="U29" s="0" t="n">
+        <f aca="false">U28+1</f>
         <v>70</v>
       </c>
-      <c r="R29" s="0" t="n">
-        <f aca="false">R$25+(R$31-R$25)*($Q29-$Q$25)/($Q$31-$Q$25)</f>
+      <c r="V29" s="0" t="n">
+        <f aca="false">V$25+(V$31-V$25)*($U29-$U$25)/($U$31-$U$25)</f>
         <v>167.777777777778</v>
       </c>
-      <c r="S29" s="0" t="n">
-        <f aca="false">S$25+(S$31-S$25)*($Q29-$Q$25)/($Q$31-$Q$25)</f>
+      <c r="W29" s="0" t="n">
+        <f aca="false">W$25+(W$31-W$25)*($U29-$U$25)/($U$31-$U$25)</f>
         <v>17.3333333333333</v>
       </c>
     </row>
@@ -25380,16 +26455,16 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="J30" s="12"/>
-      <c r="Q30" s="0" t="n">
-        <f aca="false">Q29+1</f>
+      <c r="U30" s="0" t="n">
+        <f aca="false">U29+1</f>
         <v>71</v>
       </c>
-      <c r="R30" s="0" t="n">
-        <f aca="false">R$25+(R$31-R$25)*($Q30-$Q$25)/($Q$31-$Q$25)</f>
+      <c r="V30" s="0" t="n">
+        <f aca="false">V$25+(V$31-V$25)*($U30-$U$25)/($U$31-$U$25)</f>
         <v>174.166666666667</v>
       </c>
-      <c r="S30" s="0" t="n">
-        <f aca="false">S$25+(S$31-S$25)*($Q30-$Q$25)/($Q$31-$Q$25)</f>
+      <c r="W30" s="0" t="n">
+        <f aca="false">W$25+(W$31-W$25)*($U30-$U$25)/($U$31-$U$25)</f>
         <v>17.6666666666667</v>
       </c>
     </row>
@@ -25413,13 +26488,13 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="J31" s="12"/>
-      <c r="Q31" s="1" t="n">
+      <c r="U31" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="R31" s="1" t="n">
+      <c r="V31" s="1" t="n">
         <v>180.555555555556</v>
       </c>
-      <c r="S31" s="1" t="n">
+      <c r="W31" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -25443,16 +26518,22 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="J32" s="12"/>
-      <c r="Q32" s="0" t="n">
-        <f aca="false">Q31+1</f>
+      <c r="O32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P32" s="12" t="n">
+        <v>124</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <f aca="false">U31+1</f>
         <v>73</v>
       </c>
-      <c r="R32" s="0" t="n">
-        <f aca="false">R$31+(R$38-R$31)*($Q32-$Q$31)/($Q$38-$Q$31)</f>
+      <c r="V32" s="0" t="n">
+        <f aca="false">V$31+(V$38-V$31)*($U32-$U$31)/($U$38-$U$31)</f>
         <v>186.547619047619</v>
       </c>
-      <c r="S32" s="0" t="n">
-        <f aca="false">S$31+(S$38-S$31)*($Q32-$Q$31)/($Q$38-$Q$31)</f>
+      <c r="W32" s="0" t="n">
+        <f aca="false">W$31+(W$38-W$31)*($U32-$U$31)/($U$38-$U$31)</f>
         <v>18.2857142857143</v>
       </c>
     </row>
@@ -25476,16 +26557,22 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="J33" s="12"/>
-      <c r="Q33" s="0" t="n">
-        <f aca="false">Q32+1</f>
+      <c r="O33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <f aca="false">U32+1</f>
         <v>74</v>
       </c>
-      <c r="R33" s="0" t="n">
-        <f aca="false">R$31+(R$38-R$31)*($Q33-$Q$31)/($Q$38-$Q$31)</f>
+      <c r="V33" s="0" t="n">
+        <f aca="false">V$31+(V$38-V$31)*($U33-$U$31)/($U$38-$U$31)</f>
         <v>192.539682539683</v>
       </c>
-      <c r="S33" s="0" t="n">
-        <f aca="false">S$31+(S$38-S$31)*($Q33-$Q$31)/($Q$38-$Q$31)</f>
+      <c r="W33" s="0" t="n">
+        <f aca="false">W$31+(W$38-W$31)*($U33-$U$31)/($U$38-$U$31)</f>
         <v>18.5714285714286</v>
       </c>
     </row>
@@ -25509,16 +26596,23 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="J34" s="12"/>
-      <c r="Q34" s="0" t="n">
-        <f aca="false">Q33+1</f>
+      <c r="O34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="12" t="n">
+        <f aca="false">P32+P33*80/1000</f>
+        <v>124</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <f aca="false">U33+1</f>
         <v>75</v>
       </c>
-      <c r="R34" s="0" t="n">
-        <f aca="false">R$31+(R$38-R$31)*($Q34-$Q$31)/($Q$38-$Q$31)</f>
+      <c r="V34" s="0" t="n">
+        <f aca="false">V$31+(V$38-V$31)*($U34-$U$31)/($U$38-$U$31)</f>
         <v>198.531746031746</v>
       </c>
-      <c r="S34" s="0" t="n">
-        <f aca="false">S$31+(S$38-S$31)*($Q34-$Q$31)/($Q$38-$Q$31)</f>
+      <c r="W34" s="0" t="n">
+        <f aca="false">W$31+(W$38-W$31)*($U34-$U$31)/($U$38-$U$31)</f>
         <v>18.8571428571429</v>
       </c>
     </row>
@@ -25541,16 +26635,17 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
-      <c r="Q35" s="0" t="n">
-        <f aca="false">Q34+1</f>
+      <c r="P35" s="12"/>
+      <c r="U35" s="0" t="n">
+        <f aca="false">U34+1</f>
         <v>76</v>
       </c>
-      <c r="R35" s="0" t="n">
-        <f aca="false">R$31+(R$38-R$31)*($Q35-$Q$31)/($Q$38-$Q$31)</f>
-        <v>204.523809523809</v>
-      </c>
-      <c r="S35" s="0" t="n">
-        <f aca="false">S$31+(S$38-S$31)*($Q35-$Q$31)/($Q$38-$Q$31)</f>
+      <c r="V35" s="0" t="n">
+        <f aca="false">V$31+(V$38-V$31)*($U35-$U$31)/($U$38-$U$31)</f>
+        <v>204.52380952381</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <f aca="false">W$31+(W$38-W$31)*($U35-$U$31)/($U$38-$U$31)</f>
         <v>19.1428571428571</v>
       </c>
     </row>
@@ -25573,16 +26668,16 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
-      <c r="Q36" s="0" t="n">
-        <f aca="false">Q35+1</f>
+      <c r="U36" s="0" t="n">
+        <f aca="false">U35+1</f>
         <v>77</v>
       </c>
-      <c r="R36" s="0" t="n">
-        <f aca="false">R$31+(R$38-R$31)*($Q36-$Q$31)/($Q$38-$Q$31)</f>
+      <c r="V36" s="0" t="n">
+        <f aca="false">V$31+(V$38-V$31)*($U36-$U$31)/($U$38-$U$31)</f>
         <v>210.515873015873</v>
       </c>
-      <c r="S36" s="0" t="n">
-        <f aca="false">S$31+(S$38-S$31)*($Q36-$Q$31)/($Q$38-$Q$31)</f>
+      <c r="W36" s="0" t="n">
+        <f aca="false">W$31+(W$38-W$31)*($U36-$U$31)/($U$38-$U$31)</f>
         <v>19.4285714285714</v>
       </c>
     </row>
@@ -25605,16 +26700,16 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="Q37" s="0" t="n">
-        <f aca="false">Q36+1</f>
+      <c r="U37" s="0" t="n">
+        <f aca="false">U36+1</f>
         <v>78</v>
       </c>
-      <c r="R37" s="0" t="n">
-        <f aca="false">R$31+(R$38-R$31)*($Q37-$Q$31)/($Q$38-$Q$31)</f>
-        <v>216.507936507936</v>
-      </c>
-      <c r="S37" s="0" t="n">
-        <f aca="false">S$31+(S$38-S$31)*($Q37-$Q$31)/($Q$38-$Q$31)</f>
+      <c r="V37" s="0" t="n">
+        <f aca="false">V$31+(V$38-V$31)*($U37-$U$31)/($U$38-$U$31)</f>
+        <v>216.507936507937</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <f aca="false">W$31+(W$38-W$31)*($U37-$U$31)/($U$38-$U$31)</f>
         <v>19.7142857142857</v>
       </c>
     </row>
@@ -25637,13 +26732,13 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="Q38" s="1" t="n">
+      <c r="U38" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="R38" s="1" t="n">
+      <c r="V38" s="1" t="n">
         <v>222.5</v>
       </c>
-      <c r="S38" s="1" t="n">
+      <c r="W38" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -25666,16 +26761,16 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="Q39" s="0" t="n">
-        <f aca="false">Q38+1</f>
+      <c r="U39" s="0" t="n">
+        <f aca="false">U38+1</f>
         <v>80</v>
       </c>
-      <c r="R39" s="0" t="n">
-        <f aca="false">R$38+(R$43-R$38)*($Q39-$Q$38)/($Q$43-$Q$38)</f>
+      <c r="V39" s="0" t="n">
+        <f aca="false">V$38+(V$43-V$38)*($U39-$U$38)/($U$43-$U$38)</f>
         <v>231.555555555556</v>
       </c>
-      <c r="S39" s="0" t="n">
-        <f aca="false">S$38+(S$43-S$38)*($Q39-$Q$38)/($Q$43-$Q$38)</f>
+      <c r="W39" s="0" t="n">
+        <f aca="false">W$38+(W$43-W$38)*($U39-$U$38)/($U$43-$U$38)</f>
         <v>20.4</v>
       </c>
     </row>
@@ -25698,16 +26793,16 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
-      <c r="Q40" s="0" t="n">
-        <f aca="false">Q39+1</f>
+      <c r="U40" s="0" t="n">
+        <f aca="false">U39+1</f>
         <v>81</v>
       </c>
-      <c r="R40" s="0" t="n">
-        <f aca="false">R$38+(R$43-R$38)*($Q40-$Q$38)/($Q$43-$Q$38)</f>
+      <c r="V40" s="0" t="n">
+        <f aca="false">V$38+(V$43-V$38)*($U40-$U$38)/($U$43-$U$38)</f>
         <v>240.611111111111</v>
       </c>
-      <c r="S40" s="0" t="n">
-        <f aca="false">S$38+(S$43-S$38)*($Q40-$Q$38)/($Q$43-$Q$38)</f>
+      <c r="W40" s="0" t="n">
+        <f aca="false">W$38+(W$43-W$38)*($U40-$U$38)/($U$43-$U$38)</f>
         <v>20.8</v>
       </c>
     </row>
@@ -25727,16 +26822,16 @@
       <c r="E41" s="4" t="n">
         <v>48.8888888888888</v>
       </c>
-      <c r="Q41" s="0" t="n">
-        <f aca="false">Q40+1</f>
+      <c r="U41" s="0" t="n">
+        <f aca="false">U40+1</f>
         <v>82</v>
       </c>
-      <c r="R41" s="0" t="n">
-        <f aca="false">R$38+(R$43-R$38)*($Q41-$Q$38)/($Q$43-$Q$38)</f>
+      <c r="V41" s="0" t="n">
+        <f aca="false">V$38+(V$43-V$38)*($U41-$U$38)/($U$43-$U$38)</f>
         <v>249.666666666667</v>
       </c>
-      <c r="S41" s="0" t="n">
-        <f aca="false">S$38+(S$43-S$38)*($Q41-$Q$38)/($Q$43-$Q$38)</f>
+      <c r="W41" s="0" t="n">
+        <f aca="false">W$38+(W$43-W$38)*($U41-$U$38)/($U$43-$U$38)</f>
         <v>21.2</v>
       </c>
     </row>
@@ -25756,16 +26851,16 @@
       <c r="E42" s="4" t="n">
         <v>49.4444444444444</v>
       </c>
-      <c r="Q42" s="0" t="n">
-        <f aca="false">Q41+1</f>
+      <c r="U42" s="0" t="n">
+        <f aca="false">U41+1</f>
         <v>83</v>
       </c>
-      <c r="R42" s="0" t="n">
-        <f aca="false">R$38+(R$43-R$38)*($Q42-$Q$38)/($Q$43-$Q$38)</f>
+      <c r="V42" s="0" t="n">
+        <f aca="false">V$38+(V$43-V$38)*($U42-$U$38)/($U$43-$U$38)</f>
         <v>258.722222222222</v>
       </c>
-      <c r="S42" s="0" t="n">
-        <f aca="false">S$38+(S$43-S$38)*($Q42-$Q$38)/($Q$43-$Q$38)</f>
+      <c r="W42" s="0" t="n">
+        <f aca="false">W$38+(W$43-W$38)*($U42-$U$38)/($U$43-$U$38)</f>
         <v>21.6</v>
       </c>
     </row>
@@ -25785,13 +26880,13 @@
       <c r="E43" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="Q43" s="1" t="n">
+      <c r="U43" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="R43" s="1" t="n">
+      <c r="V43" s="1" t="n">
         <v>267.777777777778</v>
       </c>
-      <c r="S43" s="1" t="n">
+      <c r="W43" s="1" t="n">
         <v>22</v>
       </c>
     </row>
@@ -25811,16 +26906,16 @@
       <c r="E44" s="4" t="n">
         <v>50.5555555555556</v>
       </c>
-      <c r="Q44" s="0" t="n">
-        <f aca="false">Q43+1</f>
+      <c r="U44" s="0" t="n">
+        <f aca="false">U43+1</f>
         <v>85</v>
       </c>
-      <c r="R44" s="0" t="n">
-        <f aca="false">R$43+(R$49-R$43)*($Q44-$Q$43)/($Q$49-$Q$43)</f>
+      <c r="V44" s="0" t="n">
+        <f aca="false">V$43+(V$49-V$43)*($U44-$U$43)/($U$49-$U$43)</f>
         <v>275.833333333333</v>
       </c>
-      <c r="S44" s="0" t="n">
-        <f aca="false">S$43+(S$49-S$43)*($Q44-$Q$43)/($Q$49-$Q$43)</f>
+      <c r="W44" s="0" t="n">
+        <f aca="false">W$43+(W$49-W$43)*($U44-$U$43)/($U$49-$U$43)</f>
         <v>22.3333333333333</v>
       </c>
     </row>
@@ -25840,16 +26935,16 @@
       <c r="E45" s="4" t="n">
         <v>51.1111111111112</v>
       </c>
-      <c r="Q45" s="0" t="n">
-        <f aca="false">Q44+1</f>
+      <c r="U45" s="0" t="n">
+        <f aca="false">U44+1</f>
         <v>86</v>
       </c>
-      <c r="R45" s="0" t="n">
-        <f aca="false">R$43+(R$49-R$43)*($Q45-$Q$43)/($Q$49-$Q$43)</f>
+      <c r="V45" s="0" t="n">
+        <f aca="false">V$43+(V$49-V$43)*($U45-$U$43)/($U$49-$U$43)</f>
         <v>283.888888888889</v>
       </c>
-      <c r="S45" s="0" t="n">
-        <f aca="false">S$43+(S$49-S$43)*($Q45-$Q$43)/($Q$49-$Q$43)</f>
+      <c r="W45" s="0" t="n">
+        <f aca="false">W$43+(W$49-W$43)*($U45-$U$43)/($U$49-$U$43)</f>
         <v>22.6666666666667</v>
       </c>
     </row>
@@ -25869,16 +26964,16 @@
       <c r="E46" s="4" t="n">
         <v>51.6666666666666</v>
       </c>
-      <c r="Q46" s="0" t="n">
-        <f aca="false">Q45+1</f>
+      <c r="U46" s="0" t="n">
+        <f aca="false">U45+1</f>
         <v>87</v>
       </c>
-      <c r="R46" s="0" t="n">
-        <f aca="false">R$43+(R$49-R$43)*($Q46-$Q$43)/($Q$49-$Q$43)</f>
+      <c r="V46" s="0" t="n">
+        <f aca="false">V$43+(V$49-V$43)*($U46-$U$43)/($U$49-$U$43)</f>
         <v>291.944444444444</v>
       </c>
-      <c r="S46" s="0" t="n">
-        <f aca="false">S$43+(S$49-S$43)*($Q46-$Q$43)/($Q$49-$Q$43)</f>
+      <c r="W46" s="0" t="n">
+        <f aca="false">W$43+(W$49-W$43)*($U46-$U$43)/($U$49-$U$43)</f>
         <v>23</v>
       </c>
     </row>
@@ -25898,16 +26993,16 @@
       <c r="E47" s="4" t="n">
         <v>52.2222222222222</v>
       </c>
-      <c r="Q47" s="0" t="n">
-        <f aca="false">Q46+1</f>
+      <c r="U47" s="0" t="n">
+        <f aca="false">U46+1</f>
         <v>88</v>
       </c>
-      <c r="R47" s="0" t="n">
-        <f aca="false">R$43+(R$49-R$43)*($Q47-$Q$43)/($Q$49-$Q$43)</f>
+      <c r="V47" s="0" t="n">
+        <f aca="false">V$43+(V$49-V$43)*($U47-$U$43)/($U$49-$U$43)</f>
         <v>300</v>
       </c>
-      <c r="S47" s="0" t="n">
-        <f aca="false">S$43+(S$49-S$43)*($Q47-$Q$43)/($Q$49-$Q$43)</f>
+      <c r="W47" s="0" t="n">
+        <f aca="false">W$43+(W$49-W$43)*($U47-$U$43)/($U$49-$U$43)</f>
         <v>23.3333333333333</v>
       </c>
     </row>
@@ -25927,16 +27022,16 @@
       <c r="E48" s="4" t="n">
         <v>52.7777777777778</v>
       </c>
-      <c r="Q48" s="0" t="n">
-        <f aca="false">Q47+1</f>
+      <c r="U48" s="0" t="n">
+        <f aca="false">U47+1</f>
         <v>89</v>
       </c>
-      <c r="R48" s="0" t="n">
-        <f aca="false">R$43+(R$49-R$43)*($Q48-$Q$43)/($Q$49-$Q$43)</f>
-        <v>308.055555555556</v>
-      </c>
-      <c r="S48" s="0" t="n">
-        <f aca="false">S$43+(S$49-S$43)*($Q48-$Q$43)/($Q$49-$Q$43)</f>
+      <c r="V48" s="0" t="n">
+        <f aca="false">V$43+(V$49-V$43)*($U48-$U$43)/($U$49-$U$43)</f>
+        <v>308.055555555555</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <f aca="false">W$43+(W$49-W$43)*($U48-$U$43)/($U$49-$U$43)</f>
         <v>23.6666666666667</v>
       </c>
     </row>
@@ -25956,13 +27051,13 @@
       <c r="E49" s="4" t="n">
         <v>53.3333333333334</v>
       </c>
-      <c r="Q49" s="1" t="n">
+      <c r="U49" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="R49" s="1" t="n">
+      <c r="V49" s="1" t="n">
         <v>316.111111111111</v>
       </c>
-      <c r="S49" s="1" t="n">
+      <c r="W49" s="1" t="n">
         <v>24</v>
       </c>
     </row>
@@ -25982,16 +27077,16 @@
       <c r="E50" s="4" t="n">
         <v>53.8888888888888</v>
       </c>
-      <c r="Q50" s="0" t="n">
-        <f aca="false">Q49+1</f>
+      <c r="U50" s="0" t="n">
+        <f aca="false">U49+1</f>
         <v>91</v>
       </c>
-      <c r="R50" s="0" t="n">
-        <f aca="false">R$49+(R$52-R$49)*($Q50-$Q$49)/($Q$52-$Q$49)</f>
-        <v>333.055555555556</v>
-      </c>
-      <c r="S50" s="0" t="n">
-        <f aca="false">S$49+(S$52-S$49)*($Q50-$Q$49)/($Q$52-$Q$49)</f>
+      <c r="V50" s="0" t="n">
+        <f aca="false">V$49+(V$52-V$49)*($U50-$U$49)/($U$52-$U$49)</f>
+        <v>333.055555555555</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <f aca="false">W$49+(W$52-W$49)*($U50-$U$49)/($U$52-$U$49)</f>
         <v>24.6666666666667</v>
       </c>
     </row>
@@ -26011,16 +27106,16 @@
       <c r="E51" s="4" t="n">
         <v>54.4444444444444</v>
       </c>
-      <c r="Q51" s="0" t="n">
-        <f aca="false">Q50+1</f>
+      <c r="U51" s="0" t="n">
+        <f aca="false">U50+1</f>
         <v>92</v>
       </c>
-      <c r="R51" s="0" t="n">
-        <f aca="false">R$49+(R$52-R$49)*($Q51-$Q$49)/($Q$52-$Q$49)</f>
+      <c r="V51" s="0" t="n">
+        <f aca="false">V$49+(V$52-V$49)*($U51-$U$49)/($U$52-$U$49)</f>
         <v>350</v>
       </c>
-      <c r="S51" s="0" t="n">
-        <f aca="false">S$49+(S$52-S$49)*($Q51-$Q$49)/($Q$52-$Q$49)</f>
+      <c r="W51" s="0" t="n">
+        <f aca="false">W$49+(W$52-W$49)*($U51-$U$49)/($U$52-$U$49)</f>
         <v>25.3333333333333</v>
       </c>
     </row>
@@ -26040,13 +27135,13 @@
       <c r="E52" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="Q52" s="1" t="n">
+      <c r="U52" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="R52" s="1" t="n">
+      <c r="V52" s="1" t="n">
         <v>366.944444444444</v>
       </c>
-      <c r="S52" s="1" t="n">
+      <c r="W52" s="1" t="n">
         <v>26</v>
       </c>
     </row>
@@ -26066,16 +27161,16 @@
       <c r="E53" s="4" t="n">
         <v>55.5555555555556</v>
       </c>
-      <c r="Q53" s="0" t="n">
-        <f aca="false">Q52+1</f>
+      <c r="U53" s="0" t="n">
+        <f aca="false">U52+1</f>
         <v>94</v>
       </c>
-      <c r="R53" s="0" t="n">
-        <f aca="false">R$52+(R$57-R$52)*($Q53-$Q$52)/($Q$57-$Q$52)</f>
+      <c r="V53" s="0" t="n">
+        <f aca="false">V$52+(V$57-V$52)*($U53-$U$52)/($U$57-$U$52)</f>
         <v>377.555555555555</v>
       </c>
-      <c r="S53" s="0" t="n">
-        <f aca="false">S$52+(S$57-S$52)*($Q53-$Q$52)/($Q$57-$Q$52)</f>
+      <c r="W53" s="0" t="n">
+        <f aca="false">W$52+(W$57-W$52)*($U53-$U$52)/($U$57-$U$52)</f>
         <v>26.4</v>
       </c>
     </row>
@@ -26095,16 +27190,16 @@
       <c r="E54" s="4" t="n">
         <v>56.1111111111112</v>
       </c>
-      <c r="Q54" s="0" t="n">
-        <f aca="false">Q53+1</f>
+      <c r="U54" s="0" t="n">
+        <f aca="false">U53+1</f>
         <v>95</v>
       </c>
-      <c r="R54" s="0" t="n">
-        <f aca="false">R$52+(R$57-R$52)*($Q54-$Q$52)/($Q$57-$Q$52)</f>
-        <v>388.166666666667</v>
-      </c>
-      <c r="S54" s="0" t="n">
-        <f aca="false">S$52+(S$57-S$52)*($Q54-$Q$52)/($Q$57-$Q$52)</f>
+      <c r="V54" s="0" t="n">
+        <f aca="false">V$52+(V$57-V$52)*($U54-$U$52)/($U$57-$U$52)</f>
+        <v>388.166666666666</v>
+      </c>
+      <c r="W54" s="0" t="n">
+        <f aca="false">W$52+(W$57-W$52)*($U54-$U$52)/($U$57-$U$52)</f>
         <v>26.8</v>
       </c>
     </row>
@@ -26124,16 +27219,16 @@
       <c r="E55" s="4" t="n">
         <v>56.6666666666666</v>
       </c>
-      <c r="Q55" s="0" t="n">
-        <f aca="false">Q54+1</f>
+      <c r="U55" s="0" t="n">
+        <f aca="false">U54+1</f>
         <v>96</v>
       </c>
-      <c r="R55" s="0" t="n">
-        <f aca="false">R$52+(R$57-R$52)*($Q55-$Q$52)/($Q$57-$Q$52)</f>
+      <c r="V55" s="0" t="n">
+        <f aca="false">V$52+(V$57-V$52)*($U55-$U$52)/($U$57-$U$52)</f>
         <v>398.777777777778</v>
       </c>
-      <c r="S55" s="0" t="n">
-        <f aca="false">S$52+(S$57-S$52)*($Q55-$Q$52)/($Q$57-$Q$52)</f>
+      <c r="W55" s="0" t="n">
+        <f aca="false">W$52+(W$57-W$52)*($U55-$U$52)/($U$57-$U$52)</f>
         <v>27.2</v>
       </c>
     </row>
@@ -26153,16 +27248,16 @@
       <c r="E56" s="4" t="n">
         <v>57.2222222222222</v>
       </c>
-      <c r="Q56" s="0" t="n">
-        <f aca="false">Q55+1</f>
+      <c r="U56" s="0" t="n">
+        <f aca="false">U55+1</f>
         <v>97</v>
       </c>
-      <c r="R56" s="0" t="n">
-        <f aca="false">R$52+(R$57-R$52)*($Q56-$Q$52)/($Q$57-$Q$52)</f>
+      <c r="V56" s="0" t="n">
+        <f aca="false">V$52+(V$57-V$52)*($U56-$U$52)/($U$57-$U$52)</f>
         <v>409.388888888889</v>
       </c>
-      <c r="S56" s="0" t="n">
-        <f aca="false">S$52+(S$57-S$52)*($Q56-$Q$52)/($Q$57-$Q$52)</f>
+      <c r="W56" s="0" t="n">
+        <f aca="false">W$52+(W$57-W$52)*($U56-$U$52)/($U$57-$U$52)</f>
         <v>27.6</v>
       </c>
     </row>
@@ -26182,13 +27277,13 @@
       <c r="E57" s="4" t="n">
         <v>57.7777777777778</v>
       </c>
-      <c r="Q57" s="1" t="n">
+      <c r="U57" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="R57" s="1" t="n">
+      <c r="V57" s="1" t="n">
         <v>420</v>
       </c>
-      <c r="S57" s="1" t="n">
+      <c r="W57" s="1" t="n">
         <v>28</v>
       </c>
     </row>
@@ -26208,16 +27303,16 @@
       <c r="E58" s="4" t="n">
         <v>58.3333333333334</v>
       </c>
-      <c r="Q58" s="0" t="n">
-        <f aca="false">Q57+1</f>
+      <c r="U58" s="0" t="n">
+        <f aca="false">U57+1</f>
         <v>99</v>
       </c>
-      <c r="R58" s="0" t="n">
-        <f aca="false">R$57+(R$61-R$57)*($Q58-$Q$57)/($Q$61-$Q$57)</f>
+      <c r="V58" s="0" t="n">
+        <f aca="false">V$57+(V$61-V$57)*($U58-$U$57)/($U$61-$U$57)</f>
         <v>433.888888888889</v>
       </c>
-      <c r="S58" s="0" t="n">
-        <f aca="false">S$57+(S$61-S$57)*($Q58-$Q$57)/($Q$61-$Q$57)</f>
+      <c r="W58" s="0" t="n">
+        <f aca="false">W$57+(W$61-W$57)*($U58-$U$57)/($U$61-$U$57)</f>
         <v>28.5</v>
       </c>
     </row>
@@ -26237,16 +27332,16 @@
       <c r="E59" s="4" t="n">
         <v>58.8888888888888</v>
       </c>
-      <c r="Q59" s="0" t="n">
-        <f aca="false">Q58+1</f>
+      <c r="U59" s="0" t="n">
+        <f aca="false">U58+1</f>
         <v>100</v>
       </c>
-      <c r="R59" s="0" t="n">
-        <f aca="false">R$57+(R$61-R$57)*($Q59-$Q$57)/($Q$61-$Q$57)</f>
+      <c r="V59" s="0" t="n">
+        <f aca="false">V$57+(V$61-V$57)*($U59-$U$57)/($U$61-$U$57)</f>
         <v>447.777777777778</v>
       </c>
-      <c r="S59" s="0" t="n">
-        <f aca="false">S$57+(S$61-S$57)*($Q59-$Q$57)/($Q$61-$Q$57)</f>
+      <c r="W59" s="0" t="n">
+        <f aca="false">W$57+(W$61-W$57)*($U59-$U$57)/($U$61-$U$57)</f>
         <v>29</v>
       </c>
     </row>
@@ -26266,16 +27361,16 @@
       <c r="E60" s="4" t="n">
         <v>59.4444444444444</v>
       </c>
-      <c r="Q60" s="0" t="n">
-        <f aca="false">Q59+1</f>
+      <c r="U60" s="0" t="n">
+        <f aca="false">U59+1</f>
         <v>101</v>
       </c>
-      <c r="R60" s="0" t="n">
-        <f aca="false">R$57+(R$61-R$57)*($Q60-$Q$57)/($Q$61-$Q$57)</f>
-        <v>461.666666666667</v>
-      </c>
-      <c r="S60" s="0" t="n">
-        <f aca="false">S$57+(S$61-S$57)*($Q60-$Q$57)/($Q$61-$Q$57)</f>
+      <c r="V60" s="0" t="n">
+        <f aca="false">V$57+(V$61-V$57)*($U60-$U$57)/($U$61-$U$57)</f>
+        <v>461.666666666666</v>
+      </c>
+      <c r="W60" s="0" t="n">
+        <f aca="false">W$57+(W$61-W$57)*($U60-$U$57)/($U$61-$U$57)</f>
         <v>29.5</v>
       </c>
     </row>
@@ -26295,13 +27390,13 @@
       <c r="E61" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="Q61" s="1" t="n">
+      <c r="U61" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="R61" s="1" t="n">
+      <c r="V61" s="1" t="n">
         <v>475.555555555555</v>
       </c>
-      <c r="S61" s="1" t="n">
+      <c r="W61" s="1" t="n">
         <v>30</v>
       </c>
     </row>
@@ -26321,16 +27416,16 @@
       <c r="E62" s="4" t="n">
         <v>60.5555555555556</v>
       </c>
-      <c r="Q62" s="0" t="n">
-        <f aca="false">Q61+1</f>
+      <c r="U62" s="0" t="n">
+        <f aca="false">U61+1</f>
         <v>103</v>
       </c>
-      <c r="R62" s="0" t="n">
-        <f aca="false">R$61+(R$69-R$61)*($Q62-$Q$61)/($Q$69-$Q$61)</f>
-        <v>490.277777777778</v>
-      </c>
-      <c r="S62" s="0" t="n">
-        <f aca="false">S$61+(S$69-S$61)*($Q62-$Q$61)/($Q$69-$Q$61)</f>
+      <c r="V62" s="0" t="n">
+        <f aca="false">V$61+(V$69-V$61)*($U62-$U$61)/($U$69-$U$61)</f>
+        <v>490.277777777777</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <f aca="false">W$61+(W$69-W$61)*($U62-$U$61)/($U$69-$U$61)</f>
         <v>30.5</v>
       </c>
     </row>
@@ -26350,16 +27445,16 @@
       <c r="E63" s="4" t="n">
         <v>61.1111111111112</v>
       </c>
-      <c r="Q63" s="0" t="n">
-        <f aca="false">Q62+1</f>
+      <c r="U63" s="0" t="n">
+        <f aca="false">U62+1</f>
         <v>104</v>
       </c>
-      <c r="R63" s="0" t="n">
-        <f aca="false">R$61+(R$69-R$61)*($Q63-$Q$61)/($Q$69-$Q$61)</f>
-        <v>505</v>
-      </c>
-      <c r="S63" s="0" t="n">
-        <f aca="false">S$61+(S$69-S$61)*($Q63-$Q$61)/($Q$69-$Q$61)</f>
+      <c r="V63" s="0" t="n">
+        <f aca="false">V$61+(V$69-V$61)*($U63-$U$61)/($U$69-$U$61)</f>
+        <v>504.999999999999</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <f aca="false">W$61+(W$69-W$61)*($U63-$U$61)/($U$69-$U$61)</f>
         <v>31</v>
       </c>
     </row>
@@ -26379,16 +27474,16 @@
       <c r="E64" s="4" t="n">
         <v>61.6666666666666</v>
       </c>
-      <c r="Q64" s="0" t="n">
-        <f aca="false">Q63+1</f>
+      <c r="U64" s="0" t="n">
+        <f aca="false">U63+1</f>
         <v>105</v>
       </c>
-      <c r="R64" s="0" t="n">
-        <f aca="false">R$61+(R$69-R$61)*($Q64-$Q$61)/($Q$69-$Q$61)</f>
+      <c r="V64" s="0" t="n">
+        <f aca="false">V$61+(V$69-V$61)*($U64-$U$61)/($U$69-$U$61)</f>
         <v>519.722222222222</v>
       </c>
-      <c r="S64" s="0" t="n">
-        <f aca="false">S$61+(S$69-S$61)*($Q64-$Q$61)/($Q$69-$Q$61)</f>
+      <c r="W64" s="0" t="n">
+        <f aca="false">W$61+(W$69-W$61)*($U64-$U$61)/($U$69-$U$61)</f>
         <v>31.5</v>
       </c>
     </row>
@@ -26408,16 +27503,16 @@
       <c r="E65" s="4" t="n">
         <v>62.2222222222222</v>
       </c>
-      <c r="Q65" s="0" t="n">
-        <f aca="false">Q64+1</f>
+      <c r="U65" s="0" t="n">
+        <f aca="false">U64+1</f>
         <v>106</v>
       </c>
-      <c r="R65" s="0" t="n">
-        <f aca="false">R$61+(R$69-R$61)*($Q65-$Q$61)/($Q$69-$Q$61)</f>
+      <c r="V65" s="0" t="n">
+        <f aca="false">V$61+(V$69-V$61)*($U65-$U$61)/($U$69-$U$61)</f>
         <v>534.444444444444</v>
       </c>
-      <c r="S65" s="0" t="n">
-        <f aca="false">S$61+(S$69-S$61)*($Q65-$Q$61)/($Q$69-$Q$61)</f>
+      <c r="W65" s="0" t="n">
+        <f aca="false">W$61+(W$69-W$61)*($U65-$U$61)/($U$69-$U$61)</f>
         <v>32</v>
       </c>
     </row>
@@ -26437,16 +27532,16 @@
       <c r="E66" s="4" t="n">
         <v>62.7777777777778</v>
       </c>
-      <c r="Q66" s="0" t="n">
-        <f aca="false">Q65+1</f>
+      <c r="U66" s="0" t="n">
+        <f aca="false">U65+1</f>
         <v>107</v>
       </c>
-      <c r="R66" s="0" t="n">
-        <f aca="false">R$61+(R$69-R$61)*($Q66-$Q$61)/($Q$69-$Q$61)</f>
-        <v>549.166666666667</v>
-      </c>
-      <c r="S66" s="0" t="n">
-        <f aca="false">S$61+(S$69-S$61)*($Q66-$Q$61)/($Q$69-$Q$61)</f>
+      <c r="V66" s="0" t="n">
+        <f aca="false">V$61+(V$69-V$61)*($U66-$U$61)/($U$69-$U$61)</f>
+        <v>549.166666666666</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <f aca="false">W$61+(W$69-W$61)*($U66-$U$61)/($U$69-$U$61)</f>
         <v>32.5</v>
       </c>
     </row>
@@ -26466,16 +27561,16 @@
       <c r="E67" s="4" t="n">
         <v>63.3333333333334</v>
       </c>
-      <c r="Q67" s="0" t="n">
-        <f aca="false">Q66+1</f>
+      <c r="U67" s="0" t="n">
+        <f aca="false">U66+1</f>
         <v>108</v>
       </c>
-      <c r="R67" s="0" t="n">
-        <f aca="false">R$61+(R$69-R$61)*($Q67-$Q$61)/($Q$69-$Q$61)</f>
+      <c r="V67" s="0" t="n">
+        <f aca="false">V$61+(V$69-V$61)*($U67-$U$61)/($U$69-$U$61)</f>
         <v>563.888888888889</v>
       </c>
-      <c r="S67" s="0" t="n">
-        <f aca="false">S$61+(S$69-S$61)*($Q67-$Q$61)/($Q$69-$Q$61)</f>
+      <c r="W67" s="0" t="n">
+        <f aca="false">W$61+(W$69-W$61)*($U67-$U$61)/($U$69-$U$61)</f>
         <v>33</v>
       </c>
     </row>
@@ -26495,16 +27590,16 @@
       <c r="E68" s="4" t="n">
         <v>63.8888888888888</v>
       </c>
-      <c r="Q68" s="0" t="n">
-        <f aca="false">Q67+1</f>
+      <c r="U68" s="0" t="n">
+        <f aca="false">U67+1</f>
         <v>109</v>
       </c>
-      <c r="R68" s="0" t="n">
-        <f aca="false">R$61+(R$69-R$61)*($Q68-$Q$61)/($Q$69-$Q$61)</f>
+      <c r="V68" s="0" t="n">
+        <f aca="false">V$61+(V$69-V$61)*($U68-$U$61)/($U$69-$U$61)</f>
         <v>578.611111111111</v>
       </c>
-      <c r="S68" s="0" t="n">
-        <f aca="false">S$61+(S$69-S$61)*($Q68-$Q$61)/($Q$69-$Q$61)</f>
+      <c r="W68" s="0" t="n">
+        <f aca="false">W$61+(W$69-W$61)*($U68-$U$61)/($U$69-$U$61)</f>
         <v>33.5</v>
       </c>
     </row>
@@ -26524,13 +27619,13 @@
       <c r="E69" s="4" t="n">
         <v>64.4444444444444</v>
       </c>
-      <c r="Q69" s="1" t="n">
+      <c r="U69" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="R69" s="1" t="n">
+      <c r="V69" s="1" t="n">
         <v>593.333333333333</v>
       </c>
-      <c r="S69" s="1" t="n">
+      <c r="W69" s="1" t="n">
         <v>34</v>
       </c>
     </row>
@@ -26550,16 +27645,16 @@
       <c r="E70" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="Q70" s="0" t="n">
-        <f aca="false">Q69+1</f>
+      <c r="U70" s="0" t="n">
+        <f aca="false">U69+1</f>
         <v>111</v>
       </c>
-      <c r="R70" s="0" t="n">
-        <f aca="false">R$69+(R$77-R$69)*($Q70-$Q$69)/($Q$77-$Q$69)</f>
-        <v>609.166666666667</v>
-      </c>
-      <c r="S70" s="0" t="n">
-        <f aca="false">S$69+(S$77-S$69)*($Q70-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="V70" s="0" t="n">
+        <f aca="false">V$69+(V$77-V$69)*($U70-$U$69)/($U$77-$U$69)</f>
+        <v>609.166666666666</v>
+      </c>
+      <c r="W70" s="0" t="n">
+        <f aca="false">W$69+(W$77-W$69)*($U70-$U$69)/($U$77-$U$69)</f>
         <v>34.5</v>
       </c>
     </row>
@@ -26579,16 +27674,16 @@
       <c r="E71" s="4" t="n">
         <v>65.5555555555556</v>
       </c>
-      <c r="Q71" s="0" t="n">
-        <f aca="false">Q70+1</f>
+      <c r="U71" s="0" t="n">
+        <f aca="false">U70+1</f>
         <v>112</v>
       </c>
-      <c r="R71" s="0" t="n">
-        <f aca="false">R$69+(R$77-R$69)*($Q71-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="V71" s="0" t="n">
+        <f aca="false">V$69+(V$77-V$69)*($U71-$U$69)/($U$77-$U$69)</f>
         <v>625</v>
       </c>
-      <c r="S71" s="0" t="n">
-        <f aca="false">S$69+(S$77-S$69)*($Q71-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="W71" s="0" t="n">
+        <f aca="false">W$69+(W$77-W$69)*($U71-$U$69)/($U$77-$U$69)</f>
         <v>35</v>
       </c>
     </row>
@@ -26608,16 +27703,16 @@
       <c r="E72" s="4" t="n">
         <v>66.1111111111112</v>
       </c>
-      <c r="Q72" s="0" t="n">
-        <f aca="false">Q71+1</f>
+      <c r="U72" s="0" t="n">
+        <f aca="false">U71+1</f>
         <v>113</v>
       </c>
-      <c r="R72" s="0" t="n">
-        <f aca="false">R$69+(R$77-R$69)*($Q72-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="V72" s="0" t="n">
+        <f aca="false">V$69+(V$77-V$69)*($U72-$U$69)/($U$77-$U$69)</f>
         <v>640.833333333333</v>
       </c>
-      <c r="S72" s="0" t="n">
-        <f aca="false">S$69+(S$77-S$69)*($Q72-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="W72" s="0" t="n">
+        <f aca="false">W$69+(W$77-W$69)*($U72-$U$69)/($U$77-$U$69)</f>
         <v>35.5</v>
       </c>
     </row>
@@ -26637,16 +27732,16 @@
       <c r="E73" s="4" t="n">
         <v>66.6666666666666</v>
       </c>
-      <c r="Q73" s="0" t="n">
-        <f aca="false">Q72+1</f>
+      <c r="U73" s="0" t="n">
+        <f aca="false">U72+1</f>
         <v>114</v>
       </c>
-      <c r="R73" s="0" t="n">
-        <f aca="false">R$69+(R$77-R$69)*($Q73-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="V73" s="0" t="n">
+        <f aca="false">V$69+(V$77-V$69)*($U73-$U$69)/($U$77-$U$69)</f>
         <v>656.666666666667</v>
       </c>
-      <c r="S73" s="0" t="n">
-        <f aca="false">S$69+(S$77-S$69)*($Q73-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="W73" s="0" t="n">
+        <f aca="false">W$69+(W$77-W$69)*($U73-$U$69)/($U$77-$U$69)</f>
         <v>36</v>
       </c>
     </row>
@@ -26666,16 +27761,16 @@
       <c r="E74" s="4" t="n">
         <v>67.2222222222222</v>
       </c>
-      <c r="Q74" s="0" t="n">
-        <f aca="false">Q73+1</f>
+      <c r="U74" s="0" t="n">
+        <f aca="false">U73+1</f>
         <v>115</v>
       </c>
-      <c r="R74" s="0" t="n">
-        <f aca="false">R$69+(R$77-R$69)*($Q74-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="V74" s="0" t="n">
+        <f aca="false">V$69+(V$77-V$69)*($U74-$U$69)/($U$77-$U$69)</f>
         <v>672.5</v>
       </c>
-      <c r="S74" s="0" t="n">
-        <f aca="false">S$69+(S$77-S$69)*($Q74-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="W74" s="0" t="n">
+        <f aca="false">W$69+(W$77-W$69)*($U74-$U$69)/($U$77-$U$69)</f>
         <v>36.5</v>
       </c>
     </row>
@@ -26695,16 +27790,16 @@
       <c r="E75" s="4" t="n">
         <v>67.7777777777778</v>
       </c>
-      <c r="Q75" s="0" t="n">
-        <f aca="false">Q74+1</f>
+      <c r="U75" s="0" t="n">
+        <f aca="false">U74+1</f>
         <v>116</v>
       </c>
-      <c r="R75" s="0" t="n">
-        <f aca="false">R$69+(R$77-R$69)*($Q75-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="V75" s="0" t="n">
+        <f aca="false">V$69+(V$77-V$69)*($U75-$U$69)/($U$77-$U$69)</f>
         <v>688.333333333333</v>
       </c>
-      <c r="S75" s="0" t="n">
-        <f aca="false">S$69+(S$77-S$69)*($Q75-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="W75" s="0" t="n">
+        <f aca="false">W$69+(W$77-W$69)*($U75-$U$69)/($U$77-$U$69)</f>
         <v>37</v>
       </c>
     </row>
@@ -26724,16 +27819,16 @@
       <c r="E76" s="4" t="n">
         <v>68.3333333333334</v>
       </c>
-      <c r="Q76" s="0" t="n">
-        <f aca="false">Q75+1</f>
+      <c r="U76" s="0" t="n">
+        <f aca="false">U75+1</f>
         <v>117</v>
       </c>
-      <c r="R76" s="0" t="n">
-        <f aca="false">R$69+(R$77-R$69)*($Q76-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="V76" s="0" t="n">
+        <f aca="false">V$69+(V$77-V$69)*($U76-$U$69)/($U$77-$U$69)</f>
         <v>704.166666666667</v>
       </c>
-      <c r="S76" s="0" t="n">
-        <f aca="false">S$69+(S$77-S$69)*($Q76-$Q$69)/($Q$77-$Q$69)</f>
+      <c r="W76" s="0" t="n">
+        <f aca="false">W$69+(W$77-W$69)*($U76-$U$69)/($U$77-$U$69)</f>
         <v>37.5</v>
       </c>
     </row>
@@ -26753,13 +27848,13 @@
       <c r="E77" s="4" t="n">
         <v>68.8888888888888</v>
       </c>
-      <c r="Q77" s="1" t="n">
+      <c r="U77" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="R77" s="1" t="n">
+      <c r="V77" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="S77" s="1" t="n">
+      <c r="W77" s="1" t="n">
         <v>38</v>
       </c>
     </row>
@@ -26779,16 +27874,16 @@
       <c r="E78" s="4" t="n">
         <v>69.4444444444444</v>
       </c>
-      <c r="Q78" s="0" t="n">
-        <f aca="false">Q77+1</f>
+      <c r="U78" s="0" t="n">
+        <f aca="false">U77+1</f>
         <v>119</v>
       </c>
-      <c r="R78" s="0" t="n">
-        <f aca="false">R$77+(R$84-R$77)*($Q78-$Q$77)/($Q$84-$Q$77)</f>
+      <c r="V78" s="0" t="n">
+        <f aca="false">V$77+(V$84-V$77)*($U78-$U$77)/($U$84-$U$77)</f>
         <v>739.285714285714</v>
       </c>
-      <c r="S78" s="0" t="n">
-        <f aca="false">S$77+(S$84-S$77)*($Q78-$Q$77)/($Q$84-$Q$77)</f>
+      <c r="W78" s="0" t="n">
+        <f aca="false">W$77+(W$84-W$77)*($U78-$U$77)/($U$84-$U$77)</f>
         <v>38.5714285714286</v>
       </c>
     </row>
@@ -26808,16 +27903,16 @@
       <c r="E79" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="Q79" s="0" t="n">
-        <f aca="false">Q78+1</f>
+      <c r="U79" s="0" t="n">
+        <f aca="false">U78+1</f>
         <v>120</v>
       </c>
-      <c r="R79" s="0" t="n">
-        <f aca="false">R$77+(R$84-R$77)*($Q79-$Q$77)/($Q$84-$Q$77)</f>
-        <v>758.571428571428</v>
-      </c>
-      <c r="S79" s="0" t="n">
-        <f aca="false">S$77+(S$84-S$77)*($Q79-$Q$77)/($Q$84-$Q$77)</f>
+      <c r="V79" s="0" t="n">
+        <f aca="false">V$77+(V$84-V$77)*($U79-$U$77)/($U$84-$U$77)</f>
+        <v>758.571428571429</v>
+      </c>
+      <c r="W79" s="0" t="n">
+        <f aca="false">W$77+(W$84-W$77)*($U79-$U$77)/($U$84-$U$77)</f>
         <v>39.1428571428571</v>
       </c>
     </row>
@@ -26837,16 +27932,16 @@
       <c r="E80" s="4" t="n">
         <v>70.5555555555556</v>
       </c>
-      <c r="Q80" s="0" t="n">
-        <f aca="false">Q79+1</f>
+      <c r="U80" s="0" t="n">
+        <f aca="false">U79+1</f>
         <v>121</v>
       </c>
-      <c r="R80" s="0" t="n">
-        <f aca="false">R$77+(R$84-R$77)*($Q80-$Q$77)/($Q$84-$Q$77)</f>
+      <c r="V80" s="0" t="n">
+        <f aca="false">V$77+(V$84-V$77)*($U80-$U$77)/($U$84-$U$77)</f>
         <v>777.857142857143</v>
       </c>
-      <c r="S80" s="0" t="n">
-        <f aca="false">S$77+(S$84-S$77)*($Q80-$Q$77)/($Q$84-$Q$77)</f>
+      <c r="W80" s="0" t="n">
+        <f aca="false">W$77+(W$84-W$77)*($U80-$U$77)/($U$84-$U$77)</f>
         <v>39.7142857142857</v>
       </c>
     </row>
@@ -26866,16 +27961,16 @@
       <c r="E81" s="4" t="n">
         <v>71.1111111111112</v>
       </c>
-      <c r="Q81" s="0" t="n">
-        <f aca="false">Q80+1</f>
+      <c r="U81" s="0" t="n">
+        <f aca="false">U80+1</f>
         <v>122</v>
       </c>
-      <c r="R81" s="0" t="n">
-        <f aca="false">R$77+(R$84-R$77)*($Q81-$Q$77)/($Q$84-$Q$77)</f>
+      <c r="V81" s="0" t="n">
+        <f aca="false">V$77+(V$84-V$77)*($U81-$U$77)/($U$84-$U$77)</f>
         <v>797.142857142857</v>
       </c>
-      <c r="S81" s="0" t="n">
-        <f aca="false">S$77+(S$84-S$77)*($Q81-$Q$77)/($Q$84-$Q$77)</f>
+      <c r="W81" s="0" t="n">
+        <f aca="false">W$77+(W$84-W$77)*($U81-$U$77)/($U$84-$U$77)</f>
         <v>40.2857142857143</v>
       </c>
     </row>
@@ -26895,16 +27990,16 @@
       <c r="E82" s="4" t="n">
         <v>71.6666666666666</v>
       </c>
-      <c r="Q82" s="0" t="n">
-        <f aca="false">Q81+1</f>
+      <c r="U82" s="0" t="n">
+        <f aca="false">U81+1</f>
         <v>123</v>
       </c>
-      <c r="R82" s="0" t="n">
-        <f aca="false">R$77+(R$84-R$77)*($Q82-$Q$77)/($Q$84-$Q$77)</f>
+      <c r="V82" s="0" t="n">
+        <f aca="false">V$77+(V$84-V$77)*($U82-$U$77)/($U$84-$U$77)</f>
         <v>816.428571428571</v>
       </c>
-      <c r="S82" s="0" t="n">
-        <f aca="false">S$77+(S$84-S$77)*($Q82-$Q$77)/($Q$84-$Q$77)</f>
+      <c r="W82" s="0" t="n">
+        <f aca="false">W$77+(W$84-W$77)*($U82-$U$77)/($U$84-$U$77)</f>
         <v>40.8571428571429</v>
       </c>
     </row>
@@ -26924,16 +28019,16 @@
       <c r="E83" s="4" t="n">
         <v>72.2222222222222</v>
       </c>
-      <c r="Q83" s="0" t="n">
-        <f aca="false">Q82+1</f>
+      <c r="U83" s="0" t="n">
+        <f aca="false">U82+1</f>
         <v>124</v>
       </c>
-      <c r="R83" s="0" t="n">
-        <f aca="false">R$77+(R$84-R$77)*($Q83-$Q$77)/($Q$84-$Q$77)</f>
+      <c r="V83" s="0" t="n">
+        <f aca="false">V$77+(V$84-V$77)*($U83-$U$77)/($U$84-$U$77)</f>
         <v>835.714285714286</v>
       </c>
-      <c r="S83" s="0" t="n">
-        <f aca="false">S$77+(S$84-S$77)*($Q83-$Q$77)/($Q$84-$Q$77)</f>
+      <c r="W83" s="0" t="n">
+        <f aca="false">W$77+(W$84-W$77)*($U83-$U$77)/($U$84-$U$77)</f>
         <v>41.4285714285714</v>
       </c>
     </row>
@@ -26953,13 +28048,13 @@
       <c r="E84" s="4" t="n">
         <v>72.7777777777778</v>
       </c>
-      <c r="Q84" s="1" t="n">
+      <c r="U84" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="R84" s="1" t="n">
+      <c r="V84" s="1" t="n">
         <v>855</v>
       </c>
-      <c r="S84" s="1" t="n">
+      <c r="W84" s="1" t="n">
         <v>42</v>
       </c>
     </row>
@@ -26979,16 +28074,16 @@
       <c r="E85" s="4" t="n">
         <v>73.3333333333334</v>
       </c>
-      <c r="Q85" s="0" t="n">
-        <f aca="false">Q84+1</f>
+      <c r="U85" s="0" t="n">
+        <f aca="false">U84+1</f>
         <v>126</v>
       </c>
-      <c r="R85" s="0" t="n">
-        <f aca="false">R$84+(R$90-R$84)*($Q85-$Q$84)/($Q$90-$Q$84)</f>
+      <c r="V85" s="0" t="n">
+        <f aca="false">V$84+(V$90-V$84)*($U85-$U$84)/($U$90-$U$84)</f>
         <v>878.703703703704</v>
       </c>
-      <c r="S85" s="0" t="n">
-        <f aca="false">S$84+(S$90-S$84)*($Q85-$Q$84)/($Q$90-$Q$84)</f>
+      <c r="W85" s="0" t="n">
+        <f aca="false">W$84+(W$90-W$84)*($U85-$U$84)/($U$90-$U$84)</f>
         <v>42.6666666666667</v>
       </c>
     </row>
@@ -27008,16 +28103,16 @@
       <c r="E86" s="4" t="n">
         <v>73.8888888888888</v>
       </c>
-      <c r="Q86" s="0" t="n">
-        <f aca="false">Q85+1</f>
+      <c r="U86" s="0" t="n">
+        <f aca="false">U85+1</f>
         <v>127</v>
       </c>
-      <c r="R86" s="0" t="n">
-        <f aca="false">R$84+(R$90-R$84)*($Q86-$Q$84)/($Q$90-$Q$84)</f>
+      <c r="V86" s="0" t="n">
+        <f aca="false">V$84+(V$90-V$84)*($U86-$U$84)/($U$90-$U$84)</f>
         <v>902.407407407407</v>
       </c>
-      <c r="S86" s="0" t="n">
-        <f aca="false">S$84+(S$90-S$84)*($Q86-$Q$84)/($Q$90-$Q$84)</f>
+      <c r="W86" s="0" t="n">
+        <f aca="false">W$84+(W$90-W$84)*($U86-$U$84)/($U$90-$U$84)</f>
         <v>43.3333333333333</v>
       </c>
     </row>
@@ -27037,16 +28132,16 @@
       <c r="E87" s="4" t="n">
         <v>74.4444444444444</v>
       </c>
-      <c r="Q87" s="0" t="n">
-        <f aca="false">Q86+1</f>
+      <c r="U87" s="0" t="n">
+        <f aca="false">U86+1</f>
         <v>128</v>
       </c>
-      <c r="R87" s="0" t="n">
-        <f aca="false">R$84+(R$90-R$84)*($Q87-$Q$84)/($Q$90-$Q$84)</f>
+      <c r="V87" s="0" t="n">
+        <f aca="false">V$84+(V$90-V$84)*($U87-$U$84)/($U$90-$U$84)</f>
         <v>926.111111111111</v>
       </c>
-      <c r="S87" s="0" t="n">
-        <f aca="false">S$84+(S$90-S$84)*($Q87-$Q$84)/($Q$90-$Q$84)</f>
+      <c r="W87" s="0" t="n">
+        <f aca="false">W$84+(W$90-W$84)*($U87-$U$84)/($U$90-$U$84)</f>
         <v>44</v>
       </c>
     </row>
@@ -27066,16 +28161,16 @@
       <c r="E88" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="Q88" s="0" t="n">
-        <f aca="false">Q87+1</f>
+      <c r="U88" s="0" t="n">
+        <f aca="false">U87+1</f>
         <v>129</v>
       </c>
-      <c r="R88" s="0" t="n">
-        <f aca="false">R$84+(R$90-R$84)*($Q88-$Q$84)/($Q$90-$Q$84)</f>
+      <c r="V88" s="0" t="n">
+        <f aca="false">V$84+(V$90-V$84)*($U88-$U$84)/($U$90-$U$84)</f>
         <v>949.814814814815</v>
       </c>
-      <c r="S88" s="0" t="n">
-        <f aca="false">S$84+(S$90-S$84)*($Q88-$Q$84)/($Q$90-$Q$84)</f>
+      <c r="W88" s="0" t="n">
+        <f aca="false">W$84+(W$90-W$84)*($U88-$U$84)/($U$90-$U$84)</f>
         <v>44.6666666666667</v>
       </c>
     </row>
@@ -27095,16 +28190,16 @@
       <c r="E89" s="4" t="n">
         <v>75.5555555555556</v>
       </c>
-      <c r="Q89" s="0" t="n">
-        <f aca="false">Q88+1</f>
+      <c r="U89" s="0" t="n">
+        <f aca="false">U88+1</f>
         <v>130</v>
       </c>
-      <c r="R89" s="0" t="n">
-        <f aca="false">R$84+(R$90-R$84)*($Q89-$Q$84)/($Q$90-$Q$84)</f>
+      <c r="V89" s="0" t="n">
+        <f aca="false">V$84+(V$90-V$84)*($U89-$U$84)/($U$90-$U$84)</f>
         <v>973.518518518518</v>
       </c>
-      <c r="S89" s="0" t="n">
-        <f aca="false">S$84+(S$90-S$84)*($Q89-$Q$84)/($Q$90-$Q$84)</f>
+      <c r="W89" s="0" t="n">
+        <f aca="false">W$84+(W$90-W$84)*($U89-$U$84)/($U$90-$U$84)</f>
         <v>45.3333333333333</v>
       </c>
     </row>
@@ -27124,13 +28219,13 @@
       <c r="E90" s="4" t="n">
         <v>76.1111111111112</v>
       </c>
-      <c r="Q90" s="1" t="n">
+      <c r="U90" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="R90" s="1" t="n">
+      <c r="V90" s="1" t="n">
         <v>997.222222222222</v>
       </c>
-      <c r="S90" s="1" t="n">
+      <c r="W90" s="1" t="n">
         <v>46</v>
       </c>
     </row>
@@ -27150,16 +28245,16 @@
       <c r="E91" s="4" t="n">
         <v>76.6666666666666</v>
       </c>
-      <c r="Q91" s="0" t="n">
-        <f aca="false">Q90+1</f>
+      <c r="U91" s="0" t="n">
+        <f aca="false">U90+1</f>
         <v>132</v>
       </c>
-      <c r="R91" s="0" t="n">
-        <f aca="false">R$90+(R$96-R$90)*($Q91-$Q$90)/($Q$96-$Q$90)</f>
+      <c r="V91" s="0" t="n">
+        <f aca="false">V$90+(V$96-V$90)*($U91-$U$90)/($U$96-$U$90)</f>
         <v>1022.03703703704</v>
       </c>
-      <c r="S91" s="0" t="n">
-        <f aca="false">S$90+(S$96-S$90)*($Q91-$Q$90)/($Q$96-$Q$90)</f>
+      <c r="W91" s="0" t="n">
+        <f aca="false">W$90+(W$96-W$90)*($U91-$U$90)/($U$96-$U$90)</f>
         <v>46.6666666666667</v>
       </c>
     </row>
@@ -27179,16 +28274,16 @@
       <c r="E92" s="4" t="n">
         <v>77.2222222222222</v>
       </c>
-      <c r="Q92" s="0" t="n">
-        <f aca="false">Q91+1</f>
+      <c r="U92" s="0" t="n">
+        <f aca="false">U91+1</f>
         <v>133</v>
       </c>
-      <c r="R92" s="0" t="n">
-        <f aca="false">R$90+(R$96-R$90)*($Q92-$Q$90)/($Q$96-$Q$90)</f>
+      <c r="V92" s="0" t="n">
+        <f aca="false">V$90+(V$96-V$90)*($U92-$U$90)/($U$96-$U$90)</f>
         <v>1046.85185185185</v>
       </c>
-      <c r="S92" s="0" t="n">
-        <f aca="false">S$90+(S$96-S$90)*($Q92-$Q$90)/($Q$96-$Q$90)</f>
+      <c r="W92" s="0" t="n">
+        <f aca="false">W$90+(W$96-W$90)*($U92-$U$90)/($U$96-$U$90)</f>
         <v>47.3333333333333</v>
       </c>
     </row>
@@ -27208,16 +28303,16 @@
       <c r="E93" s="4" t="n">
         <v>77.7777777777778</v>
       </c>
-      <c r="Q93" s="0" t="n">
-        <f aca="false">Q92+1</f>
+      <c r="U93" s="0" t="n">
+        <f aca="false">U92+1</f>
         <v>134</v>
       </c>
-      <c r="R93" s="0" t="n">
-        <f aca="false">R$90+(R$96-R$90)*($Q93-$Q$90)/($Q$96-$Q$90)</f>
+      <c r="V93" s="0" t="n">
+        <f aca="false">V$90+(V$96-V$90)*($U93-$U$90)/($U$96-$U$90)</f>
         <v>1071.66666666667</v>
       </c>
-      <c r="S93" s="0" t="n">
-        <f aca="false">S$90+(S$96-S$90)*($Q93-$Q$90)/($Q$96-$Q$90)</f>
+      <c r="W93" s="0" t="n">
+        <f aca="false">W$90+(W$96-W$90)*($U93-$U$90)/($U$96-$U$90)</f>
         <v>48</v>
       </c>
     </row>
@@ -27237,16 +28332,16 @@
       <c r="E94" s="4" t="n">
         <v>78.3333333333334</v>
       </c>
-      <c r="Q94" s="0" t="n">
-        <f aca="false">Q93+1</f>
+      <c r="U94" s="0" t="n">
+        <f aca="false">U93+1</f>
         <v>135</v>
       </c>
-      <c r="R94" s="0" t="n">
-        <f aca="false">R$90+(R$96-R$90)*($Q94-$Q$90)/($Q$96-$Q$90)</f>
+      <c r="V94" s="0" t="n">
+        <f aca="false">V$90+(V$96-V$90)*($U94-$U$90)/($U$96-$U$90)</f>
         <v>1096.48148148148</v>
       </c>
-      <c r="S94" s="0" t="n">
-        <f aca="false">S$90+(S$96-S$90)*($Q94-$Q$90)/($Q$96-$Q$90)</f>
+      <c r="W94" s="0" t="n">
+        <f aca="false">W$90+(W$96-W$90)*($U94-$U$90)/($U$96-$U$90)</f>
         <v>48.6666666666667</v>
       </c>
     </row>
@@ -27266,16 +28361,16 @@
       <c r="E95" s="4" t="n">
         <v>78.8888888888888</v>
       </c>
-      <c r="Q95" s="0" t="n">
-        <f aca="false">Q94+1</f>
+      <c r="U95" s="0" t="n">
+        <f aca="false">U94+1</f>
         <v>136</v>
       </c>
-      <c r="R95" s="0" t="n">
-        <f aca="false">R$90+(R$96-R$90)*($Q95-$Q$90)/($Q$96-$Q$90)</f>
+      <c r="V95" s="0" t="n">
+        <f aca="false">V$90+(V$96-V$90)*($U95-$U$90)/($U$96-$U$90)</f>
         <v>1121.2962962963</v>
       </c>
-      <c r="S95" s="0" t="n">
-        <f aca="false">S$90+(S$96-S$90)*($Q95-$Q$90)/($Q$96-$Q$90)</f>
+      <c r="W95" s="0" t="n">
+        <f aca="false">W$90+(W$96-W$90)*($U95-$U$90)/($U$96-$U$90)</f>
         <v>49.3333333333333</v>
       </c>
     </row>
@@ -27295,13 +28390,13 @@
       <c r="E96" s="4" t="n">
         <v>79.4444444444444</v>
       </c>
-      <c r="Q96" s="1" t="n">
+      <c r="U96" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="R96" s="1" t="n">
+      <c r="V96" s="1" t="n">
         <v>1146.11111111111</v>
       </c>
-      <c r="S96" s="1" t="n">
+      <c r="W96" s="1" t="n">
         <v>50</v>
       </c>
     </row>
@@ -27321,16 +28416,16 @@
       <c r="E97" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="Q97" s="0" t="n">
-        <f aca="false">Q96+1</f>
+      <c r="U97" s="0" t="n">
+        <f aca="false">U96+1</f>
         <v>138</v>
       </c>
-      <c r="R97" s="0" t="n">
-        <f aca="false">R$96+(R$102-R$96)*($Q97-$Q$96)/($Q$102-$Q$96)</f>
+      <c r="V97" s="0" t="n">
+        <f aca="false">V$96+(V$102-V$96)*($U97-$U$96)/($U$102-$U$96)</f>
         <v>1172.03703703704</v>
       </c>
-      <c r="S97" s="0" t="n">
-        <f aca="false">S$96+(S$102-S$96)*($Q97-$Q$96)/($Q$102-$Q$96)</f>
+      <c r="W97" s="0" t="n">
+        <f aca="false">W$96+(W$102-W$96)*($U97-$U$96)/($U$102-$U$96)</f>
         <v>50.6666666666667</v>
       </c>
     </row>
@@ -27350,16 +28445,16 @@
       <c r="E98" s="4" t="n">
         <v>80.5555555555556</v>
       </c>
-      <c r="Q98" s="0" t="n">
-        <f aca="false">Q97+1</f>
+      <c r="U98" s="0" t="n">
+        <f aca="false">U97+1</f>
         <v>139</v>
       </c>
-      <c r="R98" s="0" t="n">
-        <f aca="false">R$96+(R$102-R$96)*($Q98-$Q$96)/($Q$102-$Q$96)</f>
+      <c r="V98" s="0" t="n">
+        <f aca="false">V$96+(V$102-V$96)*($U98-$U$96)/($U$102-$U$96)</f>
         <v>1197.96296296296</v>
       </c>
-      <c r="S98" s="0" t="n">
-        <f aca="false">S$96+(S$102-S$96)*($Q98-$Q$96)/($Q$102-$Q$96)</f>
+      <c r="W98" s="0" t="n">
+        <f aca="false">W$96+(W$102-W$96)*($U98-$U$96)/($U$102-$U$96)</f>
         <v>51.3333333333333</v>
       </c>
     </row>
@@ -27379,16 +28474,16 @@
       <c r="E99" s="4" t="n">
         <v>81.1111111111112</v>
       </c>
-      <c r="Q99" s="0" t="n">
-        <f aca="false">Q98+1</f>
+      <c r="U99" s="0" t="n">
+        <f aca="false">U98+1</f>
         <v>140</v>
       </c>
-      <c r="R99" s="0" t="n">
-        <f aca="false">R$96+(R$102-R$96)*($Q99-$Q$96)/($Q$102-$Q$96)</f>
+      <c r="V99" s="0" t="n">
+        <f aca="false">V$96+(V$102-V$96)*($U99-$U$96)/($U$102-$U$96)</f>
         <v>1223.88888888889</v>
       </c>
-      <c r="S99" s="0" t="n">
-        <f aca="false">S$96+(S$102-S$96)*($Q99-$Q$96)/($Q$102-$Q$96)</f>
+      <c r="W99" s="0" t="n">
+        <f aca="false">W$96+(W$102-W$96)*($U99-$U$96)/($U$102-$U$96)</f>
         <v>52</v>
       </c>
     </row>
@@ -27408,16 +28503,16 @@
       <c r="E100" s="4" t="n">
         <v>81.6666666666666</v>
       </c>
-      <c r="Q100" s="0" t="n">
-        <f aca="false">Q99+1</f>
+      <c r="U100" s="0" t="n">
+        <f aca="false">U99+1</f>
         <v>141</v>
       </c>
-      <c r="R100" s="0" t="n">
-        <f aca="false">R$96+(R$102-R$96)*($Q100-$Q$96)/($Q$102-$Q$96)</f>
-        <v>1249.81481481481</v>
-      </c>
-      <c r="S100" s="0" t="n">
-        <f aca="false">S$96+(S$102-S$96)*($Q100-$Q$96)/($Q$102-$Q$96)</f>
+      <c r="V100" s="0" t="n">
+        <f aca="false">V$96+(V$102-V$96)*($U100-$U$96)/($U$102-$U$96)</f>
+        <v>1249.81481481482</v>
+      </c>
+      <c r="W100" s="0" t="n">
+        <f aca="false">W$96+(W$102-W$96)*($U100-$U$96)/($U$102-$U$96)</f>
         <v>52.6666666666667</v>
       </c>
     </row>
@@ -27437,16 +28532,16 @@
       <c r="E101" s="4" t="n">
         <v>82.2222222222222</v>
       </c>
-      <c r="Q101" s="0" t="n">
-        <f aca="false">Q100+1</f>
+      <c r="U101" s="0" t="n">
+        <f aca="false">U100+1</f>
         <v>142</v>
       </c>
-      <c r="R101" s="0" t="n">
-        <f aca="false">R$96+(R$102-R$96)*($Q101-$Q$96)/($Q$102-$Q$96)</f>
+      <c r="V101" s="0" t="n">
+        <f aca="false">V$96+(V$102-V$96)*($U101-$U$96)/($U$102-$U$96)</f>
         <v>1275.74074074074</v>
       </c>
-      <c r="S101" s="0" t="n">
-        <f aca="false">S$96+(S$102-S$96)*($Q101-$Q$96)/($Q$102-$Q$96)</f>
+      <c r="W101" s="0" t="n">
+        <f aca="false">W$96+(W$102-W$96)*($U101-$U$96)/($U$102-$U$96)</f>
         <v>53.3333333333333</v>
       </c>
     </row>
@@ -27466,13 +28561,13 @@
       <c r="E102" s="4" t="n">
         <v>82.7777777777778</v>
       </c>
-      <c r="Q102" s="1" t="n">
+      <c r="U102" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="R102" s="1" t="n">
+      <c r="V102" s="1" t="n">
         <v>1301.66666666667</v>
       </c>
-      <c r="S102" s="1" t="n">
+      <c r="W102" s="1" t="n">
         <v>54</v>
       </c>
     </row>
@@ -27492,16 +28587,16 @@
       <c r="E103" s="4" t="n">
         <v>83.3333333333334</v>
       </c>
-      <c r="Q103" s="0" t="n">
-        <f aca="false">Q102+1</f>
+      <c r="U103" s="0" t="n">
+        <f aca="false">U102+1</f>
         <v>144</v>
       </c>
-      <c r="R103" s="0" t="n">
-        <f aca="false">R$102+(R$107-R$102)*($Q103-$Q$102)/($Q$107-$Q$102)</f>
+      <c r="V103" s="0" t="n">
+        <f aca="false">V$102+(V$107-V$102)*($U103-$U$102)/($U$107-$U$102)</f>
         <v>1334</v>
       </c>
-      <c r="S103" s="0" t="n">
-        <f aca="false">S$102+(S$107-S$102)*($Q103-$Q$102)/($Q$107-$Q$102)</f>
+      <c r="W103" s="0" t="n">
+        <f aca="false">W$102+(W$107-W$102)*($U103-$U$102)/($U$107-$U$102)</f>
         <v>54.8</v>
       </c>
     </row>
@@ -27521,16 +28616,16 @@
       <c r="E104" s="4" t="n">
         <v>83.8888888888888</v>
       </c>
-      <c r="Q104" s="0" t="n">
-        <f aca="false">Q103+1</f>
+      <c r="U104" s="0" t="n">
+        <f aca="false">U103+1</f>
         <v>145</v>
       </c>
-      <c r="R104" s="0" t="n">
-        <f aca="false">R$102+(R$107-R$102)*($Q104-$Q$102)/($Q$107-$Q$102)</f>
+      <c r="V104" s="0" t="n">
+        <f aca="false">V$102+(V$107-V$102)*($U104-$U$102)/($U$107-$U$102)</f>
         <v>1366.33333333333</v>
       </c>
-      <c r="S104" s="0" t="n">
-        <f aca="false">S$102+(S$107-S$102)*($Q104-$Q$102)/($Q$107-$Q$102)</f>
+      <c r="W104" s="0" t="n">
+        <f aca="false">W$102+(W$107-W$102)*($U104-$U$102)/($U$107-$U$102)</f>
         <v>55.6</v>
       </c>
     </row>
@@ -27550,16 +28645,16 @@
       <c r="E105" s="4" t="n">
         <v>84.4444444444444</v>
       </c>
-      <c r="Q105" s="0" t="n">
-        <f aca="false">Q104+1</f>
+      <c r="U105" s="0" t="n">
+        <f aca="false">U104+1</f>
         <v>146</v>
       </c>
-      <c r="R105" s="0" t="n">
-        <f aca="false">R$102+(R$107-R$102)*($Q105-$Q$102)/($Q$107-$Q$102)</f>
+      <c r="V105" s="0" t="n">
+        <f aca="false">V$102+(V$107-V$102)*($U105-$U$102)/($U$107-$U$102)</f>
         <v>1398.66666666667</v>
       </c>
-      <c r="S105" s="0" t="n">
-        <f aca="false">S$102+(S$107-S$102)*($Q105-$Q$102)/($Q$107-$Q$102)</f>
+      <c r="W105" s="0" t="n">
+        <f aca="false">W$102+(W$107-W$102)*($U105-$U$102)/($U$107-$U$102)</f>
         <v>56.4</v>
       </c>
     </row>
@@ -27579,16 +28674,16 @@
       <c r="E106" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="Q106" s="0" t="n">
-        <f aca="false">Q105+1</f>
+      <c r="U106" s="0" t="n">
+        <f aca="false">U105+1</f>
         <v>147</v>
       </c>
-      <c r="R106" s="0" t="n">
-        <f aca="false">R$102+(R$107-R$102)*($Q106-$Q$102)/($Q$107-$Q$102)</f>
+      <c r="V106" s="0" t="n">
+        <f aca="false">V$102+(V$107-V$102)*($U106-$U$102)/($U$107-$U$102)</f>
         <v>1431</v>
       </c>
-      <c r="S106" s="0" t="n">
-        <f aca="false">S$102+(S$107-S$102)*($Q106-$Q$102)/($Q$107-$Q$102)</f>
+      <c r="W106" s="0" t="n">
+        <f aca="false">W$102+(W$107-W$102)*($U106-$U$102)/($U$107-$U$102)</f>
         <v>57.2</v>
       </c>
     </row>
@@ -27608,13 +28703,13 @@
       <c r="E107" s="4" t="n">
         <v>85.5555555555556</v>
       </c>
-      <c r="Q107" s="1" t="n">
+      <c r="U107" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="R107" s="1" t="n">
+      <c r="V107" s="1" t="n">
         <v>1463.33333333333</v>
       </c>
-      <c r="S107" s="1" t="n">
+      <c r="W107" s="1" t="n">
         <v>58</v>
       </c>
     </row>
@@ -27634,16 +28729,16 @@
       <c r="E108" s="4" t="n">
         <v>86.1111111111112</v>
       </c>
-      <c r="Q108" s="0" t="n">
-        <f aca="false">Q107+1</f>
+      <c r="U108" s="0" t="n">
+        <f aca="false">U107+1</f>
         <v>149</v>
       </c>
-      <c r="R108" s="0" t="n">
-        <f aca="false">R$107+(R$112-R$107)*($Q108-$Q$107)/($Q$112-$Q$107)</f>
+      <c r="V108" s="0" t="n">
+        <f aca="false">V$107+(V$112-V$107)*($U108-$U$107)/($U$112-$U$107)</f>
         <v>1496.77777777778</v>
       </c>
-      <c r="S108" s="0" t="n">
-        <f aca="false">S$107+(S$112-S$107)*($Q108-$Q$107)/($Q$112-$Q$107)</f>
+      <c r="W108" s="0" t="n">
+        <f aca="false">W$107+(W$112-W$107)*($U108-$U$107)/($U$112-$U$107)</f>
         <v>58.8</v>
       </c>
     </row>
@@ -27663,16 +28758,16 @@
       <c r="E109" s="4" t="n">
         <v>86.6666666666666</v>
       </c>
-      <c r="Q109" s="0" t="n">
-        <f aca="false">Q108+1</f>
+      <c r="U109" s="0" t="n">
+        <f aca="false">U108+1</f>
         <v>150</v>
       </c>
-      <c r="R109" s="0" t="n">
-        <f aca="false">R$107+(R$112-R$107)*($Q109-$Q$107)/($Q$112-$Q$107)</f>
+      <c r="V109" s="0" t="n">
+        <f aca="false">V$107+(V$112-V$107)*($U109-$U$107)/($U$112-$U$107)</f>
         <v>1530.22222222222</v>
       </c>
-      <c r="S109" s="0" t="n">
-        <f aca="false">S$107+(S$112-S$107)*($Q109-$Q$107)/($Q$112-$Q$107)</f>
+      <c r="W109" s="0" t="n">
+        <f aca="false">W$107+(W$112-W$107)*($U109-$U$107)/($U$112-$U$107)</f>
         <v>59.6</v>
       </c>
     </row>
@@ -27692,16 +28787,16 @@
       <c r="E110" s="4" t="n">
         <v>87.2222222222222</v>
       </c>
-      <c r="Q110" s="0" t="n">
-        <f aca="false">Q109+1</f>
+      <c r="U110" s="0" t="n">
+        <f aca="false">U109+1</f>
         <v>151</v>
       </c>
-      <c r="R110" s="0" t="n">
-        <f aca="false">R$107+(R$112-R$107)*($Q110-$Q$107)/($Q$112-$Q$107)</f>
+      <c r="V110" s="0" t="n">
+        <f aca="false">V$107+(V$112-V$107)*($U110-$U$107)/($U$112-$U$107)</f>
         <v>1563.66666666667</v>
       </c>
-      <c r="S110" s="0" t="n">
-        <f aca="false">S$107+(S$112-S$107)*($Q110-$Q$107)/($Q$112-$Q$107)</f>
+      <c r="W110" s="0" t="n">
+        <f aca="false">W$107+(W$112-W$107)*($U110-$U$107)/($U$112-$U$107)</f>
         <v>60.4</v>
       </c>
     </row>
@@ -27721,16 +28816,16 @@
       <c r="E111" s="4" t="n">
         <v>87.7777777777778</v>
       </c>
-      <c r="Q111" s="0" t="n">
-        <f aca="false">Q110+1</f>
+      <c r="U111" s="0" t="n">
+        <f aca="false">U110+1</f>
         <v>152</v>
       </c>
-      <c r="R111" s="0" t="n">
-        <f aca="false">R$107+(R$112-R$107)*($Q111-$Q$107)/($Q$112-$Q$107)</f>
+      <c r="V111" s="0" t="n">
+        <f aca="false">V$107+(V$112-V$107)*($U111-$U$107)/($U$112-$U$107)</f>
         <v>1597.11111111111</v>
       </c>
-      <c r="S111" s="0" t="n">
-        <f aca="false">S$107+(S$112-S$107)*($Q111-$Q$107)/($Q$112-$Q$107)</f>
+      <c r="W111" s="0" t="n">
+        <f aca="false">W$107+(W$112-W$107)*($U111-$U$107)/($U$112-$U$107)</f>
         <v>61.2</v>
       </c>
     </row>
@@ -27750,13 +28845,13 @@
       <c r="E112" s="4" t="n">
         <v>88.3333333333334</v>
       </c>
-      <c r="Q112" s="1" t="n">
+      <c r="U112" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="R112" s="1" t="n">
+      <c r="V112" s="1" t="n">
         <v>1630.55555555556</v>
       </c>
-      <c r="S112" s="1" t="n">
+      <c r="W112" s="1" t="n">
         <v>62</v>
       </c>
     </row>
@@ -27776,67 +28871,67 @@
       <c r="E113" s="4" t="n">
         <v>88.8888888888888</v>
       </c>
-      <c r="Q113" s="0" t="n">
-        <f aca="false">Q112+1</f>
+      <c r="U113" s="0" t="n">
+        <f aca="false">U112+1</f>
         <v>154</v>
       </c>
-      <c r="R113" s="0" t="n">
-        <f aca="false">R$112+(R$116-R$112)*($Q113-$Q$112)/($Q$116-$Q$112)</f>
-        <v>1673.61111111111</v>
-      </c>
-      <c r="S113" s="0" t="n">
-        <f aca="false">S$112+(S$116-S$112)*($Q113-$Q$112)/($Q$116-$Q$112)</f>
+      <c r="V113" s="0" t="n">
+        <f aca="false">V$112+(V$116-V$112)*($U113-$U$112)/($U$116-$U$112)</f>
+        <v>1673.61111111112</v>
+      </c>
+      <c r="W113" s="0" t="n">
+        <f aca="false">W$112+(W$116-W$112)*($U113-$U$112)/($U$116-$U$112)</f>
         <v>63</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="11"/>
-      <c r="Q114" s="0" t="n">
-        <f aca="false">Q113+1</f>
+      <c r="U114" s="0" t="n">
+        <f aca="false">U113+1</f>
         <v>155</v>
       </c>
-      <c r="R114" s="0" t="n">
-        <f aca="false">R$112+(R$116-R$112)*($Q114-$Q$112)/($Q$116-$Q$112)</f>
+      <c r="V114" s="0" t="n">
+        <f aca="false">V$112+(V$116-V$112)*($U114-$U$112)/($U$116-$U$112)</f>
         <v>1716.66666666667</v>
       </c>
-      <c r="S114" s="0" t="n">
-        <f aca="false">S$112+(S$116-S$112)*($Q114-$Q$112)/($Q$116-$Q$112)</f>
+      <c r="W114" s="0" t="n">
+        <f aca="false">W$112+(W$116-W$112)*($U114-$U$112)/($U$116-$U$112)</f>
         <v>64</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q115" s="0" t="n">
-        <f aca="false">Q114+1</f>
+      <c r="U115" s="0" t="n">
+        <f aca="false">U114+1</f>
         <v>156</v>
       </c>
-      <c r="R115" s="0" t="n">
-        <f aca="false">R$112+(R$116-R$112)*($Q115-$Q$112)/($Q$116-$Q$112)</f>
-        <v>1759.72222222222</v>
-      </c>
-      <c r="S115" s="0" t="n">
-        <f aca="false">S$112+(S$116-S$112)*($Q115-$Q$112)/($Q$116-$Q$112)</f>
+      <c r="V115" s="0" t="n">
+        <f aca="false">V$112+(V$116-V$112)*($U115-$U$112)/($U$116-$U$112)</f>
+        <v>1759.72222222223</v>
+      </c>
+      <c r="W115" s="0" t="n">
+        <f aca="false">W$112+(W$116-W$112)*($U115-$U$112)/($U$116-$U$112)</f>
         <v>65</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q116" s="1" t="n">
+      <c r="U116" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="R116" s="1" t="n">
+      <c r="V116" s="1" t="n">
         <v>1802.77777777778</v>
       </c>
-      <c r="S116" s="1" t="n">
+      <c r="W116" s="1" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q117" s="1" t="n">
+      <c r="U117" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="R117" s="1" t="n">
+      <c r="V117" s="1" t="n">
         <v>1977.77777777778</v>
       </c>
-      <c r="S117" s="1" t="n">
+      <c r="W117" s="1" t="n">
         <v>70</v>
       </c>
     </row>
@@ -28007,6 +29102,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28023,7 +29119,7 @@
       <selection pane="bottomLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.89"/>
   </cols>
@@ -28063,13 +29159,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="15" t="n">
         <v>625</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="15" t="n">
         <v>87.5</v>
       </c>
       <c r="D3" s="11" t="n">
@@ -28080,13 +29176,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="15" t="n">
         <v>51</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="15" t="n">
         <v>642.5</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="15" t="n">
         <v>88.75</v>
       </c>
       <c r="D4" s="11" t="n">
@@ -28097,13 +29193,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="15" t="n">
         <v>52</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="15" t="n">
         <v>660</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="15" t="n">
         <v>90</v>
       </c>
       <c r="D5" s="11" t="n">
@@ -28114,13 +29210,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="15" t="n">
         <v>53</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="15" t="n">
         <v>686.666666666667</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="15" t="n">
         <v>91.6666666666667</v>
       </c>
       <c r="D6" s="11" t="n">
@@ -28131,13 +29227,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="15" t="n">
         <v>54</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="15" t="n">
         <v>713.333333333333</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="15" t="n">
         <v>93.3333333333333</v>
       </c>
       <c r="D7" s="11" t="n">
@@ -28148,13 +29244,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="15" t="n">
         <v>55</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="15" t="n">
         <v>740</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="15" t="n">
         <v>95</v>
       </c>
       <c r="D8" s="11" t="n">
@@ -28165,13 +29261,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="15" t="n">
         <v>56</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="15" t="n">
         <v>766.666666666667</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="15" t="n">
         <v>96.6666666666667</v>
       </c>
       <c r="D9" s="11" t="n">
@@ -28182,13 +29278,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="A10" s="15" t="n">
         <v>57</v>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="15" t="n">
         <v>793.333333333333</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="15" t="n">
         <v>98.3333333333333</v>
       </c>
       <c r="D10" s="11" t="n">
@@ -28199,13 +29295,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="15" t="n">
         <v>58</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="15" t="n">
         <v>820</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="15" t="n">
         <v>100</v>
       </c>
       <c r="D11" s="11" t="n">
@@ -28216,13 +29312,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+      <c r="A12" s="15" t="n">
         <v>59</v>
       </c>
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="15" t="n">
         <v>910</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="15" t="n">
         <v>105</v>
       </c>
       <c r="D12" s="11" t="n">
@@ -28233,13 +29329,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
+      <c r="A13" s="15" t="n">
         <v>60</v>
       </c>
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="15" t="n">
         <v>110</v>
       </c>
       <c r="D13" s="11" t="n">
@@ -28250,13 +29346,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
+      <c r="A14" s="15" t="n">
         <v>61</v>
       </c>
-      <c r="B14" s="14" t="n">
+      <c r="B14" s="15" t="n">
         <v>1053.33333333333</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="15" t="n">
         <v>113.333333333333</v>
       </c>
       <c r="D14" s="11" t="n">
@@ -28267,13 +29363,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
+      <c r="A15" s="15" t="n">
         <v>62</v>
       </c>
-      <c r="B15" s="14" t="n">
+      <c r="B15" s="15" t="n">
         <v>1106.66666666667</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="15" t="n">
         <v>116.666666666667</v>
       </c>
       <c r="D15" s="11" t="n">
@@ -28284,13 +29380,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+      <c r="A16" s="15" t="n">
         <v>63</v>
       </c>
-      <c r="B16" s="14" t="n">
+      <c r="B16" s="15" t="n">
         <v>1160</v>
       </c>
-      <c r="C16" s="14" t="n">
+      <c r="C16" s="15" t="n">
         <v>120</v>
       </c>
       <c r="D16" s="11" t="n">
@@ -28301,13 +29397,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
+      <c r="A17" s="15" t="n">
         <v>64</v>
       </c>
-      <c r="B17" s="14" t="n">
+      <c r="B17" s="15" t="n">
         <v>1180</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="15" t="n">
         <v>121.111111111111</v>
       </c>
       <c r="D17" s="11" t="n">
@@ -28318,13 +29414,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
+      <c r="A18" s="15" t="n">
         <v>65</v>
       </c>
-      <c r="B18" s="14" t="n">
+      <c r="B18" s="15" t="n">
         <v>1200</v>
       </c>
-      <c r="C18" s="14" t="n">
+      <c r="C18" s="15" t="n">
         <v>122.222222222222</v>
       </c>
       <c r="D18" s="11" t="n">
@@ -28335,13 +29431,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
+      <c r="A19" s="15" t="n">
         <v>66</v>
       </c>
-      <c r="B19" s="14" t="n">
+      <c r="B19" s="15" t="n">
         <v>1220</v>
       </c>
-      <c r="C19" s="14" t="n">
+      <c r="C19" s="15" t="n">
         <v>123.333333333333</v>
       </c>
       <c r="D19" s="11" t="n">
@@ -28352,13 +29448,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
+      <c r="A20" s="15" t="n">
         <v>67</v>
       </c>
-      <c r="B20" s="14" t="n">
+      <c r="B20" s="15" t="n">
         <v>1240</v>
       </c>
-      <c r="C20" s="14" t="n">
+      <c r="C20" s="15" t="n">
         <v>124.444444444444</v>
       </c>
       <c r="D20" s="11" t="n">
@@ -28369,13 +29465,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
+      <c r="A21" s="15" t="n">
         <v>68</v>
       </c>
-      <c r="B21" s="14" t="n">
+      <c r="B21" s="15" t="n">
         <v>1260</v>
       </c>
-      <c r="C21" s="14" t="n">
+      <c r="C21" s="15" t="n">
         <v>125.555555555556</v>
       </c>
       <c r="D21" s="11" t="n">
@@ -28386,13 +29482,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
+      <c r="A22" s="15" t="n">
         <v>69</v>
       </c>
-      <c r="B22" s="14" t="n">
+      <c r="B22" s="15" t="n">
         <v>1280</v>
       </c>
-      <c r="C22" s="14" t="n">
+      <c r="C22" s="15" t="n">
         <v>126.666666666667</v>
       </c>
       <c r="D22" s="11" t="n">
@@ -28403,13 +29499,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
+      <c r="A23" s="15" t="n">
         <v>70</v>
       </c>
-      <c r="B23" s="14" t="n">
+      <c r="B23" s="15" t="n">
         <v>1300</v>
       </c>
-      <c r="C23" s="14" t="n">
+      <c r="C23" s="15" t="n">
         <v>127.777777777778</v>
       </c>
       <c r="D23" s="11" t="n">
@@ -28420,13 +29516,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="n">
+      <c r="A24" s="15" t="n">
         <v>71</v>
       </c>
-      <c r="B24" s="14" t="n">
+      <c r="B24" s="15" t="n">
         <v>1320</v>
       </c>
-      <c r="C24" s="14" t="n">
+      <c r="C24" s="15" t="n">
         <v>128.888888888889</v>
       </c>
       <c r="D24" s="11" t="n">
@@ -28437,13 +29533,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
+      <c r="A25" s="15" t="n">
         <v>72</v>
       </c>
-      <c r="B25" s="14" t="n">
+      <c r="B25" s="15" t="n">
         <v>1340</v>
       </c>
-      <c r="C25" s="14" t="n">
+      <c r="C25" s="15" t="n">
         <v>130</v>
       </c>
       <c r="D25" s="11" t="n">
@@ -28454,13 +29550,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
+      <c r="A26" s="15" t="n">
         <v>73</v>
       </c>
-      <c r="B26" s="14" t="n">
+      <c r="B26" s="15" t="n">
         <v>1363.33333333333</v>
       </c>
-      <c r="C26" s="14" t="n">
+      <c r="C26" s="15" t="n">
         <v>131.111111111111</v>
       </c>
       <c r="D26" s="11" t="n">
@@ -28471,13 +29567,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
+      <c r="A27" s="15" t="n">
         <v>74</v>
       </c>
-      <c r="B27" s="14" t="n">
+      <c r="B27" s="15" t="n">
         <v>1386.66666666667</v>
       </c>
-      <c r="C27" s="14" t="n">
+      <c r="C27" s="15" t="n">
         <v>132.222222222222</v>
       </c>
       <c r="D27" s="11" t="n">
@@ -28488,13 +29584,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="n">
+      <c r="A28" s="15" t="n">
         <v>75</v>
       </c>
-      <c r="B28" s="14" t="n">
+      <c r="B28" s="15" t="n">
         <v>1410</v>
       </c>
-      <c r="C28" s="14" t="n">
+      <c r="C28" s="15" t="n">
         <v>133.333333333333</v>
       </c>
       <c r="D28" s="11" t="n">
@@ -28505,13 +29601,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="n">
+      <c r="A29" s="15" t="n">
         <v>76</v>
       </c>
-      <c r="B29" s="14" t="n">
+      <c r="B29" s="15" t="n">
         <v>1433.33333333333</v>
       </c>
-      <c r="C29" s="14" t="n">
+      <c r="C29" s="15" t="n">
         <v>134.444444444444</v>
       </c>
       <c r="D29" s="11" t="n">
@@ -28522,13 +29618,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="n">
+      <c r="A30" s="15" t="n">
         <v>77</v>
       </c>
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="15" t="n">
         <v>1456.66666666667</v>
       </c>
-      <c r="C30" s="14" t="n">
+      <c r="C30" s="15" t="n">
         <v>135.555555555556</v>
       </c>
       <c r="D30" s="11" t="n">
@@ -28539,13 +29635,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="n">
+      <c r="A31" s="15" t="n">
         <v>78</v>
       </c>
-      <c r="B31" s="14" t="n">
+      <c r="B31" s="15" t="n">
         <v>1480</v>
       </c>
-      <c r="C31" s="14" t="n">
+      <c r="C31" s="15" t="n">
         <v>136.666666666667</v>
       </c>
       <c r="D31" s="11" t="n">
@@ -28556,13 +29652,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="n">
+      <c r="A32" s="15" t="n">
         <v>79</v>
       </c>
-      <c r="B32" s="14" t="n">
+      <c r="B32" s="15" t="n">
         <v>1503.33333333333</v>
       </c>
-      <c r="C32" s="14" t="n">
+      <c r="C32" s="15" t="n">
         <v>137.777777777778</v>
       </c>
       <c r="D32" s="11" t="n">
@@ -28573,13 +29669,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="n">
+      <c r="A33" s="15" t="n">
         <v>80</v>
       </c>
-      <c r="B33" s="14" t="n">
+      <c r="B33" s="15" t="n">
         <v>1526.66666666667</v>
       </c>
-      <c r="C33" s="14" t="n">
+      <c r="C33" s="15" t="n">
         <v>138.888888888889</v>
       </c>
       <c r="D33" s="11" t="n">
@@ -28590,13 +29686,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="n">
+      <c r="A34" s="15" t="n">
         <v>81</v>
       </c>
-      <c r="B34" s="14" t="n">
+      <c r="B34" s="15" t="n">
         <v>1550</v>
       </c>
-      <c r="C34" s="14" t="n">
+      <c r="C34" s="15" t="n">
         <v>140</v>
       </c>
       <c r="D34" s="11" t="n">
@@ -28607,13 +29703,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
+      <c r="A35" s="15" t="n">
         <v>82</v>
       </c>
-      <c r="B35" s="14" t="n">
+      <c r="B35" s="15" t="n">
         <v>1581.25</v>
       </c>
-      <c r="C35" s="14" t="n">
+      <c r="C35" s="15" t="n">
         <v>141.25</v>
       </c>
       <c r="D35" s="11" t="n">
@@ -28624,13 +29720,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="n">
+      <c r="A36" s="15" t="n">
         <v>83</v>
       </c>
-      <c r="B36" s="14" t="n">
+      <c r="B36" s="15" t="n">
         <v>1612.5</v>
       </c>
-      <c r="C36" s="14" t="n">
+      <c r="C36" s="15" t="n">
         <v>142.5</v>
       </c>
       <c r="D36" s="11" t="n">
@@ -28641,13 +29737,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="n">
+      <c r="A37" s="15" t="n">
         <v>84</v>
       </c>
-      <c r="B37" s="14" t="n">
+      <c r="B37" s="15" t="n">
         <v>1643.75</v>
       </c>
-      <c r="C37" s="14" t="n">
+      <c r="C37" s="15" t="n">
         <v>143.75</v>
       </c>
       <c r="D37" s="11" t="n">
@@ -28658,13 +29754,13 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
+      <c r="A38" s="15" t="n">
         <v>85</v>
       </c>
-      <c r="B38" s="14" t="n">
+      <c r="B38" s="15" t="n">
         <v>1675</v>
       </c>
-      <c r="C38" s="14" t="n">
+      <c r="C38" s="15" t="n">
         <v>145</v>
       </c>
       <c r="D38" s="11" t="n">
@@ -28675,13 +29771,13 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="n">
+      <c r="A39" s="15" t="n">
         <v>86</v>
       </c>
-      <c r="B39" s="14" t="n">
+      <c r="B39" s="15" t="n">
         <v>1706.25</v>
       </c>
-      <c r="C39" s="14" t="n">
+      <c r="C39" s="15" t="n">
         <v>146.25</v>
       </c>
       <c r="D39" s="11" t="n">
@@ -28692,13 +29788,13 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="n">
+      <c r="A40" s="15" t="n">
         <v>87</v>
       </c>
-      <c r="B40" s="14" t="n">
+      <c r="B40" s="15" t="n">
         <v>1737.5</v>
       </c>
-      <c r="C40" s="14" t="n">
+      <c r="C40" s="15" t="n">
         <v>147.5</v>
       </c>
       <c r="D40" s="11" t="n">
@@ -28709,13 +29805,13 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="n">
+      <c r="A41" s="15" t="n">
         <v>88</v>
       </c>
-      <c r="B41" s="14" t="n">
+      <c r="B41" s="15" t="n">
         <v>1768.75</v>
       </c>
-      <c r="C41" s="14" t="n">
+      <c r="C41" s="15" t="n">
         <v>148.75</v>
       </c>
       <c r="D41" s="11" t="n">
@@ -28726,13 +29822,13 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="n">
+      <c r="A42" s="15" t="n">
         <v>89</v>
       </c>
-      <c r="B42" s="14" t="n">
+      <c r="B42" s="15" t="n">
         <v>1800</v>
       </c>
-      <c r="C42" s="14" t="n">
+      <c r="C42" s="15" t="n">
         <v>150</v>
       </c>
       <c r="D42" s="11" t="n">
@@ -28743,13 +29839,13 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="n">
+      <c r="A43" s="15" t="n">
         <v>90</v>
       </c>
-      <c r="B43" s="14" t="n">
+      <c r="B43" s="15" t="n">
         <v>1843.33333333333</v>
       </c>
-      <c r="C43" s="14" t="n">
+      <c r="C43" s="15" t="n">
         <v>151.666666666667</v>
       </c>
       <c r="D43" s="11" t="n">
@@ -28760,13 +29856,13 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="n">
+      <c r="A44" s="15" t="n">
         <v>91</v>
       </c>
-      <c r="B44" s="14" t="n">
+      <c r="B44" s="15" t="n">
         <v>1886.66666666667</v>
       </c>
-      <c r="C44" s="14" t="n">
+      <c r="C44" s="15" t="n">
         <v>153.333333333333</v>
       </c>
       <c r="D44" s="11" t="n">
@@ -28777,13 +29873,13 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="n">
+      <c r="A45" s="15" t="n">
         <v>92</v>
       </c>
-      <c r="B45" s="14" t="n">
+      <c r="B45" s="15" t="n">
         <v>1930</v>
       </c>
-      <c r="C45" s="14" t="n">
+      <c r="C45" s="15" t="n">
         <v>155</v>
       </c>
       <c r="D45" s="11" t="n">
@@ -28794,13 +29890,13 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="n">
+      <c r="A46" s="15" t="n">
         <v>93</v>
       </c>
-      <c r="B46" s="14" t="n">
+      <c r="B46" s="15" t="n">
         <v>1973.33333333333</v>
       </c>
-      <c r="C46" s="14" t="n">
+      <c r="C46" s="15" t="n">
         <v>156.666666666667</v>
       </c>
       <c r="D46" s="11" t="n">
@@ -28811,13 +29907,13 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="n">
+      <c r="A47" s="15" t="n">
         <v>94</v>
       </c>
-      <c r="B47" s="14" t="n">
+      <c r="B47" s="15" t="n">
         <v>2016.66666666667</v>
       </c>
-      <c r="C47" s="14" t="n">
+      <c r="C47" s="15" t="n">
         <v>158.333333333333</v>
       </c>
       <c r="D47" s="11" t="n">
@@ -28828,13 +29924,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="n">
+      <c r="A48" s="15" t="n">
         <v>95</v>
       </c>
-      <c r="B48" s="14" t="n">
+      <c r="B48" s="15" t="n">
         <v>2060</v>
       </c>
-      <c r="C48" s="14" t="n">
+      <c r="C48" s="15" t="n">
         <v>160</v>
       </c>
       <c r="D48" s="11" t="n">
@@ -28845,13 +29941,13 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
+      <c r="A49" s="15" t="n">
         <v>96</v>
       </c>
-      <c r="B49" s="14" t="n">
+      <c r="B49" s="15" t="n">
         <v>2104.21296296296</v>
       </c>
-      <c r="C49" s="14" t="n">
+      <c r="C49" s="15" t="n">
         <v>161.666666666667</v>
       </c>
       <c r="D49" s="11" t="n">
@@ -28862,13 +29958,13 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
+      <c r="A50" s="15" t="n">
         <v>97</v>
       </c>
-      <c r="B50" s="14" t="n">
+      <c r="B50" s="15" t="n">
         <v>2148.88888888889</v>
       </c>
-      <c r="C50" s="14" t="n">
+      <c r="C50" s="15" t="n">
         <v>163.333333333333</v>
       </c>
       <c r="D50" s="11" t="n">
@@ -28879,13 +29975,13 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="n">
+      <c r="A51" s="15" t="n">
         <v>98</v>
       </c>
-      <c r="B51" s="14" t="n">
+      <c r="B51" s="15" t="n">
         <v>2194.02777777778</v>
       </c>
-      <c r="C51" s="14" t="n">
+      <c r="C51" s="15" t="n">
         <v>165</v>
       </c>
       <c r="D51" s="11" t="n">
@@ -28896,13 +29992,13 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="n">
+      <c r="A52" s="15" t="n">
         <v>99</v>
       </c>
-      <c r="B52" s="14" t="n">
+      <c r="B52" s="15" t="n">
         <v>2239.62962962963</v>
       </c>
-      <c r="C52" s="14" t="n">
+      <c r="C52" s="15" t="n">
         <v>166.666666666667</v>
       </c>
       <c r="D52" s="11" t="n">
@@ -28913,13 +30009,13 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="n">
+      <c r="A53" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="B53" s="14" t="n">
+      <c r="B53" s="15" t="n">
         <v>2285.69444444444</v>
       </c>
-      <c r="C53" s="14" t="n">
+      <c r="C53" s="15" t="n">
         <v>168.333333333333</v>
       </c>
       <c r="D53" s="11" t="n">
@@ -28930,13 +30026,13 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="n">
+      <c r="A54" s="15" t="n">
         <v>101</v>
       </c>
-      <c r="B54" s="14" t="n">
+      <c r="B54" s="15" t="n">
         <v>2332.22222222222</v>
       </c>
-      <c r="C54" s="14" t="n">
+      <c r="C54" s="15" t="n">
         <v>170</v>
       </c>
       <c r="D54" s="11" t="n">
@@ -28947,13 +30043,13 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="n">
+      <c r="A55" s="15" t="n">
         <v>102</v>
       </c>
-      <c r="B55" s="14" t="n">
+      <c r="B55" s="15" t="n">
         <v>2379.21296296296</v>
       </c>
-      <c r="C55" s="14" t="n">
+      <c r="C55" s="15" t="n">
         <v>171.666666666667</v>
       </c>
       <c r="D55" s="11" t="n">
@@ -28964,13 +30060,13 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="n">
+      <c r="A56" s="15" t="n">
         <v>103</v>
       </c>
-      <c r="B56" s="14" t="n">
+      <c r="B56" s="15" t="n">
         <v>2426.66666666666</v>
       </c>
-      <c r="C56" s="14" t="n">
+      <c r="C56" s="15" t="n">
         <v>173.333333333333</v>
       </c>
       <c r="D56" s="11" t="n">
@@ -28981,13 +30077,13 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="n">
+      <c r="A57" s="15" t="n">
         <v>104</v>
       </c>
-      <c r="B57" s="14" t="n">
+      <c r="B57" s="15" t="n">
         <v>2474.58333333333</v>
       </c>
-      <c r="C57" s="14" t="n">
+      <c r="C57" s="15" t="n">
         <v>175</v>
       </c>
       <c r="D57" s="11" t="n">
@@ -28998,13 +30094,13 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="n">
+      <c r="A58" s="15" t="n">
         <v>105</v>
       </c>
-      <c r="B58" s="14" t="n">
+      <c r="B58" s="15" t="n">
         <v>2522.96296296296</v>
       </c>
-      <c r="C58" s="14" t="n">
+      <c r="C58" s="15" t="n">
         <v>176.666666666667</v>
       </c>
       <c r="D58" s="11" t="n">
@@ -29015,13 +30111,13 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="n">
+      <c r="A59" s="15" t="n">
         <v>106</v>
       </c>
-      <c r="B59" s="14" t="n">
+      <c r="B59" s="15" t="n">
         <v>2571.80555555555</v>
       </c>
-      <c r="C59" s="14" t="n">
+      <c r="C59" s="15" t="n">
         <v>178.333333333333</v>
       </c>
       <c r="D59" s="11" t="n">
@@ -29032,13 +30128,13 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="n">
+      <c r="A60" s="15" t="n">
         <v>107</v>
       </c>
-      <c r="B60" s="14" t="n">
+      <c r="B60" s="15" t="n">
         <v>2621.11111111111</v>
       </c>
-      <c r="C60" s="14" t="n">
+      <c r="C60" s="15" t="n">
         <v>180</v>
       </c>
       <c r="D60" s="11" t="n">
@@ -29049,13 +30145,13 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="n">
+      <c r="A61" s="15" t="n">
         <v>108</v>
       </c>
-      <c r="B61" s="14" t="n">
+      <c r="B61" s="15" t="n">
         <v>2670.87962962963</v>
       </c>
-      <c r="C61" s="14" t="n">
+      <c r="C61" s="15" t="n">
         <v>181.666666666667</v>
       </c>
       <c r="D61" s="11" t="n">
@@ -29066,13 +30162,13 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="n">
+      <c r="A62" s="15" t="n">
         <v>109</v>
       </c>
-      <c r="B62" s="14" t="n">
+      <c r="B62" s="15" t="n">
         <v>2721.11111111111</v>
       </c>
-      <c r="C62" s="14" t="n">
+      <c r="C62" s="15" t="n">
         <v>183.333333333333</v>
       </c>
       <c r="D62" s="11" t="n">
@@ -29083,13 +30179,13 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="n">
+      <c r="A63" s="15" t="n">
         <v>110</v>
       </c>
-      <c r="B63" s="14" t="n">
+      <c r="B63" s="15" t="n">
         <v>2771.80555555555</v>
       </c>
-      <c r="C63" s="14" t="n">
+      <c r="C63" s="15" t="n">
         <v>185</v>
       </c>
       <c r="D63" s="11" t="n">
@@ -29100,13 +30196,13 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="n">
+      <c r="A64" s="15" t="n">
         <v>111</v>
       </c>
-      <c r="B64" s="14" t="n">
+      <c r="B64" s="15" t="n">
         <v>2822.96296296296</v>
       </c>
-      <c r="C64" s="14" t="n">
+      <c r="C64" s="15" t="n">
         <v>186.666666666667</v>
       </c>
       <c r="D64" s="11" t="n">
@@ -29117,13 +30213,13 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="n">
+      <c r="A65" s="15" t="n">
         <v>112</v>
       </c>
-      <c r="B65" s="14" t="n">
+      <c r="B65" s="15" t="n">
         <v>2874.58333333333</v>
       </c>
-      <c r="C65" s="14" t="n">
+      <c r="C65" s="15" t="n">
         <v>188.333333333333</v>
       </c>
       <c r="D65" s="11" t="n">
@@ -29134,13 +30230,13 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="n">
+      <c r="A66" s="15" t="n">
         <v>113</v>
       </c>
-      <c r="B66" s="14" t="n">
+      <c r="B66" s="15" t="n">
         <v>2926.66666666666</v>
       </c>
-      <c r="C66" s="14" t="n">
+      <c r="C66" s="15" t="n">
         <v>190</v>
       </c>
       <c r="D66" s="11" t="n">
@@ -29151,13 +30247,13 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="n">
+      <c r="A67" s="15" t="n">
         <v>114</v>
       </c>
-      <c r="B67" s="14" t="n">
+      <c r="B67" s="15" t="n">
         <v>2979.21296296296</v>
       </c>
-      <c r="C67" s="14" t="n">
+      <c r="C67" s="15" t="n">
         <v>191.666666666666</v>
       </c>
       <c r="D67" s="11" t="n">
@@ -29168,13 +30264,13 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="n">
+      <c r="A68" s="15" t="n">
         <v>115</v>
       </c>
-      <c r="B68" s="14" t="n">
+      <c r="B68" s="15" t="n">
         <v>3032.22222222222</v>
       </c>
-      <c r="C68" s="14" t="n">
+      <c r="C68" s="15" t="n">
         <v>193.333333333333</v>
       </c>
       <c r="D68" s="11" t="n">
@@ -29185,13 +30281,13 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="n">
+      <c r="A69" s="15" t="n">
         <v>116</v>
       </c>
-      <c r="B69" s="14" t="n">
+      <c r="B69" s="15" t="n">
         <v>3085.69444444444</v>
       </c>
-      <c r="C69" s="14" t="n">
+      <c r="C69" s="15" t="n">
         <v>195</v>
       </c>
       <c r="D69" s="11" t="n">
@@ -29202,13 +30298,13 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="n">
+      <c r="A70" s="15" t="n">
         <v>117</v>
       </c>
-      <c r="B70" s="14" t="n">
+      <c r="B70" s="15" t="n">
         <v>3139.62962962962</v>
       </c>
-      <c r="C70" s="14" t="n">
+      <c r="C70" s="15" t="n">
         <v>196.666666666666</v>
       </c>
       <c r="D70" s="11" t="n">
@@ -29219,13 +30315,13 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="n">
+      <c r="A71" s="15" t="n">
         <v>118</v>
       </c>
-      <c r="B71" s="14" t="n">
+      <c r="B71" s="15" t="n">
         <v>3194.02777777777</v>
       </c>
-      <c r="C71" s="14" t="n">
+      <c r="C71" s="15" t="n">
         <v>198.333333333333</v>
       </c>
       <c r="D71" s="11" t="n">
@@ -29236,13 +30332,13 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="n">
+      <c r="A72" s="15" t="n">
         <v>119</v>
       </c>
-      <c r="B72" s="14" t="n">
+      <c r="B72" s="15" t="n">
         <v>3248.88888888888</v>
       </c>
-      <c r="C72" s="14" t="n">
+      <c r="C72" s="15" t="n">
         <v>200</v>
       </c>
       <c r="D72" s="11" t="n">
@@ -29253,13 +30349,13 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="n">
+      <c r="A73" s="15" t="n">
         <v>120</v>
       </c>
-      <c r="B73" s="14" t="n">
+      <c r="B73" s="15" t="n">
         <v>3304.21296296296</v>
       </c>
-      <c r="C73" s="14" t="n">
+      <c r="C73" s="15" t="n">
         <v>201.666666666666</v>
       </c>
       <c r="D73" s="11" t="n">
@@ -29270,13 +30366,13 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="n">
+      <c r="A74" s="15" t="n">
         <v>121</v>
       </c>
-      <c r="B74" s="14" t="n">
+      <c r="B74" s="15" t="n">
         <v>3359.99999999999</v>
       </c>
-      <c r="C74" s="14" t="n">
+      <c r="C74" s="15" t="n">
         <v>203.333333333333</v>
       </c>
       <c r="D74" s="11" t="n">
@@ -29287,13 +30383,13 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="n">
+      <c r="A75" s="15" t="n">
         <v>122</v>
       </c>
-      <c r="B75" s="14" t="n">
+      <c r="B75" s="15" t="n">
         <v>3416.24999999999</v>
       </c>
-      <c r="C75" s="14" t="n">
+      <c r="C75" s="15" t="n">
         <v>205</v>
       </c>
       <c r="D75" s="11" t="n">
@@ -29304,13 +30400,13 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="n">
+      <c r="A76" s="15" t="n">
         <v>123</v>
       </c>
-      <c r="B76" s="14" t="n">
+      <c r="B76" s="15" t="n">
         <v>3472.96296296295</v>
       </c>
-      <c r="C76" s="14" t="n">
+      <c r="C76" s="15" t="n">
         <v>206.666666666666</v>
       </c>
       <c r="D76" s="11" t="n">
@@ -29321,13 +30417,13 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="n">
+      <c r="A77" s="15" t="n">
         <v>124</v>
       </c>
-      <c r="B77" s="14" t="n">
+      <c r="B77" s="15" t="n">
         <v>3530.13888888888</v>
       </c>
-      <c r="C77" s="14" t="n">
+      <c r="C77" s="15" t="n">
         <v>208.333333333333</v>
       </c>
       <c r="D77" s="11" t="n">
@@ -29338,13 +30434,13 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="n">
+      <c r="A78" s="15" t="n">
         <v>125</v>
       </c>
-      <c r="B78" s="14" t="n">
+      <c r="B78" s="15" t="n">
         <v>3587.77777777777</v>
       </c>
-      <c r="C78" s="14" t="n">
+      <c r="C78" s="15" t="n">
         <v>210</v>
       </c>
       <c r="D78" s="11" t="n">
@@ -29355,13 +30451,13 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="n">
+      <c r="A79" s="15" t="n">
         <v>126</v>
       </c>
-      <c r="B79" s="14" t="n">
+      <c r="B79" s="15" t="n">
         <v>3645.87962962962</v>
       </c>
-      <c r="C79" s="14" t="n">
+      <c r="C79" s="15" t="n">
         <v>211.666666666666</v>
       </c>
       <c r="D79" s="11" t="n">
@@ -29372,13 +30468,13 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="n">
+      <c r="A80" s="15" t="n">
         <v>127</v>
       </c>
-      <c r="B80" s="14" t="n">
+      <c r="B80" s="15" t="n">
         <v>3704.44444444443</v>
       </c>
-      <c r="C80" s="14" t="n">
+      <c r="C80" s="15" t="n">
         <v>213.333333333333</v>
       </c>
       <c r="D80" s="11" t="n">
@@ -29389,13 +30485,13 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14" t="n">
+      <c r="A81" s="15" t="n">
         <v>128</v>
       </c>
-      <c r="B81" s="14" t="n">
+      <c r="B81" s="15" t="n">
         <v>3763.47222222221</v>
       </c>
-      <c r="C81" s="14" t="n">
+      <c r="C81" s="15" t="n">
         <v>215</v>
       </c>
       <c r="D81" s="11" t="n">
@@ -29406,13 +30502,13 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="n">
+      <c r="A82" s="15" t="n">
         <v>129</v>
       </c>
-      <c r="B82" s="14" t="n">
+      <c r="B82" s="15" t="n">
         <v>3822.96296296295</v>
       </c>
-      <c r="C82" s="14" t="n">
+      <c r="C82" s="15" t="n">
         <v>216.666666666666</v>
       </c>
       <c r="D82" s="11" t="n">
@@ -29423,13 +30519,13 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14" t="n">
+      <c r="A83" s="15" t="n">
         <v>130</v>
       </c>
-      <c r="B83" s="14" t="n">
+      <c r="B83" s="15" t="n">
         <v>3882.91666666666</v>
       </c>
-      <c r="C83" s="14" t="n">
+      <c r="C83" s="15" t="n">
         <v>218.333333333333</v>
       </c>
       <c r="D83" s="11" t="n">
@@ -29440,13 +30536,13 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14" t="n">
+      <c r="A84" s="15" t="n">
         <v>131</v>
       </c>
-      <c r="B84" s="14" t="n">
+      <c r="B84" s="15" t="n">
         <v>3943.33333333332</v>
       </c>
-      <c r="C84" s="14" t="n">
+      <c r="C84" s="15" t="n">
         <v>220</v>
       </c>
       <c r="D84" s="11" t="n">
@@ -29457,13 +30553,13 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="n">
+      <c r="A85" s="15" t="n">
         <v>132</v>
       </c>
-      <c r="B85" s="14" t="n">
+      <c r="B85" s="15" t="n">
         <v>4004.21296296295</v>
       </c>
-      <c r="C85" s="14" t="n">
+      <c r="C85" s="15" t="n">
         <v>221.666666666666</v>
       </c>
       <c r="D85" s="11" t="n">
@@ -29474,13 +30570,13 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="14" t="n">
+      <c r="A86" s="15" t="n">
         <v>133</v>
       </c>
-      <c r="B86" s="14" t="n">
+      <c r="B86" s="15" t="n">
         <v>4065.55555555554</v>
       </c>
-      <c r="C86" s="14" t="n">
+      <c r="C86" s="15" t="n">
         <v>223.333333333333</v>
       </c>
       <c r="D86" s="11" t="n">
@@ -29491,13 +30587,13 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="n">
+      <c r="A87" s="15" t="n">
         <v>134</v>
       </c>
-      <c r="B87" s="14" t="n">
+      <c r="B87" s="15" t="n">
         <v>4127.3611111111</v>
       </c>
-      <c r="C87" s="14" t="n">
+      <c r="C87" s="15" t="n">
         <v>225</v>
       </c>
       <c r="D87" s="11" t="n">
@@ -29508,13 +30604,13 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="n">
+      <c r="A88" s="15" t="n">
         <v>135</v>
       </c>
-      <c r="B88" s="14" t="n">
+      <c r="B88" s="15" t="n">
         <v>4189.62962962962</v>
       </c>
-      <c r="C88" s="14" t="n">
+      <c r="C88" s="15" t="n">
         <v>226.666666666666</v>
       </c>
       <c r="D88" s="11" t="n">
@@ -29525,13 +30621,13 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14" t="n">
+      <c r="A89" s="15" t="n">
         <v>136</v>
       </c>
-      <c r="B89" s="14" t="n">
+      <c r="B89" s="15" t="n">
         <v>4252.3611111111</v>
       </c>
-      <c r="C89" s="14" t="n">
+      <c r="C89" s="15" t="n">
         <v>228.333333333333</v>
       </c>
       <c r="D89" s="11" t="n">
@@ -29542,13 +30638,13 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="n">
+      <c r="A90" s="15" t="n">
         <v>137</v>
       </c>
-      <c r="B90" s="14" t="n">
+      <c r="B90" s="15" t="n">
         <v>4315.55555555554</v>
       </c>
-      <c r="C90" s="14" t="n">
+      <c r="C90" s="15" t="n">
         <v>230</v>
       </c>
       <c r="D90" s="11" t="n">
@@ -29559,13 +30655,13 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14" t="n">
+      <c r="A91" s="15" t="n">
         <v>138</v>
       </c>
-      <c r="B91" s="14" t="n">
+      <c r="B91" s="15" t="n">
         <v>4379.21296296295</v>
       </c>
-      <c r="C91" s="14" t="n">
+      <c r="C91" s="15" t="n">
         <v>231.666666666666</v>
       </c>
       <c r="D91" s="11" t="n">
@@ -29576,13 +30672,13 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="n">
+      <c r="A92" s="15" t="n">
         <v>139</v>
       </c>
-      <c r="B92" s="14" t="n">
+      <c r="B92" s="15" t="n">
         <v>4443.33333333332</v>
       </c>
-      <c r="C92" s="14" t="n">
+      <c r="C92" s="15" t="n">
         <v>233.333333333333</v>
       </c>
       <c r="D92" s="11" t="n">
@@ -29593,13 +30689,13 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="14" t="n">
+      <c r="A93" s="15" t="n">
         <v>140</v>
       </c>
-      <c r="B93" s="14" t="n">
+      <c r="B93" s="15" t="n">
         <v>4507.91666666665</v>
       </c>
-      <c r="C93" s="14" t="n">
+      <c r="C93" s="15" t="n">
         <v>235</v>
       </c>
       <c r="D93" s="11" t="n">
@@ -29610,13 +30706,13 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="n">
+      <c r="A94" s="15" t="n">
         <v>141</v>
       </c>
-      <c r="B94" s="14" t="n">
+      <c r="B94" s="15" t="n">
         <v>4572.96296296295</v>
       </c>
-      <c r="C94" s="14" t="n">
+      <c r="C94" s="15" t="n">
         <v>236.666666666666</v>
       </c>
       <c r="D94" s="11" t="n">
@@ -29627,13 +30723,13 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="n">
+      <c r="A95" s="15" t="n">
         <v>142</v>
       </c>
-      <c r="B95" s="14" t="n">
+      <c r="B95" s="15" t="n">
         <v>4638.47222222221</v>
       </c>
-      <c r="C95" s="14" t="n">
+      <c r="C95" s="15" t="n">
         <v>238.333333333333</v>
       </c>
       <c r="D95" s="11" t="n">
@@ -29644,13 +30740,13 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14" t="n">
+      <c r="A96" s="15" t="n">
         <v>143</v>
       </c>
-      <c r="B96" s="14" t="n">
+      <c r="B96" s="15" t="n">
         <v>4704.44444444443</v>
       </c>
-      <c r="C96" s="14" t="n">
+      <c r="C96" s="15" t="n">
         <v>240</v>
       </c>
       <c r="D96" s="11" t="n">
@@ -29661,13 +30757,13 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="n">
+      <c r="A97" s="15" t="n">
         <v>144</v>
       </c>
-      <c r="B97" s="14" t="n">
+      <c r="B97" s="15" t="n">
         <v>4770.87962962962</v>
       </c>
-      <c r="C97" s="14" t="n">
+      <c r="C97" s="15" t="n">
         <v>241.666666666666</v>
       </c>
       <c r="D97" s="11" t="n">
@@ -29678,13 +30774,13 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="n">
+      <c r="A98" s="15" t="n">
         <v>145</v>
       </c>
-      <c r="B98" s="14" t="n">
+      <c r="B98" s="15" t="n">
         <v>4837.77777777776</v>
       </c>
-      <c r="C98" s="14" t="n">
+      <c r="C98" s="15" t="n">
         <v>243.333333333333</v>
       </c>
       <c r="D98" s="11" t="n">
@@ -29695,13 +30791,13 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14" t="n">
+      <c r="A99" s="15" t="n">
         <v>146</v>
       </c>
-      <c r="B99" s="14" t="n">
+      <c r="B99" s="15" t="n">
         <v>4905.13888888887</v>
       </c>
-      <c r="C99" s="14" t="n">
+      <c r="C99" s="15" t="n">
         <v>245</v>
       </c>
       <c r="D99" s="11" t="n">
@@ -29712,13 +30808,13 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="14" t="n">
+      <c r="A100" s="15" t="n">
         <v>147</v>
       </c>
-      <c r="B100" s="14" t="n">
+      <c r="B100" s="15" t="n">
         <v>4972.96296296295</v>
       </c>
-      <c r="C100" s="14" t="n">
+      <c r="C100" s="15" t="n">
         <v>246.666666666666</v>
       </c>
       <c r="D100" s="11" t="n">
@@ -29729,13 +30825,13 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="14" t="n">
+      <c r="A101" s="15" t="n">
         <v>148</v>
       </c>
-      <c r="B101" s="14" t="n">
+      <c r="B101" s="15" t="n">
         <v>5041.24999999998</v>
       </c>
-      <c r="C101" s="14" t="n">
+      <c r="C101" s="15" t="n">
         <v>248.333333333333</v>
       </c>
       <c r="D101" s="11" t="n">
@@ -29746,13 +30842,13 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="n">
+      <c r="A102" s="15" t="n">
         <v>149</v>
       </c>
-      <c r="B102" s="14" t="n">
+      <c r="B102" s="15" t="n">
         <v>5109.99999999998</v>
       </c>
-      <c r="C102" s="14" t="n">
+      <c r="C102" s="15" t="n">
         <v>249.999999999999</v>
       </c>
       <c r="D102" s="11" t="n">
@@ -29763,13 +30859,13 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14" t="n">
+      <c r="A103" s="15" t="n">
         <v>150</v>
       </c>
-      <c r="B103" s="14" t="n">
+      <c r="B103" s="15" t="n">
         <v>5179.21296296295</v>
       </c>
-      <c r="C103" s="14" t="n">
+      <c r="C103" s="15" t="n">
         <v>251.666666666666</v>
       </c>
       <c r="D103" s="11" t="n">
@@ -29780,13 +30876,13 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="14" t="n">
+      <c r="A104" s="15" t="n">
         <v>151</v>
       </c>
-      <c r="B104" s="14" t="n">
+      <c r="B104" s="15" t="n">
         <v>5248.88888888887</v>
       </c>
-      <c r="C104" s="14" t="n">
+      <c r="C104" s="15" t="n">
         <v>253.333333333333</v>
       </c>
       <c r="D104" s="11" t="n">
@@ -29797,13 +30893,13 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="14" t="n">
+      <c r="A105" s="15" t="n">
         <v>152</v>
       </c>
-      <c r="B105" s="14" t="n">
+      <c r="B105" s="15" t="n">
         <v>5319.02777777776</v>
       </c>
-      <c r="C105" s="14" t="n">
+      <c r="C105" s="15" t="n">
         <v>254.999999999999</v>
       </c>
       <c r="D105" s="11" t="n">
@@ -29814,13 +30910,13 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="14" t="n">
+      <c r="A106" s="15" t="n">
         <v>153</v>
       </c>
-      <c r="B106" s="14" t="n">
+      <c r="B106" s="15" t="n">
         <v>5389.62962962961</v>
       </c>
-      <c r="C106" s="14" t="n">
+      <c r="C106" s="15" t="n">
         <v>256.666666666666</v>
       </c>
       <c r="D106" s="11" t="n">
@@ -29831,13 +30927,13 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="14" t="n">
+      <c r="A107" s="15" t="n">
         <v>154</v>
       </c>
-      <c r="B107" s="14" t="n">
+      <c r="B107" s="15" t="n">
         <v>5460.69444444443</v>
       </c>
-      <c r="C107" s="14" t="n">
+      <c r="C107" s="15" t="n">
         <v>258.333333333333</v>
       </c>
       <c r="D107" s="11" t="n">
@@ -29848,13 +30944,13 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="14" t="n">
+      <c r="A108" s="15" t="n">
         <v>155</v>
       </c>
-      <c r="B108" s="14" t="n">
+      <c r="B108" s="15" t="n">
         <v>5532.22222222221</v>
       </c>
-      <c r="C108" s="14" t="n">
+      <c r="C108" s="15" t="n">
         <v>259.999999999999</v>
       </c>
       <c r="D108" s="11" t="n">
@@ -29865,13 +30961,13 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="14" t="n">
+      <c r="A109" s="15" t="n">
         <v>156</v>
       </c>
-      <c r="B109" s="14" t="n">
+      <c r="B109" s="15" t="n">
         <v>5604.21296296295</v>
       </c>
-      <c r="C109" s="14" t="n">
+      <c r="C109" s="15" t="n">
         <v>261.666666666666</v>
       </c>
       <c r="D109" s="11" t="n">
@@ -29882,13 +30978,13 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="14" t="n">
+      <c r="A110" s="15" t="n">
         <v>157</v>
       </c>
-      <c r="B110" s="14" t="n">
+      <c r="B110" s="15" t="n">
         <v>5676.66666666665</v>
       </c>
-      <c r="C110" s="14" t="n">
+      <c r="C110" s="15" t="n">
         <v>263.333333333333</v>
       </c>
       <c r="D110" s="11" t="n">
@@ -29899,13 +30995,13 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="14" t="n">
+      <c r="A111" s="15" t="n">
         <v>158</v>
       </c>
-      <c r="B111" s="14" t="n">
+      <c r="B111" s="15" t="n">
         <v>5749.58333333332</v>
       </c>
-      <c r="C111" s="14" t="n">
+      <c r="C111" s="15" t="n">
         <v>265</v>
       </c>
       <c r="D111" s="11" t="n">
@@ -29916,13 +31012,13 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="14" t="n">
+      <c r="A112" s="15" t="n">
         <v>159</v>
       </c>
-      <c r="B112" s="14" t="n">
+      <c r="B112" s="15" t="n">
         <v>5822.96296296295</v>
       </c>
-      <c r="C112" s="14" t="n">
+      <c r="C112" s="15" t="n">
         <v>266.666666666666</v>
       </c>
       <c r="D112" s="11" t="n">
@@ -29933,13 +31029,13 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="14" t="n">
+      <c r="A113" s="15" t="n">
         <v>160</v>
       </c>
-      <c r="B113" s="14" t="n">
+      <c r="B113" s="15" t="n">
         <v>5896.80555555554</v>
       </c>
-      <c r="C113" s="14" t="n">
+      <c r="C113" s="15" t="n">
         <v>268.333333333333</v>
       </c>
       <c r="D113" s="11" t="n">
@@ -29950,13 +31046,13 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="14" t="n">
+      <c r="A114" s="15" t="n">
         <v>161</v>
       </c>
-      <c r="B114" s="14" t="n">
+      <c r="B114" s="15" t="n">
         <v>5971.1111111111</v>
       </c>
-      <c r="C114" s="14" t="n">
+      <c r="C114" s="15" t="n">
         <v>270</v>
       </c>
       <c r="D114" s="11" t="n">
@@ -29967,13 +31063,13 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="14" t="n">
+      <c r="A115" s="15" t="n">
         <v>162</v>
       </c>
-      <c r="B115" s="14" t="n">
+      <c r="B115" s="15" t="n">
         <v>6045.87962962962</v>
       </c>
-      <c r="C115" s="14" t="n">
+      <c r="C115" s="15" t="n">
         <v>271.666666666666</v>
       </c>
       <c r="D115" s="11" t="n">
@@ -29984,13 +31080,13 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="14" t="n">
+      <c r="A116" s="15" t="n">
         <v>163</v>
       </c>
-      <c r="B116" s="14" t="n">
+      <c r="B116" s="15" t="n">
         <v>6121.1111111111</v>
       </c>
-      <c r="C116" s="14" t="n">
+      <c r="C116" s="15" t="n">
         <v>273.333333333333</v>
       </c>
       <c r="D116" s="11" t="n">
@@ -30001,13 +31097,13 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="14" t="n">
+      <c r="A117" s="15" t="n">
         <v>164</v>
       </c>
-      <c r="B117" s="14" t="n">
+      <c r="B117" s="15" t="n">
         <v>6196.80555555555</v>
       </c>
-      <c r="C117" s="14" t="n">
+      <c r="C117" s="15" t="n">
         <v>275</v>
       </c>
       <c r="D117" s="11" t="n">
@@ -30018,13 +31114,13 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="14" t="n">
+      <c r="A118" s="15" t="n">
         <v>165</v>
       </c>
-      <c r="B118" s="14" t="n">
+      <c r="B118" s="15" t="n">
         <v>6272.96296296295</v>
       </c>
-      <c r="C118" s="14" t="n">
+      <c r="C118" s="15" t="n">
         <v>276.666666666666</v>
       </c>
       <c r="D118" s="11" t="n">
@@ -30035,13 +31131,13 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="14" t="n">
+      <c r="A119" s="15" t="n">
         <v>166</v>
       </c>
-      <c r="B119" s="14" t="n">
+      <c r="B119" s="15" t="n">
         <v>6349.58333333333</v>
       </c>
-      <c r="C119" s="14" t="n">
+      <c r="C119" s="15" t="n">
         <v>278.333333333333</v>
       </c>
       <c r="D119" s="11" t="n">
@@ -30052,13 +31148,13 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="14" t="n">
+      <c r="A120" s="15" t="n">
         <v>167</v>
       </c>
-      <c r="B120" s="14" t="n">
+      <c r="B120" s="15" t="n">
         <v>6426.66666666666</v>
       </c>
-      <c r="C120" s="14" t="n">
+      <c r="C120" s="15" t="n">
         <v>280</v>
       </c>
       <c r="D120" s="11" t="n">
@@ -30069,13 +31165,13 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="14" t="n">
+      <c r="A121" s="15" t="n">
         <v>168</v>
       </c>
-      <c r="B121" s="14" t="n">
+      <c r="B121" s="15" t="n">
         <v>6504.21296296296</v>
       </c>
-      <c r="C121" s="14" t="n">
+      <c r="C121" s="15" t="n">
         <v>281.666666666666</v>
       </c>
       <c r="D121" s="11" t="n">
@@ -30086,13 +31182,13 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="14" t="n">
+      <c r="A122" s="15" t="n">
         <v>169</v>
       </c>
-      <c r="B122" s="14" t="n">
+      <c r="B122" s="15" t="n">
         <v>6582.22222222222</v>
       </c>
-      <c r="C122" s="14" t="n">
+      <c r="C122" s="15" t="n">
         <v>283.333333333333</v>
       </c>
       <c r="D122" s="11" t="n">
@@ -30103,13 +31199,13 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="14" t="n">
+      <c r="A123" s="15" t="n">
         <v>170</v>
       </c>
-      <c r="B123" s="14" t="n">
+      <c r="B123" s="15" t="n">
         <v>6660.69444444444</v>
       </c>
-      <c r="C123" s="14" t="n">
+      <c r="C123" s="15" t="n">
         <v>285</v>
       </c>
       <c r="D123" s="11" t="n">
@@ -30120,13 +31216,13 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="14" t="n">
+      <c r="A124" s="15" t="n">
         <v>171</v>
       </c>
-      <c r="B124" s="14" t="n">
+      <c r="B124" s="15" t="n">
         <v>6739.62962962963</v>
       </c>
-      <c r="C124" s="14" t="n">
+      <c r="C124" s="15" t="n">
         <v>286.666666666666</v>
       </c>
       <c r="D124" s="11" t="n">
@@ -30137,13 +31233,13 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="14" t="n">
+      <c r="A125" s="15" t="n">
         <v>172</v>
       </c>
-      <c r="B125" s="14" t="n">
+      <c r="B125" s="15" t="n">
         <v>6819.02777777778</v>
       </c>
-      <c r="C125" s="14" t="n">
+      <c r="C125" s="15" t="n">
         <v>288.333333333333</v>
       </c>
       <c r="D125" s="11" t="n">
@@ -30154,13 +31250,13 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="14" t="n">
+      <c r="A126" s="15" t="n">
         <v>173</v>
       </c>
-      <c r="B126" s="14" t="n">
+      <c r="B126" s="15" t="n">
         <v>6898.88888888889</v>
       </c>
-      <c r="C126" s="14" t="n">
+      <c r="C126" s="15" t="n">
         <v>290</v>
       </c>
       <c r="D126" s="11" t="n">
@@ -30171,13 +31267,13 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="14" t="n">
+      <c r="A127" s="15" t="n">
         <v>174</v>
       </c>
-      <c r="B127" s="14" t="n">
+      <c r="B127" s="15" t="n">
         <v>6979.21296296296</v>
       </c>
-      <c r="C127" s="14" t="n">
+      <c r="C127" s="15" t="n">
         <v>291.666666666666</v>
       </c>
       <c r="D127" s="11" t="n">
@@ -30188,13 +31284,13 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="14" t="n">
+      <c r="A128" s="15" t="n">
         <v>175</v>
       </c>
-      <c r="B128" s="14" t="n">
+      <c r="B128" s="15" t="n">
         <v>7060</v>
       </c>
-      <c r="C128" s="14" t="n">
+      <c r="C128" s="15" t="n">
         <v>293.333333333333</v>
       </c>
       <c r="D128" s="11" t="n">
@@ -30205,13 +31301,13 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="14" t="n">
+      <c r="A129" s="15" t="n">
         <v>176</v>
       </c>
-      <c r="B129" s="14" t="n">
+      <c r="B129" s="15" t="n">
         <v>7141.25</v>
       </c>
-      <c r="C129" s="14" t="n">
+      <c r="C129" s="15" t="n">
         <v>295</v>
       </c>
       <c r="D129" s="11" t="n">
@@ -30222,13 +31318,13 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="14" t="n">
+      <c r="A130" s="15" t="n">
         <v>177</v>
       </c>
-      <c r="B130" s="14" t="n">
+      <c r="B130" s="15" t="n">
         <v>7222.96296296297</v>
       </c>
-      <c r="C130" s="14" t="n">
+      <c r="C130" s="15" t="n">
         <v>296.666666666667</v>
       </c>
       <c r="D130" s="11" t="n">
@@ -30239,13 +31335,13 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="14" t="n">
+      <c r="A131" s="15" t="n">
         <v>178</v>
       </c>
-      <c r="B131" s="14" t="n">
+      <c r="B131" s="15" t="n">
         <v>7305.13888888889</v>
       </c>
-      <c r="C131" s="14" t="n">
+      <c r="C131" s="15" t="n">
         <v>298.333333333333</v>
       </c>
       <c r="D131" s="11" t="n">
@@ -30256,13 +31352,13 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="14" t="n">
+      <c r="A132" s="15" t="n">
         <v>179</v>
       </c>
-      <c r="B132" s="14" t="n">
+      <c r="B132" s="15" t="n">
         <v>7387.77777777778</v>
       </c>
-      <c r="C132" s="14" t="n">
+      <c r="C132" s="15" t="n">
         <v>300</v>
       </c>
       <c r="D132" s="11" t="n">
@@ -30273,13 +31369,13 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="14" t="n">
+      <c r="A133" s="15" t="n">
         <v>180</v>
       </c>
-      <c r="B133" s="14" t="n">
+      <c r="B133" s="15" t="n">
         <v>7470.87962962964</v>
       </c>
-      <c r="C133" s="14" t="n">
+      <c r="C133" s="15" t="n">
         <v>301.666666666667</v>
       </c>
       <c r="D133" s="11" t="n">
@@ -30290,13 +31386,13 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="14" t="n">
+      <c r="A134" s="15" t="n">
         <v>181</v>
       </c>
-      <c r="B134" s="14" t="n">
+      <c r="B134" s="15" t="n">
         <v>7554.44444444445</v>
       </c>
-      <c r="C134" s="14" t="n">
+      <c r="C134" s="15" t="n">
         <v>303.333333333333</v>
       </c>
       <c r="D134" s="11" t="n">
@@ -30307,13 +31403,13 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="14" t="n">
+      <c r="A135" s="15" t="n">
         <v>182</v>
       </c>
-      <c r="B135" s="14" t="n">
+      <c r="B135" s="15" t="n">
         <v>7638.47222222223</v>
       </c>
-      <c r="C135" s="14" t="n">
+      <c r="C135" s="15" t="n">
         <v>305</v>
       </c>
       <c r="D135" s="11" t="n">
@@ -30324,13 +31420,13 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="14" t="n">
+      <c r="A136" s="15" t="n">
         <v>183</v>
       </c>
-      <c r="B136" s="14" t="n">
+      <c r="B136" s="15" t="n">
         <v>7722.96296296297</v>
       </c>
-      <c r="C136" s="14" t="n">
+      <c r="C136" s="15" t="n">
         <v>306.666666666667</v>
       </c>
       <c r="D136" s="11" t="n">
@@ -30341,13 +31437,13 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="14" t="n">
+      <c r="A137" s="15" t="n">
         <v>184</v>
       </c>
-      <c r="B137" s="14" t="n">
+      <c r="B137" s="15" t="n">
         <v>7807.91666666668</v>
       </c>
-      <c r="C137" s="14" t="n">
+      <c r="C137" s="15" t="n">
         <v>308.333333333333</v>
       </c>
       <c r="D137" s="11" t="n">
@@ -30358,13 +31454,13 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="14" t="n">
+      <c r="A138" s="15" t="n">
         <v>185</v>
       </c>
-      <c r="B138" s="14" t="n">
+      <c r="B138" s="15" t="n">
         <v>7893.33333333334</v>
       </c>
-      <c r="C138" s="14" t="n">
+      <c r="C138" s="15" t="n">
         <v>310</v>
       </c>
       <c r="D138" s="11" t="n">
@@ -30375,13 +31471,13 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="14" t="n">
+      <c r="A139" s="15" t="n">
         <v>186</v>
       </c>
-      <c r="B139" s="14" t="n">
+      <c r="B139" s="15" t="n">
         <v>7979.21296296297</v>
       </c>
-      <c r="C139" s="14" t="n">
+      <c r="C139" s="15" t="n">
         <v>311.666666666667</v>
       </c>
       <c r="D139" s="11" t="n">
@@ -30392,13 +31488,13 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="14" t="n">
+      <c r="A140" s="15" t="n">
         <v>187</v>
       </c>
-      <c r="B140" s="14" t="n">
+      <c r="B140" s="15" t="n">
         <v>8065.55555555557</v>
       </c>
-      <c r="C140" s="14" t="n">
+      <c r="C140" s="15" t="n">
         <v>313.333333333333</v>
       </c>
       <c r="D140" s="11" t="n">
@@ -30409,13 +31505,13 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="14" t="n">
+      <c r="A141" s="15" t="n">
         <v>188</v>
       </c>
-      <c r="B141" s="14" t="n">
+      <c r="B141" s="15" t="n">
         <v>8152.36111111113</v>
       </c>
-      <c r="C141" s="14" t="n">
+      <c r="C141" s="15" t="n">
         <v>315</v>
       </c>
       <c r="D141" s="11" t="n">
@@ -30426,13 +31522,13 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="14" t="n">
+      <c r="A142" s="15" t="n">
         <v>189</v>
       </c>
-      <c r="B142" s="14" t="n">
+      <c r="B142" s="15" t="n">
         <v>8239.62962962964</v>
       </c>
-      <c r="C142" s="14" t="n">
+      <c r="C142" s="15" t="n">
         <v>316.666666666667</v>
       </c>
       <c r="D142" s="11" t="n">
@@ -30443,13 +31539,13 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="14" t="n">
+      <c r="A143" s="15" t="n">
         <v>190</v>
       </c>
-      <c r="B143" s="14" t="n">
+      <c r="B143" s="15" t="n">
         <v>8327.36111111113</v>
       </c>
-      <c r="C143" s="14" t="n">
+      <c r="C143" s="15" t="n">
         <v>318.333333333333</v>
       </c>
       <c r="D143" s="11" t="n">
@@ -30460,13 +31556,13 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="14" t="n">
+      <c r="A144" s="15" t="n">
         <v>191</v>
       </c>
-      <c r="B144" s="14" t="n">
+      <c r="B144" s="15" t="n">
         <v>8415.55555555557</v>
       </c>
-      <c r="C144" s="14" t="n">
+      <c r="C144" s="15" t="n">
         <v>320</v>
       </c>
       <c r="D144" s="11" t="n">
@@ -30477,13 +31573,13 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="14" t="n">
+      <c r="A145" s="15" t="n">
         <v>192</v>
       </c>
-      <c r="B145" s="14" t="n">
+      <c r="B145" s="15" t="n">
         <v>8504.21296296298</v>
       </c>
-      <c r="C145" s="14" t="n">
+      <c r="C145" s="15" t="n">
         <v>321.666666666667</v>
       </c>
       <c r="D145" s="11" t="n">
@@ -30494,13 +31590,13 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="14" t="n">
+      <c r="A146" s="15" t="n">
         <v>193</v>
       </c>
-      <c r="B146" s="14" t="n">
+      <c r="B146" s="15" t="n">
         <v>8593.33333333335</v>
       </c>
-      <c r="C146" s="14" t="n">
+      <c r="C146" s="15" t="n">
         <v>323.333333333334</v>
       </c>
       <c r="D146" s="11" t="n">
@@ -30511,13 +31607,13 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="14" t="n">
+      <c r="A147" s="15" t="n">
         <v>194</v>
       </c>
-      <c r="B147" s="14" t="n">
+      <c r="B147" s="15" t="n">
         <v>8682.91666666669</v>
       </c>
-      <c r="C147" s="14" t="n">
+      <c r="C147" s="15" t="n">
         <v>325</v>
       </c>
       <c r="D147" s="11" t="n">
@@ -30528,13 +31624,13 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="14" t="n">
+      <c r="A148" s="15" t="n">
         <v>195</v>
       </c>
-      <c r="B148" s="14" t="n">
+      <c r="B148" s="15" t="n">
         <v>8772.96296296298</v>
       </c>
-      <c r="C148" s="14" t="n">
+      <c r="C148" s="15" t="n">
         <v>326.666666666667</v>
       </c>
       <c r="D148" s="11" t="n">
@@ -30545,13 +31641,13 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="14" t="n">
+      <c r="A149" s="15" t="n">
         <v>196</v>
       </c>
-      <c r="B149" s="14" t="n">
+      <c r="B149" s="15" t="n">
         <v>8863.47222222224</v>
       </c>
-      <c r="C149" s="14" t="n">
+      <c r="C149" s="15" t="n">
         <v>328.333333333334</v>
       </c>
       <c r="D149" s="11" t="n">
@@ -30562,13 +31658,13 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="14" t="n">
+      <c r="A150" s="15" t="n">
         <v>197</v>
       </c>
-      <c r="B150" s="14" t="n">
+      <c r="B150" s="15" t="n">
         <v>8954.44444444447</v>
       </c>
-      <c r="C150" s="14" t="n">
+      <c r="C150" s="15" t="n">
         <v>330</v>
       </c>
       <c r="D150" s="11" t="n">
@@ -30579,13 +31675,13 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="14" t="n">
+      <c r="A151" s="15" t="n">
         <v>198</v>
       </c>
-      <c r="B151" s="14" t="n">
+      <c r="B151" s="15" t="n">
         <v>9045.87962962965</v>
       </c>
-      <c r="C151" s="14" t="n">
+      <c r="C151" s="15" t="n">
         <v>331.666666666667</v>
       </c>
       <c r="D151" s="11" t="n">
@@ -30596,13 +31692,13 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="14" t="n">
+      <c r="A152" s="15" t="n">
         <v>199</v>
       </c>
-      <c r="B152" s="14" t="n">
+      <c r="B152" s="15" t="n">
         <v>9137.7777777778</v>
       </c>
-      <c r="C152" s="14" t="n">
+      <c r="C152" s="15" t="n">
         <v>333.333333333334</v>
       </c>
       <c r="D152" s="11" t="n">
@@ -30613,13 +31709,13 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="14" t="n">
+      <c r="A153" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="B153" s="14" t="n">
+      <c r="B153" s="15" t="n">
         <v>9230.13888888891</v>
       </c>
-      <c r="C153" s="14" t="n">
+      <c r="C153" s="15" t="n">
         <v>335</v>
       </c>
       <c r="D153" s="11" t="n">
@@ -30630,13 +31726,13 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="14" t="n">
+      <c r="A154" s="15" t="n">
         <v>201</v>
       </c>
-      <c r="B154" s="14" t="n">
+      <c r="B154" s="15" t="n">
         <v>9322.96296296299</v>
       </c>
-      <c r="C154" s="14" t="n">
+      <c r="C154" s="15" t="n">
         <v>336.666666666667</v>
       </c>
       <c r="D154" s="11" t="n">
@@ -30647,13 +31743,13 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="14" t="n">
+      <c r="A155" s="15" t="n">
         <v>202</v>
       </c>
-      <c r="B155" s="14" t="n">
+      <c r="B155" s="15" t="n">
         <v>9416.25000000003</v>
       </c>
-      <c r="C155" s="14" t="n">
+      <c r="C155" s="15" t="n">
         <v>338.333333333334</v>
       </c>
       <c r="D155" s="11" t="n">
@@ -30664,13 +31760,13 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="14" t="n">
+      <c r="A156" s="15" t="n">
         <v>203</v>
       </c>
-      <c r="B156" s="14" t="n">
+      <c r="B156" s="15" t="n">
         <v>9510.00000000003</v>
       </c>
-      <c r="C156" s="14" t="n">
+      <c r="C156" s="15" t="n">
         <v>340</v>
       </c>
       <c r="D156" s="11" t="n">
@@ -30681,13 +31777,13 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="14" t="n">
+      <c r="A157" s="15" t="n">
         <v>204</v>
       </c>
-      <c r="B157" s="14" t="n">
+      <c r="B157" s="15" t="n">
         <v>9604.21296296299</v>
       </c>
-      <c r="C157" s="14" t="n">
+      <c r="C157" s="15" t="n">
         <v>341.666666666667</v>
       </c>
       <c r="D157" s="11" t="n">
@@ -30698,13 +31794,13 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="14" t="n">
+      <c r="A158" s="15" t="n">
         <v>205</v>
       </c>
-      <c r="B158" s="14" t="n">
+      <c r="B158" s="15" t="n">
         <v>9698.88888888892</v>
       </c>
-      <c r="C158" s="14" t="n">
+      <c r="C158" s="15" t="n">
         <v>343.333333333334</v>
       </c>
       <c r="D158" s="11" t="n">
@@ -30715,13 +31811,13 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="14" t="n">
+      <c r="A159" s="15" t="n">
         <v>206</v>
       </c>
-      <c r="B159" s="14" t="n">
+      <c r="B159" s="15" t="n">
         <v>9794.02777777781</v>
       </c>
-      <c r="C159" s="14" t="n">
+      <c r="C159" s="15" t="n">
         <v>345</v>
       </c>
       <c r="D159" s="11" t="n">
@@ -30732,13 +31828,13 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="14" t="n">
+      <c r="A160" s="15" t="n">
         <v>207</v>
       </c>
-      <c r="B160" s="14" t="n">
+      <c r="B160" s="15" t="n">
         <v>9889.62962962966</v>
       </c>
-      <c r="C160" s="14" t="n">
+      <c r="C160" s="15" t="n">
         <v>346.666666666667</v>
       </c>
       <c r="D160" s="11" t="n">
@@ -30749,13 +31845,13 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="14" t="n">
+      <c r="A161" s="15" t="n">
         <v>208</v>
       </c>
-      <c r="B161" s="14" t="n">
+      <c r="B161" s="15" t="n">
         <v>9985.69444444448</v>
       </c>
-      <c r="C161" s="14" t="n">
+      <c r="C161" s="15" t="n">
         <v>348.333333333334</v>
       </c>
       <c r="D161" s="11" t="n">
@@ -30766,13 +31862,13 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="14" t="n">
+      <c r="A162" s="15" t="n">
         <v>209</v>
       </c>
-      <c r="B162" s="14" t="n">
+      <c r="B162" s="15" t="n">
         <v>10082.2222222223</v>
       </c>
-      <c r="C162" s="14" t="n">
+      <c r="C162" s="15" t="n">
         <v>350.000000000001</v>
       </c>
       <c r="D162" s="11" t="n">
@@ -30783,13 +31879,13 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="14" t="n">
+      <c r="A163" s="15" t="n">
         <v>210</v>
       </c>
-      <c r="B163" s="14" t="n">
+      <c r="B163" s="15" t="n">
         <v>10179.212962963</v>
       </c>
-      <c r="C163" s="14" t="n">
+      <c r="C163" s="15" t="n">
         <v>351.666666666667</v>
       </c>
       <c r="D163" s="11" t="n">
@@ -30800,13 +31896,13 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="14" t="n">
+      <c r="A164" s="15" t="n">
         <v>211</v>
       </c>
-      <c r="B164" s="14" t="n">
+      <c r="B164" s="15" t="n">
         <v>10276.6666666667</v>
       </c>
-      <c r="C164" s="14" t="n">
+      <c r="C164" s="15" t="n">
         <v>353.333333333334</v>
       </c>
       <c r="D164" s="11" t="n">
@@ -30817,13 +31913,13 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="14" t="n">
+      <c r="A165" s="15" t="n">
         <v>212</v>
       </c>
-      <c r="B165" s="14" t="n">
+      <c r="B165" s="15" t="n">
         <v>10374.5833333334</v>
       </c>
-      <c r="C165" s="14" t="n">
+      <c r="C165" s="15" t="n">
         <v>355.000000000001</v>
       </c>
       <c r="D165" s="11" t="n">
@@ -30834,13 +31930,13 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="14" t="n">
+      <c r="A166" s="15" t="n">
         <v>213</v>
       </c>
-      <c r="B166" s="14" t="n">
+      <c r="B166" s="15" t="n">
         <v>10472.962962963</v>
       </c>
-      <c r="C166" s="14" t="n">
+      <c r="C166" s="15" t="n">
         <v>356.666666666667</v>
       </c>
       <c r="D166" s="11" t="n">
@@ -30851,13 +31947,13 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="14" t="n">
+      <c r="A167" s="15" t="n">
         <v>214</v>
       </c>
-      <c r="B167" s="14" t="n">
+      <c r="B167" s="15" t="n">
         <v>10571.8055555556</v>
       </c>
-      <c r="C167" s="14" t="n">
+      <c r="C167" s="15" t="n">
         <v>358.333333333334</v>
       </c>
       <c r="D167" s="11" t="n">
@@ -30868,13 +31964,13 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="14" t="n">
+      <c r="A168" s="15" t="n">
         <v>215</v>
       </c>
-      <c r="B168" s="14" t="n">
+      <c r="B168" s="15" t="n">
         <v>10671.1111111112</v>
       </c>
-      <c r="C168" s="14" t="n">
+      <c r="C168" s="15" t="n">
         <v>360.000000000001</v>
       </c>
       <c r="D168" s="11" t="n">
@@ -30885,13 +31981,13 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="14" t="n">
+      <c r="A169" s="15" t="n">
         <v>216</v>
       </c>
-      <c r="B169" s="14" t="n">
+      <c r="B169" s="15" t="n">
         <v>10770.8796296297</v>
       </c>
-      <c r="C169" s="14" t="n">
+      <c r="C169" s="15" t="n">
         <v>361.666666666667</v>
       </c>
       <c r="D169" s="11" t="n">
@@ -30902,13 +31998,13 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="14" t="n">
+      <c r="A170" s="15" t="n">
         <v>217</v>
       </c>
-      <c r="B170" s="14" t="n">
+      <c r="B170" s="15" t="n">
         <v>10871.1111111112</v>
       </c>
-      <c r="C170" s="14" t="n">
+      <c r="C170" s="15" t="n">
         <v>363.333333333334</v>
       </c>
       <c r="D170" s="11" t="n">
@@ -30919,13 +32015,13 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="14" t="n">
+      <c r="A171" s="15" t="n">
         <v>218</v>
       </c>
-      <c r="B171" s="14" t="n">
+      <c r="B171" s="15" t="n">
         <v>10971.8055555556</v>
       </c>
-      <c r="C171" s="14" t="n">
+      <c r="C171" s="15" t="n">
         <v>365.000000000001</v>
       </c>
       <c r="D171" s="11" t="n">
@@ -30936,13 +32032,13 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="14" t="n">
+      <c r="A172" s="15" t="n">
         <v>219</v>
       </c>
-      <c r="B172" s="14" t="n">
+      <c r="B172" s="15" t="n">
         <v>11072.962962963</v>
       </c>
-      <c r="C172" s="14" t="n">
+      <c r="C172" s="15" t="n">
         <v>366.666666666667</v>
       </c>
       <c r="D172" s="11" t="n">
@@ -30953,13 +32049,13 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="14" t="n">
+      <c r="A173" s="15" t="n">
         <v>220</v>
       </c>
-      <c r="B173" s="14" t="n">
+      <c r="B173" s="15" t="n">
         <v>11174.5833333334</v>
       </c>
-      <c r="C173" s="14" t="n">
+      <c r="C173" s="15" t="n">
         <v>368.333333333334</v>
       </c>
       <c r="D173" s="11" t="n">
@@ -30970,13 +32066,13 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="14" t="n">
+      <c r="A174" s="15" t="n">
         <v>221</v>
       </c>
-      <c r="B174" s="14" t="n">
+      <c r="B174" s="15" t="n">
         <v>11276.6666666667</v>
       </c>
-      <c r="C174" s="14" t="n">
+      <c r="C174" s="15" t="n">
         <v>370.000000000001</v>
       </c>
       <c r="D174" s="11" t="n">
@@ -30987,13 +32083,13 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="14" t="n">
+      <c r="A175" s="15" t="n">
         <v>222</v>
       </c>
-      <c r="B175" s="14" t="n">
+      <c r="B175" s="15" t="n">
         <v>11379.212962963</v>
       </c>
-      <c r="C175" s="14" t="n">
+      <c r="C175" s="15" t="n">
         <v>371.666666666667</v>
       </c>
       <c r="D175" s="11" t="n">
@@ -31004,13 +32100,13 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="14" t="n">
+      <c r="A176" s="15" t="n">
         <v>223</v>
       </c>
-      <c r="B176" s="14" t="n">
+      <c r="B176" s="15" t="n">
         <v>11482.2222222223</v>
       </c>
-      <c r="C176" s="14" t="n">
+      <c r="C176" s="15" t="n">
         <v>373.333333333334</v>
       </c>
       <c r="D176" s="11" t="n">
@@ -31021,13 +32117,13 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="14" t="n">
+      <c r="A177" s="15" t="n">
         <v>224</v>
       </c>
-      <c r="B177" s="14" t="n">
+      <c r="B177" s="15" t="n">
         <v>11585.6944444445</v>
       </c>
-      <c r="C177" s="14" t="n">
+      <c r="C177" s="15" t="n">
         <v>375.000000000001</v>
       </c>
       <c r="D177" s="11" t="n">
@@ -31038,13 +32134,13 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="14" t="n">
+      <c r="A178" s="15" t="n">
         <v>225</v>
       </c>
-      <c r="B178" s="14" t="n">
+      <c r="B178" s="15" t="n">
         <v>11689.6296296297</v>
       </c>
-      <c r="C178" s="14" t="n">
+      <c r="C178" s="15" t="n">
         <v>376.666666666667</v>
       </c>
       <c r="D178" s="11" t="n">
@@ -31055,13 +32151,13 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="14" t="n">
+      <c r="A179" s="15" t="n">
         <v>226</v>
       </c>
-      <c r="B179" s="14" t="n">
+      <c r="B179" s="15" t="n">
         <v>11794.0277777778</v>
       </c>
-      <c r="C179" s="14" t="n">
+      <c r="C179" s="15" t="n">
         <v>378.333333333334</v>
       </c>
       <c r="D179" s="11" t="n">
@@ -31072,13 +32168,13 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="14" t="n">
+      <c r="A180" s="15" t="n">
         <v>227</v>
       </c>
-      <c r="B180" s="14" t="n">
+      <c r="B180" s="15" t="n">
         <v>11898.8888888889</v>
       </c>
-      <c r="C180" s="14" t="n">
+      <c r="C180" s="15" t="n">
         <v>380.000000000001</v>
       </c>
       <c r="D180" s="11" t="n">
@@ -31089,13 +32185,13 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="14" t="n">
+      <c r="A181" s="15" t="n">
         <v>228</v>
       </c>
-      <c r="B181" s="14" t="n">
+      <c r="B181" s="15" t="n">
         <v>12004.212962963</v>
       </c>
-      <c r="C181" s="14" t="n">
+      <c r="C181" s="15" t="n">
         <v>381.666666666668</v>
       </c>
       <c r="D181" s="11" t="n">
@@ -31106,13 +32202,13 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="14" t="n">
+      <c r="A182" s="15" t="n">
         <v>229</v>
       </c>
-      <c r="B182" s="14" t="n">
+      <c r="B182" s="15" t="n">
         <v>12110.0000000001</v>
       </c>
-      <c r="C182" s="14" t="n">
+      <c r="C182" s="15" t="n">
         <v>383.333333333334</v>
       </c>
       <c r="D182" s="11" t="n">
@@ -31123,13 +32219,13 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="14" t="n">
+      <c r="A183" s="15" t="n">
         <v>230</v>
       </c>
-      <c r="B183" s="14" t="n">
+      <c r="B183" s="15" t="n">
         <v>12216.2500000001</v>
       </c>
-      <c r="C183" s="14" t="n">
+      <c r="C183" s="15" t="n">
         <v>385.000000000001</v>
       </c>
       <c r="D183" s="11" t="n">
@@ -31140,13 +32236,13 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="14" t="n">
+      <c r="A184" s="15" t="n">
         <v>231</v>
       </c>
-      <c r="B184" s="14" t="n">
+      <c r="B184" s="15" t="n">
         <v>12322.962962963</v>
       </c>
-      <c r="C184" s="14" t="n">
+      <c r="C184" s="15" t="n">
         <v>386.666666666668</v>
       </c>
       <c r="D184" s="11" t="n">
@@ -31157,13 +32253,13 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="14" t="n">
+      <c r="A185" s="15" t="n">
         <v>232</v>
       </c>
-      <c r="B185" s="14" t="n">
+      <c r="B185" s="15" t="n">
         <v>12430.138888889</v>
       </c>
-      <c r="C185" s="14" t="n">
+      <c r="C185" s="15" t="n">
         <v>388.333333333334</v>
       </c>
       <c r="D185" s="11" t="n">
@@ -31174,13 +32270,13 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="14" t="n">
+      <c r="A186" s="15" t="n">
         <v>233</v>
       </c>
-      <c r="B186" s="14" t="n">
+      <c r="B186" s="15" t="n">
         <v>12537.7777777778</v>
       </c>
-      <c r="C186" s="14" t="n">
+      <c r="C186" s="15" t="n">
         <v>390.000000000001</v>
       </c>
       <c r="D186" s="11" t="n">
@@ -31191,13 +32287,13 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="14" t="n">
+      <c r="A187" s="15" t="n">
         <v>234</v>
       </c>
-      <c r="B187" s="14" t="n">
+      <c r="B187" s="15" t="n">
         <v>12645.8796296297</v>
       </c>
-      <c r="C187" s="14" t="n">
+      <c r="C187" s="15" t="n">
         <v>391.666666666668</v>
       </c>
       <c r="D187" s="11" t="n">
@@ -31208,13 +32304,13 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="14" t="n">
+      <c r="A188" s="15" t="n">
         <v>235</v>
       </c>
-      <c r="B188" s="14" t="n">
+      <c r="B188" s="15" t="n">
         <v>12754.4444444445</v>
       </c>
-      <c r="C188" s="14" t="n">
+      <c r="C188" s="15" t="n">
         <v>393.333333333334</v>
       </c>
       <c r="D188" s="11" t="n">
@@ -31225,13 +32321,13 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="14" t="n">
+      <c r="A189" s="15" t="n">
         <v>236</v>
       </c>
-      <c r="B189" s="14" t="n">
+      <c r="B189" s="15" t="n">
         <v>12863.4722222223</v>
       </c>
-      <c r="C189" s="14" t="n">
+      <c r="C189" s="15" t="n">
         <v>395.000000000001</v>
       </c>
       <c r="D189" s="11" t="n">
@@ -31242,13 +32338,13 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="14" t="n">
+      <c r="A190" s="15" t="n">
         <v>237</v>
       </c>
-      <c r="B190" s="14" t="n">
+      <c r="B190" s="15" t="n">
         <v>12972.962962963</v>
       </c>
-      <c r="C190" s="14" t="n">
+      <c r="C190" s="15" t="n">
         <v>396.666666666668</v>
       </c>
       <c r="D190" s="11" t="n">
@@ -31259,13 +32355,13 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="14" t="n">
+      <c r="A191" s="15" t="n">
         <v>238</v>
       </c>
-      <c r="B191" s="14" t="n">
+      <c r="B191" s="15" t="n">
         <v>13082.9166666667</v>
       </c>
-      <c r="C191" s="14" t="n">
+      <c r="C191" s="15" t="n">
         <v>398.333333333334</v>
       </c>
       <c r="D191" s="11" t="n">
@@ -31276,13 +32372,13 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="14" t="n">
+      <c r="A192" s="15" t="n">
         <v>239</v>
       </c>
-      <c r="B192" s="14" t="n">
+      <c r="B192" s="15" t="n">
         <v>13193.3333333334</v>
       </c>
-      <c r="C192" s="14" t="n">
+      <c r="C192" s="15" t="n">
         <v>400.000000000001</v>
       </c>
       <c r="D192" s="11" t="n">
@@ -31293,13 +32389,13 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="14" t="n">
+      <c r="A193" s="15" t="n">
         <v>240</v>
       </c>
-      <c r="B193" s="14" t="n">
+      <c r="B193" s="15" t="n">
         <v>13304.212962963</v>
       </c>
-      <c r="C193" s="14" t="n">
+      <c r="C193" s="15" t="n">
         <v>401.666666666668</v>
       </c>
       <c r="D193" s="11" t="n">
@@ -31310,13 +32406,13 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="14" t="n">
+      <c r="A194" s="15" t="n">
         <v>241</v>
       </c>
-      <c r="B194" s="14" t="n">
+      <c r="B194" s="15" t="n">
         <v>13415.5555555556</v>
       </c>
-      <c r="C194" s="14" t="n">
+      <c r="C194" s="15" t="n">
         <v>403.333333333335</v>
       </c>
       <c r="D194" s="11" t="n">
@@ -31327,13 +32423,13 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="14" t="n">
+      <c r="A195" s="15" t="n">
         <v>242</v>
       </c>
-      <c r="B195" s="14" t="n">
+      <c r="B195" s="15" t="n">
         <v>13527.3611111112</v>
       </c>
-      <c r="C195" s="14" t="n">
+      <c r="C195" s="15" t="n">
         <v>405.000000000001</v>
       </c>
       <c r="D195" s="11" t="n">
@@ -31344,13 +32440,13 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="14" t="n">
+      <c r="A196" s="15" t="n">
         <v>243</v>
       </c>
-      <c r="B196" s="14" t="n">
+      <c r="B196" s="15" t="n">
         <v>13639.6296296297</v>
       </c>
-      <c r="C196" s="14" t="n">
+      <c r="C196" s="15" t="n">
         <v>406.666666666668</v>
       </c>
       <c r="D196" s="11" t="n">
@@ -31361,13 +32457,13 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="14" t="n">
+      <c r="A197" s="15" t="n">
         <v>244</v>
       </c>
-      <c r="B197" s="14" t="n">
+      <c r="B197" s="15" t="n">
         <v>13752.3611111112</v>
       </c>
-      <c r="C197" s="14" t="n">
+      <c r="C197" s="15" t="n">
         <v>408.333333333335</v>
       </c>
       <c r="D197" s="11" t="n">
@@ -31378,13 +32474,13 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="14" t="n">
+      <c r="A198" s="15" t="n">
         <v>245</v>
       </c>
-      <c r="B198" s="14" t="n">
+      <c r="B198" s="15" t="n">
         <v>13865.5555555556</v>
       </c>
-      <c r="C198" s="14" t="n">
+      <c r="C198" s="15" t="n">
         <v>410.000000000001</v>
       </c>
       <c r="D198" s="11" t="n">
@@ -31395,13 +32491,13 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="14" t="n">
+      <c r="A199" s="15" t="n">
         <v>246</v>
       </c>
-      <c r="B199" s="14" t="n">
+      <c r="B199" s="15" t="n">
         <v>13979.212962963</v>
       </c>
-      <c r="C199" s="14" t="n">
+      <c r="C199" s="15" t="n">
         <v>411.666666666668</v>
       </c>
       <c r="D199" s="11" t="n">
@@ -31412,13 +32508,13 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="14" t="n">
+      <c r="A200" s="15" t="n">
         <v>247</v>
       </c>
-      <c r="B200" s="14" t="n">
+      <c r="B200" s="15" t="n">
         <v>14093.3333333334</v>
       </c>
-      <c r="C200" s="14" t="n">
+      <c r="C200" s="15" t="n">
         <v>413.333333333335</v>
       </c>
       <c r="D200" s="11" t="n">
@@ -31429,13 +32525,13 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="14" t="n">
+      <c r="A201" s="15" t="n">
         <v>248</v>
       </c>
-      <c r="B201" s="14" t="n">
+      <c r="B201" s="15" t="n">
         <v>14207.9166666667</v>
       </c>
-      <c r="C201" s="14" t="n">
+      <c r="C201" s="15" t="n">
         <v>415.000000000001</v>
       </c>
       <c r="D201" s="11" t="n">
@@ -31446,13 +32542,13 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="14" t="n">
+      <c r="A202" s="15" t="n">
         <v>249</v>
       </c>
-      <c r="B202" s="14" t="n">
+      <c r="B202" s="15" t="n">
         <v>14322.962962963</v>
       </c>
-      <c r="C202" s="14" t="n">
+      <c r="C202" s="15" t="n">
         <v>416.666666666668</v>
       </c>
       <c r="D202" s="11" t="n">
@@ -31463,13 +32559,13 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="14" t="n">
+      <c r="A203" s="15" t="n">
         <v>250</v>
       </c>
-      <c r="B203" s="14" t="n">
+      <c r="B203" s="15" t="n">
         <v>14438.4722222223</v>
       </c>
-      <c r="C203" s="14" t="n">
+      <c r="C203" s="15" t="n">
         <v>418.333333333335</v>
       </c>
       <c r="D203" s="11" t="n">
@@ -31480,13 +32576,13 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="14" t="n">
+      <c r="A204" s="15" t="n">
         <v>251</v>
       </c>
-      <c r="B204" s="14" t="n">
+      <c r="B204" s="15" t="n">
         <v>14554.4444444445</v>
       </c>
-      <c r="C204" s="14" t="n">
+      <c r="C204" s="15" t="n">
         <v>420.000000000001</v>
       </c>
       <c r="D204" s="11" t="n">
@@ -31497,13 +32593,13 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="14" t="n">
+      <c r="A205" s="15" t="n">
         <v>252</v>
       </c>
-      <c r="B205" s="14" t="n">
+      <c r="B205" s="15" t="n">
         <v>14670.8796296297</v>
       </c>
-      <c r="C205" s="14" t="n">
+      <c r="C205" s="15" t="n">
         <v>421.666666666668</v>
       </c>
       <c r="D205" s="11" t="n">
@@ -31514,13 +32610,13 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="14" t="n">
+      <c r="A206" s="15" t="n">
         <v>253</v>
       </c>
-      <c r="B206" s="14" t="n">
+      <c r="B206" s="15" t="n">
         <v>14787.7777777779</v>
       </c>
-      <c r="C206" s="14" t="n">
+      <c r="C206" s="15" t="n">
         <v>423.333333333335</v>
       </c>
       <c r="D206" s="11" t="n">
@@ -31531,13 +32627,13 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="14" t="n">
+      <c r="A207" s="15" t="n">
         <v>254</v>
       </c>
-      <c r="B207" s="14" t="n">
+      <c r="B207" s="15" t="n">
         <v>14905.138888889</v>
       </c>
-      <c r="C207" s="14" t="n">
+      <c r="C207" s="15" t="n">
         <v>425.000000000001</v>
       </c>
       <c r="D207" s="11" t="n">
@@ -31548,13 +32644,13 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="14" t="n">
+      <c r="A208" s="15" t="n">
         <v>255</v>
       </c>
-      <c r="B208" s="14" t="n">
+      <c r="B208" s="15" t="n">
         <v>15022.9629629631</v>
       </c>
-      <c r="C208" s="14" t="n">
+      <c r="C208" s="15" t="n">
         <v>426.666666666668</v>
       </c>
       <c r="D208" s="11" t="n">
@@ -31565,13 +32661,13 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="14" t="n">
+      <c r="A209" s="15" t="n">
         <v>256</v>
       </c>
-      <c r="B209" s="14" t="n">
+      <c r="B209" s="15" t="n">
         <v>15141.2500000001</v>
       </c>
-      <c r="C209" s="14" t="n">
+      <c r="C209" s="15" t="n">
         <v>428.333333333335</v>
       </c>
       <c r="D209" s="11" t="n">
@@ -31582,13 +32678,13 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="14" t="n">
+      <c r="A210" s="15" t="n">
         <v>257</v>
       </c>
-      <c r="B210" s="14" t="n">
+      <c r="B210" s="15" t="n">
         <v>15260.0000000001</v>
       </c>
-      <c r="C210" s="14" t="n">
+      <c r="C210" s="15" t="n">
         <v>430.000000000001</v>
       </c>
       <c r="D210" s="11" t="n">
@@ -31599,13 +32695,13 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="14" t="n">
+      <c r="A211" s="15" t="n">
         <v>258</v>
       </c>
-      <c r="B211" s="14" t="n">
+      <c r="B211" s="15" t="n">
         <v>15379.2129629631</v>
       </c>
-      <c r="C211" s="14" t="n">
+      <c r="C211" s="15" t="n">
         <v>431.666666666668</v>
       </c>
       <c r="D211" s="11" t="n">
@@ -31616,13 +32712,13 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="14" t="n">
+      <c r="A212" s="15" t="n">
         <v>259</v>
       </c>
-      <c r="B212" s="14" t="n">
+      <c r="B212" s="15" t="n">
         <v>15498.888888889</v>
       </c>
-      <c r="C212" s="14" t="n">
+      <c r="C212" s="15" t="n">
         <v>433.333333333335</v>
       </c>
       <c r="D212" s="11" t="n">
@@ -31633,13 +32729,13 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="14" t="n">
+      <c r="A213" s="15" t="n">
         <v>260</v>
       </c>
-      <c r="B213" s="14" t="n">
+      <c r="B213" s="15" t="n">
         <v>15619.0277777779</v>
       </c>
-      <c r="C213" s="14" t="n">
+      <c r="C213" s="15" t="n">
         <v>435.000000000002</v>
       </c>
       <c r="D213" s="11" t="n">
@@ -31650,13 +32746,13 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="14" t="n">
+      <c r="A214" s="15" t="n">
         <v>261</v>
       </c>
-      <c r="B214" s="14" t="n">
+      <c r="B214" s="15" t="n">
         <v>15739.6296296297</v>
       </c>
-      <c r="C214" s="14" t="n">
+      <c r="C214" s="15" t="n">
         <v>436.666666666668</v>
       </c>
       <c r="D214" s="11" t="n">
@@ -31667,13 +32763,13 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="14" t="n">
+      <c r="A215" s="15" t="n">
         <v>262</v>
       </c>
-      <c r="B215" s="14" t="n">
+      <c r="B215" s="15" t="n">
         <v>15860.6944444445</v>
       </c>
-      <c r="C215" s="14" t="n">
+      <c r="C215" s="15" t="n">
         <v>438.333333333335</v>
       </c>
       <c r="D215" s="11" t="n">
@@ -31684,13 +32780,13 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="14" t="n">
+      <c r="A216" s="15" t="n">
         <v>263</v>
       </c>
-      <c r="B216" s="14" t="n">
+      <c r="B216" s="15" t="n">
         <v>15982.2222222223</v>
       </c>
-      <c r="C216" s="14" t="n">
+      <c r="C216" s="15" t="n">
         <v>440.000000000002</v>
       </c>
       <c r="D216" s="11" t="n">
@@ -31701,13 +32797,13 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="14" t="n">
+      <c r="A217" s="15" t="n">
         <v>264</v>
       </c>
-      <c r="B217" s="14" t="n">
+      <c r="B217" s="15" t="n">
         <v>16104.2129629631</v>
       </c>
-      <c r="C217" s="14" t="n">
+      <c r="C217" s="15" t="n">
         <v>441.666666666668</v>
       </c>
       <c r="D217" s="11" t="n">
@@ -31718,13 +32814,13 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="14" t="n">
+      <c r="A218" s="15" t="n">
         <v>265</v>
       </c>
-      <c r="B218" s="14" t="n">
+      <c r="B218" s="15" t="n">
         <v>16226.6666666668</v>
       </c>
-      <c r="C218" s="14" t="n">
+      <c r="C218" s="15" t="n">
         <v>443.333333333335</v>
       </c>
       <c r="D218" s="11" t="n">
@@ -31735,13 +32831,13 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="14" t="n">
+      <c r="A219" s="15" t="n">
         <v>266</v>
       </c>
-      <c r="B219" s="14" t="n">
+      <c r="B219" s="15" t="n">
         <v>16349.5833333334</v>
       </c>
-      <c r="C219" s="14" t="n">
+      <c r="C219" s="15" t="n">
         <v>445.000000000002</v>
       </c>
       <c r="D219" s="11" t="n">
@@ -31752,13 +32848,13 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="14" t="n">
+      <c r="A220" s="15" t="n">
         <v>267</v>
       </c>
-      <c r="B220" s="14" t="n">
+      <c r="B220" s="15" t="n">
         <v>16472.9629629631</v>
       </c>
-      <c r="C220" s="14" t="n">
+      <c r="C220" s="15" t="n">
         <v>446.666666666668</v>
       </c>
       <c r="D220" s="11" t="n">
@@ -31769,13 +32865,13 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="14" t="n">
+      <c r="A221" s="15" t="n">
         <v>268</v>
       </c>
-      <c r="B221" s="14" t="n">
+      <c r="B221" s="15" t="n">
         <v>16596.8055555557</v>
       </c>
-      <c r="C221" s="14" t="n">
+      <c r="C221" s="15" t="n">
         <v>448.333333333335</v>
       </c>
       <c r="D221" s="11" t="n">
@@ -31786,13 +32882,13 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="14" t="n">
+      <c r="A222" s="15" t="n">
         <v>269</v>
       </c>
-      <c r="B222" s="14" t="n">
+      <c r="B222" s="15" t="n">
         <v>16721.1111111112</v>
       </c>
-      <c r="C222" s="14" t="n">
+      <c r="C222" s="15" t="n">
         <v>450.000000000002</v>
       </c>
       <c r="D222" s="11" t="n">
@@ -31803,13 +32899,13 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="14" t="n">
+      <c r="A223" s="15" t="n">
         <v>270</v>
       </c>
-      <c r="B223" s="14" t="n">
+      <c r="B223" s="15" t="n">
         <v>16845.8796296297</v>
       </c>
-      <c r="C223" s="14" t="n">
+      <c r="C223" s="15" t="n">
         <v>451.666666666668</v>
       </c>
       <c r="D223" s="11" t="n">
@@ -31820,13 +32916,13 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="14" t="n">
+      <c r="A224" s="15" t="n">
         <v>271</v>
       </c>
-      <c r="B224" s="14" t="n">
+      <c r="B224" s="15" t="n">
         <v>16971.1111111112</v>
       </c>
-      <c r="C224" s="14" t="n">
+      <c r="C224" s="15" t="n">
         <v>453.333333333335</v>
       </c>
       <c r="D224" s="11" t="n">
@@ -31837,13 +32933,13 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="14" t="n">
+      <c r="A225" s="15" t="n">
         <v>272</v>
       </c>
-      <c r="B225" s="14" t="n">
+      <c r="B225" s="15" t="n">
         <v>17096.8055555557</v>
       </c>
-      <c r="C225" s="14" t="n">
+      <c r="C225" s="15" t="n">
         <v>455.000000000002</v>
       </c>
       <c r="D225" s="11" t="n">
@@ -31854,13 +32950,13 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="14" t="n">
+      <c r="A226" s="15" t="n">
         <v>273</v>
       </c>
-      <c r="B226" s="14" t="n">
+      <c r="B226" s="15" t="n">
         <v>17222.9629629631</v>
       </c>
-      <c r="C226" s="14" t="n">
+      <c r="C226" s="15" t="n">
         <v>456.666666666668</v>
       </c>
       <c r="D226" s="11" t="n">
@@ -31871,13 +32967,13 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="14" t="n">
+      <c r="A227" s="15" t="n">
         <v>274</v>
       </c>
-      <c r="B227" s="14" t="n">
+      <c r="B227" s="15" t="n">
         <v>17349.5833333335</v>
       </c>
-      <c r="C227" s="14" t="n">
+      <c r="C227" s="15" t="n">
         <v>458.333333333335</v>
       </c>
       <c r="D227" s="11" t="n">
@@ -31888,13 +32984,13 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="14" t="n">
+      <c r="A228" s="15" t="n">
         <v>275</v>
       </c>
-      <c r="B228" s="14" t="n">
+      <c r="B228" s="15" t="n">
         <v>17476.6666666668</v>
       </c>
-      <c r="C228" s="14" t="n">
+      <c r="C228" s="15" t="n">
         <v>460.000000000002</v>
       </c>
       <c r="D228" s="11" t="n">
@@ -31905,13 +33001,13 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="14" t="n">
+      <c r="A229" s="15" t="n">
         <v>276</v>
       </c>
-      <c r="B229" s="14" t="n">
+      <c r="B229" s="15" t="n">
         <v>17604.2129629631</v>
       </c>
-      <c r="C229" s="14" t="n">
+      <c r="C229" s="15" t="n">
         <v>461.666666666669</v>
       </c>
       <c r="D229" s="11" t="n">
@@ -31922,13 +33018,13 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="14" t="n">
+      <c r="A230" s="15" t="n">
         <v>277</v>
       </c>
-      <c r="B230" s="14" t="n">
+      <c r="B230" s="15" t="n">
         <v>17732.2222222223</v>
       </c>
-      <c r="C230" s="14" t="n">
+      <c r="C230" s="15" t="n">
         <v>463.333333333335</v>
       </c>
       <c r="D230" s="11" t="n">
@@ -31939,13 +33035,13 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="14" t="n">
+      <c r="A231" s="15" t="n">
         <v>278</v>
       </c>
-      <c r="B231" s="14" t="n">
+      <c r="B231" s="15" t="n">
         <v>17860.6944444446</v>
       </c>
-      <c r="C231" s="14" t="n">
+      <c r="C231" s="15" t="n">
         <v>465.000000000002</v>
       </c>
       <c r="D231" s="11" t="n">
@@ -31956,13 +33052,13 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="14" t="n">
+      <c r="A232" s="15" t="n">
         <v>279</v>
       </c>
-      <c r="B232" s="14" t="n">
+      <c r="B232" s="15" t="n">
         <v>17989.6296296298</v>
       </c>
-      <c r="C232" s="14" t="n">
+      <c r="C232" s="15" t="n">
         <v>466.666666666669</v>
       </c>
       <c r="D232" s="11" t="n">
@@ -31973,13 +33069,13 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="14" t="n">
+      <c r="A233" s="15" t="n">
         <v>280</v>
       </c>
-      <c r="B233" s="14" t="n">
+      <c r="B233" s="15" t="n">
         <v>18119.0277777779</v>
       </c>
-      <c r="C233" s="14" t="n">
+      <c r="C233" s="15" t="n">
         <v>468.333333333335</v>
       </c>
       <c r="D233" s="11" t="n">
@@ -31990,13 +33086,13 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="14" t="n">
+      <c r="A234" s="15" t="n">
         <v>281</v>
       </c>
-      <c r="B234" s="14" t="n">
+      <c r="B234" s="15" t="n">
         <v>18248.888888889</v>
       </c>
-      <c r="C234" s="14" t="n">
+      <c r="C234" s="15" t="n">
         <v>470.000000000002</v>
       </c>
       <c r="D234" s="11" t="n">
@@ -32007,13 +33103,13 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="14" t="n">
+      <c r="A235" s="15" t="n">
         <v>282</v>
       </c>
-      <c r="B235" s="14" t="n">
+      <c r="B235" s="15" t="n">
         <v>18379.2129629631</v>
       </c>
-      <c r="C235" s="14" t="n">
+      <c r="C235" s="15" t="n">
         <v>471.666666666669</v>
       </c>
       <c r="D235" s="11" t="n">
@@ -32024,13 +33120,13 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="14" t="n">
+      <c r="A236" s="15" t="n">
         <v>283</v>
       </c>
-      <c r="B236" s="14" t="n">
+      <c r="B236" s="15" t="n">
         <v>18510.0000000001</v>
       </c>
-      <c r="C236" s="14" t="n">
+      <c r="C236" s="15" t="n">
         <v>473.333333333335</v>
       </c>
       <c r="D236" s="11" t="n">
@@ -32041,13 +33137,13 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="14" t="n">
+      <c r="A237" s="15" t="n">
         <v>284</v>
       </c>
-      <c r="B237" s="14" t="n">
+      <c r="B237" s="15" t="n">
         <v>18641.2500000001</v>
       </c>
-      <c r="C237" s="14" t="n">
+      <c r="C237" s="15" t="n">
         <v>475.000000000002</v>
       </c>
       <c r="D237" s="11" t="n">
@@ -32058,13 +33154,13 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="14" t="n">
+      <c r="A238" s="15" t="n">
         <v>285</v>
       </c>
-      <c r="B238" s="14" t="n">
+      <c r="B238" s="15" t="n">
         <v>18772.9629629631</v>
       </c>
-      <c r="C238" s="14" t="n">
+      <c r="C238" s="15" t="n">
         <v>476.666666666669</v>
       </c>
       <c r="D238" s="11" t="n">
@@ -32075,13 +33171,13 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="14" t="n">
+      <c r="A239" s="15" t="n">
         <v>286</v>
       </c>
-      <c r="B239" s="14" t="n">
+      <c r="B239" s="15" t="n">
         <v>18905.138888889</v>
       </c>
-      <c r="C239" s="14" t="n">
+      <c r="C239" s="15" t="n">
         <v>478.333333333335</v>
       </c>
       <c r="D239" s="11" t="n">
@@ -32092,13 +33188,13 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="14" t="n">
+      <c r="A240" s="15" t="n">
         <v>287</v>
       </c>
-      <c r="B240" s="14" t="n">
+      <c r="B240" s="15" t="n">
         <v>19037.7777777779</v>
       </c>
-      <c r="C240" s="14" t="n">
+      <c r="C240" s="15" t="n">
         <v>480.000000000002</v>
       </c>
       <c r="D240" s="11" t="n">
@@ -32109,13 +33205,13 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="14" t="n">
+      <c r="A241" s="15" t="n">
         <v>288</v>
       </c>
-      <c r="B241" s="14" t="n">
+      <c r="B241" s="15" t="n">
         <v>19170.8796296298</v>
       </c>
-      <c r="C241" s="14" t="n">
+      <c r="C241" s="15" t="n">
         <v>481.666666666669</v>
       </c>
       <c r="D241" s="11" t="n">
@@ -32126,13 +33222,13 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="14" t="n">
+      <c r="A242" s="15" t="n">
         <v>289</v>
       </c>
-      <c r="B242" s="14" t="n">
+      <c r="B242" s="15" t="n">
         <v>19304.4444444446</v>
       </c>
-      <c r="C242" s="14" t="n">
+      <c r="C242" s="15" t="n">
         <v>483.333333333335</v>
       </c>
       <c r="D242" s="11" t="n">
@@ -32143,13 +33239,13 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="14" t="n">
+      <c r="A243" s="15" t="n">
         <v>290</v>
       </c>
-      <c r="B243" s="14" t="n">
+      <c r="B243" s="15" t="n">
         <v>19438.4722222224</v>
       </c>
-      <c r="C243" s="14" t="n">
+      <c r="C243" s="15" t="n">
         <v>485.000000000002</v>
       </c>
       <c r="D243" s="11" t="n">
@@ -32160,13 +33256,13 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="14" t="n">
+      <c r="A244" s="15" t="n">
         <v>291</v>
       </c>
-      <c r="B244" s="14" t="n">
+      <c r="B244" s="15" t="n">
         <v>19572.9629629631</v>
       </c>
-      <c r="C244" s="14" t="n">
+      <c r="C244" s="15" t="n">
         <v>486.666666666669</v>
       </c>
       <c r="D244" s="11" t="n">
@@ -32177,13 +33273,13 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="14" t="n">
+      <c r="A245" s="15" t="n">
         <v>292</v>
       </c>
-      <c r="B245" s="14" t="n">
+      <c r="B245" s="15" t="n">
         <v>19707.9166666668</v>
       </c>
-      <c r="C245" s="14" t="n">
+      <c r="C245" s="15" t="n">
         <v>488.333333333335</v>
       </c>
       <c r="D245" s="11" t="n">
@@ -32194,13 +33290,13 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="14" t="n">
+      <c r="A246" s="15" t="n">
         <v>293</v>
       </c>
-      <c r="B246" s="14" t="n">
+      <c r="B246" s="15" t="n">
         <v>19843.3333333335</v>
       </c>
-      <c r="C246" s="14" t="n">
+      <c r="C246" s="15" t="n">
         <v>490.000000000002</v>
       </c>
       <c r="D246" s="11" t="n">
@@ -32211,13 +33307,13 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="14" t="n">
+      <c r="A247" s="15" t="n">
         <v>294</v>
       </c>
-      <c r="B247" s="14" t="n">
+      <c r="B247" s="15" t="n">
         <v>19979.2129629631</v>
       </c>
-      <c r="C247" s="14" t="n">
+      <c r="C247" s="15" t="n">
         <v>491.666666666669</v>
       </c>
       <c r="D247" s="11" t="n">
@@ -32228,13 +33324,13 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="14" t="n">
+      <c r="A248" s="15" t="n">
         <v>295</v>
       </c>
-      <c r="B248" s="14" t="n">
+      <c r="B248" s="15" t="n">
         <v>20115.5555555557</v>
       </c>
-      <c r="C248" s="14" t="n">
+      <c r="C248" s="15" t="n">
         <v>493.333333333336</v>
       </c>
       <c r="D248" s="11" t="n">
@@ -32245,13 +33341,13 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="14" t="n">
+      <c r="A249" s="15" t="n">
         <v>296</v>
       </c>
-      <c r="B249" s="14" t="n">
+      <c r="B249" s="15" t="n">
         <v>20252.3611111113</v>
       </c>
-      <c r="C249" s="14" t="n">
+      <c r="C249" s="15" t="n">
         <v>495.000000000002</v>
       </c>
       <c r="D249" s="11" t="n">
@@ -32262,13 +33358,13 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="14" t="n">
+      <c r="A250" s="15" t="n">
         <v>297</v>
       </c>
-      <c r="B250" s="14" t="n">
+      <c r="B250" s="15" t="n">
         <v>20389.6296296298</v>
       </c>
-      <c r="C250" s="14" t="n">
+      <c r="C250" s="15" t="n">
         <v>496.666666666669</v>
       </c>
       <c r="D250" s="11" t="n">
@@ -32279,13 +33375,13 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="14" t="n">
+      <c r="A251" s="15" t="n">
         <v>298</v>
       </c>
-      <c r="B251" s="14" t="n">
+      <c r="B251" s="15" t="n">
         <v>20527.3611111113</v>
       </c>
-      <c r="C251" s="14" t="n">
+      <c r="C251" s="15" t="n">
         <v>498.333333333336</v>
       </c>
       <c r="D251" s="11" t="n">
@@ -32296,13 +33392,13 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="14" t="n">
+      <c r="A252" s="15" t="n">
         <v>299</v>
       </c>
-      <c r="B252" s="14" t="n">
+      <c r="B252" s="15" t="n">
         <v>20665.5555555557</v>
       </c>
-      <c r="C252" s="14" t="n">
+      <c r="C252" s="15" t="n">
         <v>500.000000000002</v>
       </c>
       <c r="D252" s="11" t="n">
@@ -32313,13 +33409,13 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="14" t="n">
+      <c r="A253" s="15" t="n">
         <v>300</v>
       </c>
-      <c r="B253" s="14" t="n">
+      <c r="B253" s="15" t="n">
         <v>20804.2129629631</v>
       </c>
-      <c r="C253" s="14" t="n">
+      <c r="C253" s="15" t="n">
         <v>501.666666666669</v>
       </c>
       <c r="D253" s="11" t="n">
@@ -32330,13 +33426,13 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="14" t="n">
+      <c r="A254" s="15" t="n">
         <v>301</v>
       </c>
-      <c r="B254" s="14" t="n">
+      <c r="B254" s="15" t="n">
         <v>20943.3333333335</v>
       </c>
-      <c r="C254" s="14" t="n">
+      <c r="C254" s="15" t="n">
         <v>503.333333333336</v>
       </c>
       <c r="D254" s="11" t="n">
@@ -32347,13 +33443,13 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="14" t="n">
+      <c r="A255" s="15" t="n">
         <v>302</v>
       </c>
-      <c r="B255" s="14" t="n">
+      <c r="B255" s="15" t="n">
         <v>21082.9166666668</v>
       </c>
-      <c r="C255" s="14" t="n">
+      <c r="C255" s="15" t="n">
         <v>505.000000000002</v>
       </c>
       <c r="D255" s="11" t="n">
@@ -32364,13 +33460,13 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="14" t="n">
+      <c r="A256" s="15" t="n">
         <v>303</v>
       </c>
-      <c r="B256" s="14" t="n">
+      <c r="B256" s="15" t="n">
         <v>21222.9629629631</v>
       </c>
-      <c r="C256" s="14" t="n">
+      <c r="C256" s="15" t="n">
         <v>506.666666666669</v>
       </c>
       <c r="D256" s="11" t="n">
@@ -32381,13 +33477,13 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="14" t="n">
+      <c r="A257" s="15" t="n">
         <v>304</v>
       </c>
-      <c r="B257" s="14" t="n">
+      <c r="B257" s="15" t="n">
         <v>21363.4722222224</v>
       </c>
-      <c r="C257" s="14" t="n">
+      <c r="C257" s="15" t="n">
         <v>508.333333333336</v>
       </c>
       <c r="D257" s="11" t="n">
@@ -32398,13 +33494,13 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="14" t="n">
+      <c r="A258" s="15" t="n">
         <v>305</v>
       </c>
-      <c r="B258" s="14" t="n">
+      <c r="B258" s="15" t="n">
         <v>21504.4444444446</v>
       </c>
-      <c r="C258" s="14" t="n">
+      <c r="C258" s="15" t="n">
         <v>510.000000000002</v>
       </c>
       <c r="D258" s="11" t="n">
@@ -32415,13 +33511,13 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="14" t="n">
+      <c r="A259" s="15" t="n">
         <v>306</v>
       </c>
-      <c r="B259" s="14" t="n">
+      <c r="B259" s="15" t="n">
         <v>21645.8796296298</v>
       </c>
-      <c r="C259" s="14" t="n">
+      <c r="C259" s="15" t="n">
         <v>511.666666666669</v>
       </c>
       <c r="D259" s="11" t="n">
@@ -32432,13 +33528,13 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="14" t="n">
+      <c r="A260" s="15" t="n">
         <v>307</v>
       </c>
-      <c r="B260" s="14" t="n">
+      <c r="B260" s="15" t="n">
         <v>21787.7777777779</v>
       </c>
-      <c r="C260" s="14" t="n">
+      <c r="C260" s="15" t="n">
         <v>513.333333333336</v>
       </c>
       <c r="D260" s="11" t="n">
@@ -32449,13 +33545,13 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="14" t="n">
+      <c r="A261" s="15" t="n">
         <v>308</v>
       </c>
-      <c r="B261" s="14" t="n">
+      <c r="B261" s="15" t="n">
         <v>21930.1388888891</v>
       </c>
-      <c r="C261" s="14" t="n">
+      <c r="C261" s="15" t="n">
         <v>515.000000000002</v>
       </c>
       <c r="D261" s="11" t="n">
@@ -32466,13 +33562,13 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="14" t="n">
+      <c r="A262" s="15" t="n">
         <v>309</v>
       </c>
-      <c r="B262" s="14" t="n">
+      <c r="B262" s="15" t="n">
         <v>22072.9629629631</v>
       </c>
-      <c r="C262" s="14" t="n">
+      <c r="C262" s="15" t="n">
         <v>516.666666666669</v>
       </c>
       <c r="D262" s="11" t="n">
@@ -32483,13 +33579,13 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="14" t="n">
+      <c r="A263" s="15" t="n">
         <v>310</v>
       </c>
-      <c r="B263" s="14" t="n">
+      <c r="B263" s="15" t="n">
         <v>22216.2500000001</v>
       </c>
-      <c r="C263" s="14" t="n">
+      <c r="C263" s="15" t="n">
         <v>518.333333333336</v>
       </c>
       <c r="D263" s="11" t="n">
@@ -32500,13 +33596,13 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="14" t="n">
+      <c r="A264" s="15" t="n">
         <v>311</v>
       </c>
-      <c r="B264" s="14" t="n">
+      <c r="B264" s="15" t="n">
         <v>22360.0000000001</v>
       </c>
-      <c r="C264" s="14" t="n">
+      <c r="C264" s="15" t="n">
         <v>520.000000000002</v>
       </c>
       <c r="D264" s="11" t="n">
@@ -32517,13 +33613,13 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="14" t="n">
+      <c r="A265" s="15" t="n">
         <v>312</v>
       </c>
-      <c r="B265" s="14" t="n">
+      <c r="B265" s="15" t="n">
         <v>22504.2129629631</v>
       </c>
-      <c r="C265" s="14" t="n">
+      <c r="C265" s="15" t="n">
         <v>521.666666666669</v>
       </c>
       <c r="D265" s="11" t="n">
@@ -32534,13 +33630,13 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="14" t="n">
+      <c r="A266" s="15" t="n">
         <v>313</v>
       </c>
-      <c r="B266" s="14" t="n">
+      <c r="B266" s="15" t="n">
         <v>22648.888888889</v>
       </c>
-      <c r="C266" s="14" t="n">
+      <c r="C266" s="15" t="n">
         <v>523.333333333335</v>
       </c>
       <c r="D266" s="11" t="n">
@@ -32551,13 +33647,13 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="14" t="n">
+      <c r="A267" s="15" t="n">
         <v>314</v>
       </c>
-      <c r="B267" s="14" t="n">
+      <c r="B267" s="15" t="n">
         <v>22794.0277777779</v>
       </c>
-      <c r="C267" s="14" t="n">
+      <c r="C267" s="15" t="n">
         <v>525.000000000002</v>
       </c>
       <c r="D267" s="11" t="n">
@@ -32568,13 +33664,13 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="14" t="n">
+      <c r="A268" s="15" t="n">
         <v>315</v>
       </c>
-      <c r="B268" s="14" t="n">
+      <c r="B268" s="15" t="n">
         <v>22939.6296296298</v>
       </c>
-      <c r="C268" s="14" t="n">
+      <c r="C268" s="15" t="n">
         <v>526.666666666669</v>
       </c>
       <c r="D268" s="11" t="n">
@@ -32585,13 +33681,13 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="14" t="n">
+      <c r="A269" s="15" t="n">
         <v>316</v>
       </c>
-      <c r="B269" s="14" t="n">
+      <c r="B269" s="15" t="n">
         <v>23085.6944444446</v>
       </c>
-      <c r="C269" s="14" t="n">
+      <c r="C269" s="15" t="n">
         <v>528.333333333335</v>
       </c>
       <c r="D269" s="11" t="n">
@@ -32602,13 +33698,13 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="14" t="n">
+      <c r="A270" s="15" t="n">
         <v>317</v>
       </c>
-      <c r="B270" s="14" t="n">
+      <c r="B270" s="15" t="n">
         <v>23232.2222222224</v>
       </c>
-      <c r="C270" s="14" t="n">
+      <c r="C270" s="15" t="n">
         <v>530.000000000002</v>
       </c>
       <c r="D270" s="11" t="n">
@@ -32619,13 +33715,13 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="14" t="n">
+      <c r="A271" s="15" t="n">
         <v>318</v>
       </c>
-      <c r="B271" s="14" t="n">
+      <c r="B271" s="15" t="n">
         <v>23379.2129629631</v>
       </c>
-      <c r="C271" s="14" t="n">
+      <c r="C271" s="15" t="n">
         <v>531.666666666669</v>
       </c>
       <c r="D271" s="11" t="n">
@@ -32636,13 +33732,13 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="14" t="n">
+      <c r="A272" s="15" t="n">
         <v>319</v>
       </c>
-      <c r="B272" s="14" t="n">
+      <c r="B272" s="15" t="n">
         <v>23526.6666666668</v>
       </c>
-      <c r="C272" s="14" t="n">
+      <c r="C272" s="15" t="n">
         <v>533.333333333335</v>
       </c>
       <c r="D272" s="11" t="n">
@@ -32653,13 +33749,13 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="14" t="n">
+      <c r="A273" s="15" t="n">
         <v>320</v>
       </c>
-      <c r="B273" s="14" t="n">
+      <c r="B273" s="15" t="n">
         <v>23674.5833333335</v>
       </c>
-      <c r="C273" s="14" t="n">
+      <c r="C273" s="15" t="n">
         <v>535.000000000002</v>
       </c>
       <c r="D273" s="11" t="n">
@@ -32854,7 +33950,7 @@
       <selection pane="bottomLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -34971,7 +36067,7 @@
       <selection pane="bottomLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
